--- a/BackTest/2019-10-17 BackTest LINK.xlsx
+++ b/BackTest/2019-10-17 BackTest LINK.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>74</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>34.28571428571428</v>
+      </c>
       <c r="L12" t="n">
         <v>2701.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>74</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>44.61538461538462</v>
+      </c>
       <c r="L13" t="n">
         <v>2703.8</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>75</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>29.41176470588236</v>
+      </c>
       <c r="L14" t="n">
         <v>2706.8</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>76</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
       <c r="L15" t="n">
         <v>2708.4</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>78</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>23.40425531914894</v>
+      </c>
       <c r="L16" t="n">
         <v>2709.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>81</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>82.85714285714286</v>
+      </c>
       <c r="L17" t="n">
         <v>2710.9</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>83</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>81.81818181818183</v>
+      </c>
       <c r="L18" t="n">
         <v>2714</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>85</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>60</v>
+      </c>
       <c r="L19" t="n">
         <v>2716.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>85</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>57.14285714285714</v>
+      </c>
       <c r="L20" t="n">
         <v>2717.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>85</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>100</v>
+      </c>
       <c r="L21" t="n">
         <v>2718.6</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>90</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>100</v>
+      </c>
       <c r="L22" t="n">
         <v>2720.2</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>90</v>
       </c>
       <c r="K23" t="n">
-        <v>46.51162790697674</v>
+        <v>100</v>
       </c>
       <c r="L23" t="n">
         <v>2721.8</v>
@@ -1466,7 +1488,7 @@
         <v>90</v>
       </c>
       <c r="K24" t="n">
-        <v>55.55555555555556</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>2723.3</v>
@@ -1515,7 +1537,7 @@
         <v>101</v>
       </c>
       <c r="K25" t="n">
-        <v>53.24675324675324</v>
+        <v>100</v>
       </c>
       <c r="L25" t="n">
         <v>2725.8</v>
@@ -1564,7 +1586,7 @@
         <v>111</v>
       </c>
       <c r="K26" t="n">
-        <v>55.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="L26" t="n">
         <v>2729.1</v>
@@ -1613,7 +1635,7 @@
         <v>126</v>
       </c>
       <c r="K27" t="n">
-        <v>62.10526315789474</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>2733.6</v>
@@ -1662,7 +1684,7 @@
         <v>130</v>
       </c>
       <c r="K28" t="n">
-        <v>92.85714285714286</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>2738.3</v>
@@ -1711,7 +1733,7 @@
         <v>135</v>
       </c>
       <c r="K29" t="n">
-        <v>81.17647058823529</v>
+        <v>80</v>
       </c>
       <c r="L29" t="n">
         <v>2742.3</v>
@@ -1760,7 +1782,7 @@
         <v>137</v>
       </c>
       <c r="K30" t="n">
-        <v>76.11940298507463</v>
+        <v>80.76923076923077</v>
       </c>
       <c r="L30" t="n">
         <v>2746.5</v>
@@ -1809,7 +1831,7 @@
         <v>148</v>
       </c>
       <c r="K31" t="n">
-        <v>79.22077922077922</v>
+        <v>82.75862068965517</v>
       </c>
       <c r="L31" t="n">
         <v>2751.8</v>
@@ -1860,7 +1882,7 @@
         <v>149</v>
       </c>
       <c r="K32" t="n">
-        <v>86.66666666666667</v>
+        <v>83.05084745762711</v>
       </c>
       <c r="L32" t="n">
         <v>2756.7</v>
@@ -1911,7 +1933,7 @@
         <v>156</v>
       </c>
       <c r="K33" t="n">
-        <v>87.80487804878049</v>
+        <v>84.84848484848484</v>
       </c>
       <c r="L33" t="n">
         <v>2762.3</v>
@@ -1962,7 +1984,7 @@
         <v>156</v>
       </c>
       <c r="K34" t="n">
-        <v>87.65432098765432</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L34" t="n">
         <v>2767.9</v>
@@ -2013,7 +2035,7 @@
         <v>157</v>
       </c>
       <c r="K35" t="n">
-        <v>85.18518518518519</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L35" t="n">
         <v>2772.3</v>
@@ -2064,7 +2086,7 @@
         <v>158</v>
       </c>
       <c r="K36" t="n">
-        <v>82.5</v>
+        <v>56.25</v>
       </c>
       <c r="L36" t="n">
         <v>2775.6</v>
@@ -2115,7 +2137,7 @@
         <v>160</v>
       </c>
       <c r="K37" t="n">
-        <v>82.27848101265823</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L37" t="n">
         <v>2777.6</v>
@@ -2166,7 +2188,7 @@
         <v>160</v>
       </c>
       <c r="K38" t="n">
-        <v>81.81818181818183</v>
+        <v>84</v>
       </c>
       <c r="L38" t="n">
         <v>2779.2</v>
@@ -2217,7 +2239,7 @@
         <v>169</v>
       </c>
       <c r="K39" t="n">
-        <v>61.90476190476191</v>
+        <v>31.25</v>
       </c>
       <c r="L39" t="n">
         <v>2780.4</v>
@@ -2268,7 +2290,7 @@
         <v>169</v>
       </c>
       <c r="K40" t="n">
-        <v>61.90476190476191</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L40" t="n">
         <v>2781.4</v>
@@ -2319,7 +2341,7 @@
         <v>170</v>
       </c>
       <c r="K41" t="n">
-        <v>60</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L41" t="n">
         <v>2781.2</v>
@@ -2370,7 +2392,7 @@
         <v>170</v>
       </c>
       <c r="K42" t="n">
-        <v>57.49999999999999</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L42" t="n">
         <v>2780.9</v>
@@ -2421,7 +2443,7 @@
         <v>178</v>
       </c>
       <c r="K43" t="n">
-        <v>43.18181818181818</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L43" t="n">
         <v>2779.1</v>
@@ -2472,7 +2494,7 @@
         <v>193</v>
       </c>
       <c r="K44" t="n">
-        <v>22.33009708737864</v>
+        <v>-88.88888888888889</v>
       </c>
       <c r="L44" t="n">
         <v>2775.8</v>
@@ -2523,7 +2545,7 @@
         <v>217</v>
       </c>
       <c r="K45" t="n">
-        <v>31.03448275862069</v>
+        <v>-11.86440677966102</v>
       </c>
       <c r="L45" t="n">
         <v>2775</v>
@@ -2574,7 +2596,7 @@
         <v>219</v>
       </c>
       <c r="K46" t="n">
-        <v>22.22222222222222</v>
+        <v>-18.64406779661017</v>
       </c>
       <c r="L46" t="n">
         <v>2774.1</v>
@@ -2625,7 +2647,7 @@
         <v>230</v>
       </c>
       <c r="K47" t="n">
-        <v>19.23076923076923</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>2774.1</v>
@@ -2676,7 +2698,7 @@
         <v>241</v>
       </c>
       <c r="K48" t="n">
-        <v>24.32432432432433</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L48" t="n">
         <v>2775.2</v>
@@ -2727,7 +2749,7 @@
         <v>248</v>
       </c>
       <c r="K49" t="n">
-        <v>22.12389380530973</v>
+        <v>16.45569620253164</v>
       </c>
       <c r="L49" t="n">
         <v>2776.5</v>
@@ -2778,7 +2800,7 @@
         <v>249</v>
       </c>
       <c r="K50" t="n">
-        <v>21.42857142857143</v>
+        <v>18.9873417721519</v>
       </c>
       <c r="L50" t="n">
         <v>2777.9</v>
@@ -2829,7 +2851,7 @@
         <v>250</v>
       </c>
       <c r="K51" t="n">
-        <v>11.76470588235294</v>
+        <v>17.5</v>
       </c>
       <c r="L51" t="n">
         <v>2779.3</v>
@@ -2880,7 +2902,7 @@
         <v>257</v>
       </c>
       <c r="K52" t="n">
-        <v>16.66666666666666</v>
+        <v>36.70886075949367</v>
       </c>
       <c r="L52" t="n">
         <v>2781.4</v>
@@ -2931,7 +2953,7 @@
         <v>260</v>
       </c>
       <c r="K53" t="n">
-        <v>13.46153846153846</v>
+        <v>70.14925373134329</v>
       </c>
       <c r="L53" t="n">
         <v>2784.6</v>
@@ -2982,7 +3004,7 @@
         <v>260</v>
       </c>
       <c r="K54" t="n">
-        <v>13.46153846153846</v>
+        <v>53.48837209302325</v>
       </c>
       <c r="L54" t="n">
         <v>2789.3</v>
@@ -3033,7 +3055,7 @@
         <v>260</v>
       </c>
       <c r="K55" t="n">
-        <v>14.5631067961165</v>
+        <v>60.97560975609756</v>
       </c>
       <c r="L55" t="n">
         <v>2791.6</v>
@@ -3084,7 +3106,7 @@
         <v>261</v>
       </c>
       <c r="K56" t="n">
-        <v>16.50485436893204</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L56" t="n">
         <v>2794.2</v>
@@ -3135,7 +3157,7 @@
         <v>266</v>
       </c>
       <c r="K57" t="n">
-        <v>9.433962264150944</v>
+        <v>-4</v>
       </c>
       <c r="L57" t="n">
         <v>2795.2</v>
@@ -3186,7 +3208,7 @@
         <v>270</v>
       </c>
       <c r="K58" t="n">
-        <v>12.72727272727273</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L58" t="n">
         <v>2795.5</v>
@@ -3237,7 +3259,7 @@
         <v>279</v>
       </c>
       <c r="K59" t="n">
-        <v>12.72727272727273</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>2795.6</v>
@@ -3288,7 +3310,7 @@
         <v>282</v>
       </c>
       <c r="K60" t="n">
-        <v>9.734513274336283</v>
+        <v>-6.25</v>
       </c>
       <c r="L60" t="n">
         <v>2795.3</v>
@@ -3339,7 +3361,7 @@
         <v>283</v>
       </c>
       <c r="K61" t="n">
-        <v>9.734513274336283</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L61" t="n">
         <v>2795</v>
@@ -3390,7 +3412,7 @@
         <v>291</v>
       </c>
       <c r="K62" t="n">
-        <v>2.479338842975207</v>
+        <v>-67.74193548387096</v>
       </c>
       <c r="L62" t="n">
         <v>2793.2</v>
@@ -3441,7 +3463,7 @@
         <v>291</v>
       </c>
       <c r="K63" t="n">
-        <v>9.734513274336283</v>
+        <v>-67.74193548387096</v>
       </c>
       <c r="L63" t="n">
         <v>2791.1</v>
@@ -3492,7 +3514,7 @@
         <v>291</v>
       </c>
       <c r="K64" t="n">
-        <v>26.53061224489796</v>
+        <v>-67.74193548387096</v>
       </c>
       <c r="L64" t="n">
         <v>2789</v>
@@ -3543,7 +3565,7 @@
         <v>293</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="L65" t="n">
         <v>2786.7</v>
@@ -3594,7 +3616,7 @@
         <v>294</v>
       </c>
       <c r="K66" t="n">
-        <v>4</v>
+        <v>-64.28571428571429</v>
       </c>
       <c r="L66" t="n">
         <v>2784.4</v>
@@ -3645,7 +3667,7 @@
         <v>294</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.5</v>
+        <v>-91.66666666666666</v>
       </c>
       <c r="L67" t="n">
         <v>2782.6</v>
@@ -3696,7 +3718,7 @@
         <v>294</v>
       </c>
       <c r="K68" t="n">
-        <v>-35.84905660377358</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L68" t="n">
         <v>2780.4</v>
@@ -3747,7 +3769,7 @@
         <v>294</v>
       </c>
       <c r="K69" t="n">
-        <v>-26.08695652173913</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L69" t="n">
         <v>2779.1</v>
@@ -3798,7 +3820,7 @@
         <v>298</v>
       </c>
       <c r="K70" t="n">
-        <v>-34.69387755102041</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="L70" t="n">
         <v>2777.7</v>
@@ -3849,7 +3871,7 @@
         <v>301</v>
       </c>
       <c r="K71" t="n">
-        <v>-37.25490196078432</v>
+        <v>-80</v>
       </c>
       <c r="L71" t="n">
         <v>2776.1</v>
@@ -3900,7 +3922,7 @@
         <v>301</v>
       </c>
       <c r="K72" t="n">
-        <v>-59.09090909090909</v>
+        <v>-80</v>
       </c>
       <c r="L72" t="n">
         <v>2775.3</v>
@@ -3951,7 +3973,7 @@
         <v>302</v>
       </c>
       <c r="K73" t="n">
-        <v>-71.42857142857143</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L73" t="n">
         <v>2774.4</v>
@@ -4002,7 +4024,7 @@
         <v>309</v>
       </c>
       <c r="K74" t="n">
-        <v>-75.51020408163265</v>
+        <v>-87.5</v>
       </c>
       <c r="L74" t="n">
         <v>2772.8</v>
@@ -4053,7 +4075,7 @@
         <v>309</v>
       </c>
       <c r="K75" t="n">
-        <v>-75.51020408163265</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>2771.4</v>
@@ -4104,7 +4126,7 @@
         <v>309</v>
       </c>
       <c r="K76" t="n">
-        <v>-79.16666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L76" t="n">
         <v>2769.9</v>
@@ -4155,7 +4177,7 @@
         <v>309</v>
       </c>
       <c r="K77" t="n">
-        <v>-76.74418604651163</v>
+        <v>-100</v>
       </c>
       <c r="L77" t="n">
         <v>2768.4</v>
@@ -4206,7 +4228,7 @@
         <v>309</v>
       </c>
       <c r="K78" t="n">
-        <v>-94.87179487179486</v>
+        <v>-100</v>
       </c>
       <c r="L78" t="n">
         <v>2766.9</v>
@@ -4257,7 +4279,7 @@
         <v>309</v>
       </c>
       <c r="K79" t="n">
-        <v>-93.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L79" t="n">
         <v>2765.4</v>
@@ -4308,7 +4330,7 @@
         <v>310</v>
       </c>
       <c r="K80" t="n">
-        <v>-92.85714285714286</v>
+        <v>-100</v>
       </c>
       <c r="L80" t="n">
         <v>2764.2</v>
@@ -4359,7 +4381,7 @@
         <v>312</v>
       </c>
       <c r="K81" t="n">
-        <v>-93.10344827586206</v>
+        <v>-100</v>
       </c>
       <c r="L81" t="n">
         <v>2763.1</v>
@@ -4410,7 +4432,7 @@
         <v>320</v>
       </c>
       <c r="K82" t="n">
-        <v>-37.93103448275862</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L82" t="n">
         <v>2762.8</v>
@@ -4461,7 +4483,7 @@
         <v>328</v>
       </c>
       <c r="K83" t="n">
-        <v>-8.108108108108109</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L83" t="n">
         <v>2763.4</v>
@@ -4512,7 +4534,7 @@
         <v>333</v>
       </c>
       <c r="K84" t="n">
-        <v>-19.04761904761905</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>2764.2</v>
@@ -4563,7 +4585,7 @@
         <v>340</v>
       </c>
       <c r="K85" t="n">
-        <v>2.127659574468085</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L85" t="n">
         <v>2765.7</v>
@@ -4614,7 +4636,7 @@
         <v>342</v>
       </c>
       <c r="K86" t="n">
-        <v>-4.166666666666666</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L86" t="n">
         <v>2767</v>
@@ -4665,7 +4687,7 @@
         <v>344</v>
       </c>
       <c r="K87" t="n">
-        <v>-8</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L87" t="n">
         <v>2768.1</v>
@@ -4716,7 +4738,7 @@
         <v>349</v>
       </c>
       <c r="K88" t="n">
-        <v>1.818181818181818</v>
+        <v>40</v>
       </c>
       <c r="L88" t="n">
         <v>2769.7</v>
@@ -4767,7 +4789,7 @@
         <v>350</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L89" t="n">
         <v>2771.2</v>
@@ -4818,7 +4840,7 @@
         <v>353</v>
       </c>
       <c r="K90" t="n">
-        <v>1.818181818181818</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="L90" t="n">
         <v>2772.5</v>
@@ -4869,7 +4891,7 @@
         <v>357</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L91" t="n">
         <v>2773.6</v>
@@ -4920,7 +4942,7 @@
         <v>367</v>
       </c>
       <c r="K92" t="n">
-        <v>15.15151515151515</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L92" t="n">
         <v>2774.9</v>
@@ -4971,7 +4993,7 @@
         <v>368</v>
       </c>
       <c r="K93" t="n">
-        <v>15.15151515151515</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L93" t="n">
         <v>2775.3</v>
@@ -5022,7 +5044,7 @@
         <v>373</v>
       </c>
       <c r="K94" t="n">
-        <v>34.375</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L94" t="n">
         <v>2776.7</v>
@@ -5073,7 +5095,7 @@
         <v>376</v>
       </c>
       <c r="K95" t="n">
-        <v>28.35820895522388</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L95" t="n">
         <v>2777.1</v>
@@ -5124,7 +5146,7 @@
         <v>394</v>
       </c>
       <c r="K96" t="n">
-        <v>43.52941176470588</v>
+        <v>52</v>
       </c>
       <c r="L96" t="n">
         <v>2779.5</v>
@@ -5175,7 +5197,7 @@
         <v>395</v>
       </c>
       <c r="K97" t="n">
-        <v>41.86046511627907</v>
+        <v>43.47826086956522</v>
       </c>
       <c r="L97" t="n">
         <v>2782</v>
@@ -5226,7 +5248,7 @@
         <v>399</v>
       </c>
       <c r="K98" t="n">
-        <v>44.44444444444444</v>
+        <v>51.02040816326531</v>
       </c>
       <c r="L98" t="n">
         <v>2784.4</v>
@@ -5277,7 +5299,7 @@
         <v>400</v>
       </c>
       <c r="K99" t="n">
-        <v>45.05494505494506</v>
+        <v>61.70212765957447</v>
       </c>
       <c r="L99" t="n">
         <v>2787</v>
@@ -5328,7 +5350,7 @@
         <v>402</v>
       </c>
       <c r="K100" t="n">
-        <v>43.47826086956522</v>
+        <v>68.88888888888889</v>
       </c>
       <c r="L100" t="n">
         <v>2789.7</v>
@@ -5379,7 +5401,7 @@
         <v>402</v>
       </c>
       <c r="K101" t="n">
-        <v>46.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L101" t="n">
         <v>2792.8</v>
@@ -5430,7 +5452,7 @@
         <v>402</v>
       </c>
       <c r="K102" t="n">
-        <v>41.46341463414634</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="L102" t="n">
         <v>2794.9</v>
@@ -5481,7 +5503,7 @@
         <v>409</v>
       </c>
       <c r="K103" t="n">
-        <v>40.74074074074074</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L103" t="n">
         <v>2797.8</v>
@@ -5532,7 +5554,7 @@
         <v>412</v>
       </c>
       <c r="K104" t="n">
-        <v>44.30379746835442</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L104" t="n">
         <v>2799.9</v>
@@ -5583,7 +5605,7 @@
         <v>419</v>
       </c>
       <c r="K105" t="n">
-        <v>44.30379746835442</v>
+        <v>52</v>
       </c>
       <c r="L105" t="n">
         <v>2803</v>
@@ -5634,7 +5656,7 @@
         <v>420</v>
       </c>
       <c r="K106" t="n">
-        <v>48.71794871794872</v>
+        <v>60</v>
       </c>
       <c r="L106" t="n">
         <v>2804.4</v>
@@ -5685,7 +5707,7 @@
         <v>427</v>
       </c>
       <c r="K107" t="n">
-        <v>56.62650602409639</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="L107" t="n">
         <v>2806.6</v>
@@ -5736,7 +5758,7 @@
         <v>429</v>
       </c>
       <c r="K108" t="n">
-        <v>50</v>
+        <v>51.72413793103448</v>
       </c>
       <c r="L108" t="n">
         <v>2808.2</v>
@@ -5787,7 +5809,7 @@
         <v>435</v>
       </c>
       <c r="K109" t="n">
-        <v>41.17647058823529</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>2809.1</v>
@@ -5838,7 +5860,7 @@
         <v>435</v>
       </c>
       <c r="K110" t="n">
-        <v>46.34146341463415</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>2810.2</v>
@@ -5889,7 +5911,7 @@
         <v>435</v>
       </c>
       <c r="K111" t="n">
-        <v>53.84615384615385</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>2811.3</v>
@@ -5940,7 +5962,7 @@
         <v>437</v>
       </c>
       <c r="K112" t="n">
-        <v>48.57142857142857</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L112" t="n">
         <v>2812.6</v>
@@ -5991,7 +6013,7 @@
         <v>440</v>
       </c>
       <c r="K113" t="n">
-        <v>44.44444444444444</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L113" t="n">
         <v>2812.9</v>
@@ -6042,7 +6064,7 @@
         <v>440</v>
       </c>
       <c r="K114" t="n">
-        <v>40.29850746268657</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L114" t="n">
         <v>2813.5</v>
@@ -6093,7 +6115,7 @@
         <v>441</v>
       </c>
       <c r="K115" t="n">
-        <v>44.61538461538462</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L115" t="n">
         <v>2813.3</v>
@@ -6144,7 +6166,7 @@
         <v>442</v>
       </c>
       <c r="K116" t="n">
-        <v>20.83333333333334</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>2812.9</v>
@@ -6195,7 +6217,7 @@
         <v>451</v>
       </c>
       <c r="K117" t="n">
-        <v>35.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>2812.7</v>
@@ -6246,7 +6268,7 @@
         <v>453</v>
       </c>
       <c r="K118" t="n">
-        <v>33.33333333333333</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L118" t="n">
         <v>2812.9</v>
@@ -6297,7 +6319,7 @@
         <v>461</v>
       </c>
       <c r="K119" t="n">
-        <v>40.98360655737705</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="L119" t="n">
         <v>2814.5</v>
@@ -6348,7 +6370,7 @@
         <v>465</v>
       </c>
       <c r="K120" t="n">
-        <v>36.50793650793651</v>
+        <v>40</v>
       </c>
       <c r="L120" t="n">
         <v>2815.7</v>
@@ -6399,7 +6421,7 @@
         <v>473</v>
       </c>
       <c r="K121" t="n">
-        <v>21.12676056338028</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L121" t="n">
         <v>2816.1</v>
@@ -6501,7 +6523,7 @@
         <v>494</v>
       </c>
       <c r="K123" t="n">
-        <v>34.11764705882353</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="L123" t="n">
         <v>2819.4</v>
@@ -6552,7 +6574,7 @@
         <v>501</v>
       </c>
       <c r="K124" t="n">
-        <v>28.08988764044944</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>2821.3</v>
@@ -6603,7 +6625,7 @@
         <v>515</v>
       </c>
       <c r="K125" t="n">
-        <v>33.33333333333333</v>
+        <v>47.94520547945205</v>
       </c>
       <c r="L125" t="n">
         <v>2824.7</v>
@@ -6654,7 +6676,7 @@
         <v>524</v>
       </c>
       <c r="K126" t="n">
-        <v>21.15384615384615</v>
+        <v>23.28767123287671</v>
       </c>
       <c r="L126" t="n">
         <v>2827.3</v>
@@ -6705,7 +6727,7 @@
         <v>531</v>
       </c>
       <c r="K127" t="n">
-        <v>21.15384615384615</v>
+        <v>28.2051282051282</v>
       </c>
       <c r="L127" t="n">
         <v>2829.7</v>
@@ -6756,7 +6778,7 @@
         <v>532</v>
       </c>
       <c r="K128" t="n">
-        <v>24.27184466019418</v>
+        <v>21.12676056338028</v>
       </c>
       <c r="L128" t="n">
         <v>2832</v>
@@ -6807,7 +6829,7 @@
         <v>532</v>
       </c>
       <c r="K129" t="n">
-        <v>31.95876288659793</v>
+        <v>28.35820895522388</v>
       </c>
       <c r="L129" t="n">
         <v>2833.5</v>
@@ -6858,7 +6880,7 @@
         <v>533</v>
       </c>
       <c r="K130" t="n">
-        <v>30.61224489795918</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="L130" t="n">
         <v>2835.3</v>
@@ -6909,7 +6931,7 @@
         <v>533</v>
       </c>
       <c r="K131" t="n">
-        <v>30.61224489795918</v>
+        <v>38.18181818181819</v>
       </c>
       <c r="L131" t="n">
         <v>2837.9</v>
@@ -6960,7 +6982,7 @@
         <v>542</v>
       </c>
       <c r="K132" t="n">
-        <v>18.09523809523809</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L132" t="n">
         <v>2839.1</v>
@@ -7011,7 +7033,7 @@
         <v>546</v>
       </c>
       <c r="K133" t="n">
-        <v>16.9811320754717</v>
+        <v>-2.222222222222222</v>
       </c>
       <c r="L133" t="n">
         <v>2838.3</v>
@@ -7062,7 +7084,7 @@
         <v>551</v>
       </c>
       <c r="K134" t="n">
-        <v>11.71171171171171</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L134" t="n">
         <v>2837.7</v>
@@ -7113,7 +7135,7 @@
         <v>557</v>
       </c>
       <c r="K135" t="n">
-        <v>17.24137931034483</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L135" t="n">
         <v>2836.3</v>
@@ -7164,7 +7186,7 @@
         <v>559</v>
       </c>
       <c r="K136" t="n">
-        <v>19.65811965811966</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L136" t="n">
         <v>2836</v>
@@ -7215,7 +7237,7 @@
         <v>564</v>
       </c>
       <c r="K137" t="n">
-        <v>16.8141592920354</v>
+        <v>-18.75</v>
       </c>
       <c r="L137" t="n">
         <v>2835.5</v>
@@ -7266,7 +7288,7 @@
         <v>566</v>
       </c>
       <c r="K138" t="n">
-        <v>16.8141592920354</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L138" t="n">
         <v>2835.1</v>
@@ -7317,7 +7339,7 @@
         <v>566</v>
       </c>
       <c r="K139" t="n">
-        <v>10.47619047619048</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L139" t="n">
         <v>2834.7</v>
@@ -7368,7 +7390,7 @@
         <v>568</v>
       </c>
       <c r="K140" t="n">
-        <v>12.62135922330097</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L140" t="n">
         <v>2834.2</v>
@@ -7419,7 +7441,7 @@
         <v>571</v>
       </c>
       <c r="K141" t="n">
-        <v>18.36734693877551</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L141" t="n">
         <v>2833.4</v>
@@ -7470,7 +7492,7 @@
         <v>578</v>
       </c>
       <c r="K142" t="n">
-        <v>20</v>
+        <v>37.5</v>
       </c>
       <c r="L142" t="n">
         <v>2834.2</v>
@@ -7521,7 +7543,7 @@
         <v>578</v>
       </c>
       <c r="K143" t="n">
-        <v>4.761904761904762</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="L143" t="n">
         <v>2835.4</v>
@@ -7572,7 +7594,7 @@
         <v>578</v>
       </c>
       <c r="K144" t="n">
-        <v>14.28571428571428</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L144" t="n">
         <v>2837.1</v>
@@ -7623,7 +7645,7 @@
         <v>580</v>
       </c>
       <c r="K145" t="n">
-        <v>-1.538461538461539</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L145" t="n">
         <v>2838.4</v>
@@ -7674,7 +7696,7 @@
         <v>587</v>
       </c>
       <c r="K146" t="n">
-        <v>23.80952380952381</v>
+        <v>56.52173913043478</v>
       </c>
       <c r="L146" t="n">
         <v>2840.2</v>
@@ -7725,7 +7747,7 @@
         <v>590</v>
       </c>
       <c r="K147" t="n">
-        <v>18.64406779661017</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L147" t="n">
         <v>2841.8</v>
@@ -7776,7 +7798,7 @@
         <v>591</v>
       </c>
       <c r="K148" t="n">
-        <v>18.64406779661017</v>
+        <v>60</v>
       </c>
       <c r="L148" t="n">
         <v>2843.3</v>
@@ -7827,7 +7849,7 @@
         <v>591</v>
       </c>
       <c r="K149" t="n">
-        <v>18.64406779661017</v>
+        <v>73.91304347826086</v>
       </c>
       <c r="L149" t="n">
         <v>2844.8</v>
@@ -7878,7 +7900,7 @@
         <v>597</v>
       </c>
       <c r="K150" t="n">
-        <v>9.375</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L150" t="n">
         <v>2845.9</v>
@@ -7929,7 +7951,7 @@
         <v>599</v>
       </c>
       <c r="K151" t="n">
-        <v>12.12121212121212</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L151" t="n">
         <v>2847.5</v>
@@ -7980,7 +8002,7 @@
         <v>600</v>
       </c>
       <c r="K152" t="n">
-        <v>31.03448275862069</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L152" t="n">
         <v>2848.5</v>
@@ -8031,7 +8053,7 @@
         <v>604</v>
       </c>
       <c r="K153" t="n">
-        <v>44.82758620689656</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L153" t="n">
         <v>2849.9</v>
@@ -8082,7 +8104,7 @@
         <v>606</v>
       </c>
       <c r="K154" t="n">
-        <v>52.72727272727272</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L154" t="n">
         <v>2851.1</v>
@@ -8133,7 +8155,7 @@
         <v>611</v>
       </c>
       <c r="K155" t="n">
-        <v>33.33333333333333</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L155" t="n">
         <v>2851.6</v>
@@ -8184,7 +8206,7 @@
         <v>612</v>
       </c>
       <c r="K156" t="n">
-        <v>28.30188679245283</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L156" t="n">
         <v>2851.3</v>
@@ -8235,7 +8257,7 @@
         <v>613</v>
       </c>
       <c r="K157" t="n">
-        <v>22.44897959183674</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L157" t="n">
         <v>2850.8</v>
@@ -8286,7 +8308,7 @@
         <v>617</v>
       </c>
       <c r="K158" t="n">
-        <v>9.803921568627452</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L158" t="n">
         <v>2849.8</v>
@@ -8337,7 +8359,7 @@
         <v>620</v>
       </c>
       <c r="K159" t="n">
-        <v>14.81481481481481</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L159" t="n">
         <v>2849.1</v>
@@ -8388,7 +8410,7 @@
         <v>626</v>
       </c>
       <c r="K160" t="n">
-        <v>27.58620689655172</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L160" t="n">
         <v>2849.6</v>
@@ -8439,7 +8461,7 @@
         <v>627</v>
       </c>
       <c r="K161" t="n">
-        <v>32.14285714285715</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="L161" t="n">
         <v>2849.8</v>
@@ -8490,7 +8512,7 @@
         <v>633</v>
       </c>
       <c r="K162" t="n">
-        <v>30.90909090909091</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L162" t="n">
         <v>2850.5</v>
@@ -8541,7 +8563,7 @@
         <v>635</v>
       </c>
       <c r="K163" t="n">
-        <v>26.31578947368421</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L163" t="n">
         <v>2850.6</v>
@@ -8592,7 +8614,7 @@
         <v>635</v>
       </c>
       <c r="K164" t="n">
-        <v>26.31578947368421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>2850.9</v>
@@ -8643,7 +8665,7 @@
         <v>635</v>
       </c>
       <c r="K165" t="n">
-        <v>23.63636363636364</v>
+        <v>39.1304347826087</v>
       </c>
       <c r="L165" t="n">
         <v>2851.7</v>
@@ -8694,7 +8716,7 @@
         <v>638</v>
       </c>
       <c r="K166" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L166" t="n">
         <v>2852.3</v>
@@ -8745,7 +8767,7 @@
         <v>647</v>
       </c>
       <c r="K167" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>2851.9</v>
@@ -8796,7 +8818,7 @@
         <v>647</v>
       </c>
       <c r="K168" t="n">
-        <v>-17.85714285714286</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L168" t="n">
         <v>2851.9</v>
@@ -8847,7 +8869,7 @@
         <v>649</v>
       </c>
       <c r="K169" t="n">
-        <v>-20.68965517241379</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L169" t="n">
         <v>2851.4</v>
@@ -8898,7 +8920,7 @@
         <v>655</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L170" t="n">
         <v>2850.9</v>
@@ -8949,7 +8971,7 @@
         <v>664</v>
       </c>
       <c r="K171" t="n">
-        <v>-16.92307692307692</v>
+        <v>-61.29032258064516</v>
       </c>
       <c r="L171" t="n">
         <v>2849.6</v>
@@ -9000,7 +9022,7 @@
         <v>665</v>
       </c>
       <c r="K172" t="n">
-        <v>-20</v>
+        <v>-60</v>
       </c>
       <c r="L172" t="n">
         <v>2847.6</v>
@@ -9051,7 +9073,7 @@
         <v>679</v>
       </c>
       <c r="K173" t="n">
-        <v>-41.33333333333334</v>
+        <v>-72.72727272727273</v>
       </c>
       <c r="L173" t="n">
         <v>2844.4</v>
@@ -9102,7 +9124,7 @@
         <v>679</v>
       </c>
       <c r="K174" t="n">
-        <v>-39.72602739726027</v>
+        <v>-72.72727272727273</v>
       </c>
       <c r="L174" t="n">
         <v>2841.2</v>
@@ -9153,7 +9175,7 @@
         <v>681</v>
       </c>
       <c r="K175" t="n">
-        <v>-31.42857142857143</v>
+        <v>-62.7906976744186</v>
       </c>
       <c r="L175" t="n">
         <v>2838.2</v>
@@ -9204,7 +9226,7 @@
         <v>682</v>
       </c>
       <c r="K176" t="n">
-        <v>-28.57142857142857</v>
+        <v>-48.57142857142857</v>
       </c>
       <c r="L176" t="n">
         <v>2835.6</v>
@@ -9255,7 +9277,7 @@
         <v>693</v>
       </c>
       <c r="K177" t="n">
-        <v>-40</v>
+        <v>-60.86956521739131</v>
       </c>
       <c r="L177" t="n">
         <v>2832.8</v>
@@ -9306,7 +9328,7 @@
         <v>707</v>
       </c>
       <c r="K178" t="n">
-        <v>-15.55555555555556</v>
+        <v>-20.68965517241379</v>
       </c>
       <c r="L178" t="n">
         <v>2831.4</v>
@@ -9357,7 +9379,7 @@
         <v>707</v>
       </c>
       <c r="K179" t="n">
-        <v>-19.54022988505747</v>
+        <v>-34.61538461538461</v>
       </c>
       <c r="L179" t="n">
         <v>2830.2</v>
@@ -9408,7 +9430,7 @@
         <v>707</v>
       </c>
       <c r="K180" t="n">
-        <v>-28.39506172839506</v>
+        <v>-20.93023255813954</v>
       </c>
       <c r="L180" t="n">
         <v>2828.4</v>
@@ -9459,7 +9481,7 @@
         <v>707</v>
       </c>
       <c r="K181" t="n">
-        <v>-27.5</v>
+        <v>-19.04761904761905</v>
       </c>
       <c r="L181" t="n">
         <v>2827.5</v>
@@ -9510,7 +9532,7 @@
         <v>707</v>
       </c>
       <c r="K182" t="n">
-        <v>-37.83783783783784</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L182" t="n">
         <v>2826.7</v>
@@ -9561,7 +9583,7 @@
         <v>708</v>
       </c>
       <c r="K183" t="n">
-        <v>-36.98630136986301</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L183" t="n">
         <v>2827.2</v>
@@ -9612,7 +9634,7 @@
         <v>714</v>
       </c>
       <c r="K184" t="n">
-        <v>-41.77215189873418</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L184" t="n">
         <v>2827.1</v>
@@ -9663,7 +9685,7 @@
         <v>734</v>
       </c>
       <c r="K185" t="n">
-        <v>-53.53535353535354</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="L185" t="n">
         <v>2824.8</v>
@@ -9714,7 +9736,7 @@
         <v>739</v>
       </c>
       <c r="K186" t="n">
-        <v>-44.55445544554455</v>
+        <v>-17.39130434782609</v>
       </c>
       <c r="L186" t="n">
         <v>2822.9</v>
@@ -9765,7 +9787,7 @@
         <v>747</v>
       </c>
       <c r="K187" t="n">
-        <v>-44</v>
+        <v>-75</v>
       </c>
       <c r="L187" t="n">
         <v>2821.3</v>
@@ -9816,7 +9838,7 @@
         <v>757</v>
       </c>
       <c r="K188" t="n">
-        <v>-49.09090909090909</v>
+        <v>-80</v>
       </c>
       <c r="L188" t="n">
         <v>2817.3</v>
@@ -9867,7 +9889,7 @@
         <v>768</v>
       </c>
       <c r="K189" t="n">
-        <v>-34.45378151260504</v>
+        <v>-47.54098360655738</v>
       </c>
       <c r="L189" t="n">
         <v>2814.4</v>
@@ -9918,7 +9940,7 @@
         <v>769</v>
       </c>
       <c r="K190" t="n">
-        <v>-42.10526315789473</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L190" t="n">
         <v>2811.4</v>
@@ -9969,7 +9991,7 @@
         <v>769</v>
       </c>
       <c r="K191" t="n">
-        <v>-37.14285714285715</v>
+        <v>-48.38709677419355</v>
       </c>
       <c r="L191" t="n">
         <v>2808.4</v>
@@ -10020,7 +10042,7 @@
         <v>769</v>
       </c>
       <c r="K192" t="n">
-        <v>-36.53846153846153</v>
+        <v>-47.54098360655738</v>
       </c>
       <c r="L192" t="n">
         <v>2805.4</v>
@@ -10071,7 +10093,7 @@
         <v>772</v>
       </c>
       <c r="K193" t="n">
-        <v>-29.03225806451613</v>
+        <v>-44.82758620689656</v>
       </c>
       <c r="L193" t="n">
         <v>2802.2</v>
@@ -10122,7 +10144,7 @@
         <v>774</v>
       </c>
       <c r="K194" t="n">
-        <v>-30.52631578947368</v>
+        <v>-20</v>
       </c>
       <c r="L194" t="n">
         <v>2799.4</v>
@@ -10173,7 +10195,7 @@
         <v>776</v>
       </c>
       <c r="K195" t="n">
-        <v>-30.52631578947368</v>
+        <v>-29.72972972972973</v>
       </c>
       <c r="L195" t="n">
         <v>2798.8</v>
@@ -10224,7 +10246,7 @@
         <v>776</v>
       </c>
       <c r="K196" t="n">
-        <v>-31.91489361702128</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L196" t="n">
         <v>2797.7</v>
@@ -10275,7 +10297,7 @@
         <v>787</v>
       </c>
       <c r="K197" t="n">
-        <v>-31.91489361702128</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>2796.3</v>
@@ -10326,7 +10348,7 @@
         <v>787</v>
       </c>
       <c r="K198" t="n">
-        <v>-55.00000000000001</v>
+        <v>-78.94736842105263</v>
       </c>
       <c r="L198" t="n">
         <v>2795.9</v>
@@ -10377,7 +10399,7 @@
         <v>789</v>
       </c>
       <c r="K199" t="n">
-        <v>-56.09756097560976</v>
+        <v>-80</v>
       </c>
       <c r="L199" t="n">
         <v>2794.2</v>
@@ -10428,7 +10450,7 @@
         <v>796</v>
       </c>
       <c r="K200" t="n">
-        <v>-59.55056179775281</v>
+        <v>-85.18518518518519</v>
       </c>
       <c r="L200" t="n">
         <v>2791.9</v>
@@ -10479,7 +10501,7 @@
         <v>803</v>
       </c>
       <c r="K201" t="n">
-        <v>-47.91666666666667</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L201" t="n">
         <v>2790.3</v>
@@ -10530,7 +10552,7 @@
         <v>807</v>
       </c>
       <c r="K202" t="n">
-        <v>-50</v>
+        <v>-48.57142857142857</v>
       </c>
       <c r="L202" t="n">
         <v>2788.3</v>
@@ -10581,7 +10603,7 @@
         <v>814</v>
       </c>
       <c r="K203" t="n">
-        <v>-39.62264150943396</v>
+        <v>-20</v>
       </c>
       <c r="L203" t="n">
         <v>2787.3</v>
@@ -10632,7 +10654,7 @@
         <v>816</v>
       </c>
       <c r="K204" t="n">
-        <v>-37.25490196078432</v>
+        <v>-30</v>
       </c>
       <c r="L204" t="n">
         <v>2786.3</v>
@@ -10683,7 +10705,7 @@
         <v>821</v>
       </c>
       <c r="K205" t="n">
-        <v>-14.94252873563219</v>
+        <v>-15.55555555555556</v>
       </c>
       <c r="L205" t="n">
         <v>2785.6</v>
@@ -10734,7 +10756,7 @@
         <v>821</v>
       </c>
       <c r="K206" t="n">
-        <v>-21.95121951219512</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L206" t="n">
         <v>2784.9</v>
@@ -10785,7 +10807,7 @@
         <v>821</v>
       </c>
       <c r="K207" t="n">
-        <v>-13.51351351351351</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="L207" t="n">
         <v>2785.3</v>
@@ -10836,7 +10858,7 @@
         <v>830</v>
       </c>
       <c r="K208" t="n">
-        <v>12.32876712328767</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="L208" t="n">
         <v>2786.6</v>
@@ -10887,7 +10909,7 @@
         <v>831</v>
       </c>
       <c r="K209" t="n">
-        <v>-4.761904761904762</v>
+        <v>60</v>
       </c>
       <c r="L209" t="n">
         <v>2788</v>
@@ -10938,7 +10960,7 @@
         <v>837</v>
       </c>
       <c r="K210" t="n">
-        <v>-11.76470588235294</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L210" t="n">
         <v>2789.5</v>
@@ -10989,7 +11011,7 @@
         <v>842</v>
       </c>
       <c r="K211" t="n">
-        <v>-4.10958904109589</v>
+        <v>48.57142857142857</v>
       </c>
       <c r="L211" t="n">
         <v>2790.8</v>
@@ -11040,7 +11062,7 @@
         <v>843</v>
       </c>
       <c r="K212" t="n">
-        <v>-2.702702702702703</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L212" t="n">
         <v>2792.6</v>
@@ -11091,7 +11113,7 @@
         <v>853</v>
       </c>
       <c r="K213" t="n">
-        <v>-11.11111111111111</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L213" t="n">
         <v>2792.7</v>
@@ -11142,7 +11164,7 @@
         <v>867</v>
       </c>
       <c r="K214" t="n">
-        <v>-22.58064516129032</v>
+        <v>-34.78260869565217</v>
       </c>
       <c r="L214" t="n">
         <v>2791.6</v>
@@ -11193,7 +11215,7 @@
         <v>874</v>
       </c>
       <c r="K215" t="n">
-        <v>-30.61224489795918</v>
+        <v>-43.39622641509434</v>
       </c>
       <c r="L215" t="n">
         <v>2789.3</v>
@@ -11244,7 +11266,7 @@
         <v>874</v>
       </c>
       <c r="K216" t="n">
-        <v>-30.61224489795918</v>
+        <v>-43.39622641509434</v>
       </c>
       <c r="L216" t="n">
         <v>2787</v>
@@ -11295,7 +11317,7 @@
         <v>877</v>
       </c>
       <c r="K217" t="n">
-        <v>-24.44444444444444</v>
+        <v>-74.46808510638297</v>
       </c>
       <c r="L217" t="n">
         <v>2784.4</v>
@@ -11346,7 +11368,7 @@
         <v>878</v>
       </c>
       <c r="K218" t="n">
-        <v>-25.27472527472527</v>
+        <v>-74.46808510638297</v>
       </c>
       <c r="L218" t="n">
         <v>2780.8</v>
@@ -11397,7 +11419,7 @@
         <v>883</v>
       </c>
       <c r="K219" t="n">
-        <v>-17.02127659574468</v>
+        <v>-52.17391304347826</v>
       </c>
       <c r="L219" t="n">
         <v>2777.8</v>
@@ -11448,7 +11470,7 @@
         <v>887</v>
       </c>
       <c r="K220" t="n">
-        <v>-5.494505494505495</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L220" t="n">
         <v>2775.8</v>
@@ -11499,7 +11521,7 @@
         <v>889</v>
       </c>
       <c r="K221" t="n">
-        <v>-11.62790697674419</v>
+        <v>-52.17391304347826</v>
       </c>
       <c r="L221" t="n">
         <v>2773.5</v>
@@ -11550,7 +11572,7 @@
         <v>901</v>
       </c>
       <c r="K222" t="n">
-        <v>6.382978723404255</v>
+        <v>-4.166666666666666</v>
       </c>
       <c r="L222" t="n">
         <v>2772.3</v>
@@ -11601,7 +11623,7 @@
         <v>902</v>
       </c>
       <c r="K223" t="n">
-        <v>-2.272727272727273</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L223" t="n">
         <v>2772</v>
@@ -11652,7 +11674,7 @@
         <v>903</v>
       </c>
       <c r="K224" t="n">
-        <v>1.149425287356322</v>
+        <v>65.51724137931035</v>
       </c>
       <c r="L224" t="n">
         <v>2773.2</v>
@@ -11703,7 +11725,7 @@
         <v>904</v>
       </c>
       <c r="K225" t="n">
-        <v>-3.614457831325301</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L225" t="n">
         <v>2775.2</v>
@@ -11754,7 +11776,7 @@
         <v>917</v>
       </c>
       <c r="K226" t="n">
-        <v>-16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L226" t="n">
         <v>2775.9</v>
@@ -11805,7 +11827,7 @@
         <v>923</v>
       </c>
       <c r="K227" t="n">
-        <v>-9.803921568627452</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L227" t="n">
         <v>2777.5</v>
@@ -11856,7 +11878,7 @@
         <v>931</v>
       </c>
       <c r="K228" t="n">
-        <v>-10.89108910891089</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L228" t="n">
         <v>2780</v>
@@ -11907,7 +11929,7 @@
         <v>945</v>
       </c>
       <c r="K229" t="n">
-        <v>-21.05263157894737</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L229" t="n">
         <v>2780.6</v>
@@ -11958,7 +11980,7 @@
         <v>963</v>
       </c>
       <c r="K230" t="n">
-        <v>-28.57142857142857</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L230" t="n">
         <v>2779</v>
@@ -12009,7 +12031,7 @@
         <v>969</v>
       </c>
       <c r="K231" t="n">
-        <v>-37.00787401574803</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L231" t="n">
         <v>2776.6</v>
@@ -12060,7 +12082,7 @@
         <v>978</v>
       </c>
       <c r="K232" t="n">
-        <v>-28.88888888888889</v>
+        <v>-34.21052631578947</v>
       </c>
       <c r="L232" t="n">
         <v>2773.9</v>
@@ -12111,7 +12133,7 @@
         <v>990</v>
       </c>
       <c r="K233" t="n">
-        <v>-12.40875912408759</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L233" t="n">
         <v>2772.5</v>
@@ -12162,7 +12184,7 @@
         <v>991</v>
       </c>
       <c r="K234" t="n">
-        <v>-3.225806451612903</v>
+        <v>-19.54022988505747</v>
       </c>
       <c r="L234" t="n">
         <v>2770.9</v>
@@ -12213,7 +12235,7 @@
         <v>991</v>
       </c>
       <c r="K235" t="n">
-        <v>2.564102564102564</v>
+        <v>-5.405405405405405</v>
       </c>
       <c r="L235" t="n">
         <v>2769.2</v>
@@ -12264,7 +12286,7 @@
         <v>992</v>
       </c>
       <c r="K236" t="n">
-        <v>3.389830508474576</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L236" t="n">
         <v>2768.9</v>
@@ -12315,7 +12337,7 @@
         <v>1025</v>
       </c>
       <c r="K237" t="n">
-        <v>-17.56756756756757</v>
+        <v>-53.19148936170212</v>
       </c>
       <c r="L237" t="n">
         <v>2764.7</v>
@@ -12366,7 +12388,7 @@
         <v>1031</v>
       </c>
       <c r="K238" t="n">
-        <v>-20.26143790849673</v>
+        <v>-48.83720930232558</v>
       </c>
       <c r="L238" t="n">
         <v>2759.1</v>
@@ -12417,7 +12439,7 @@
         <v>1031</v>
       </c>
       <c r="K239" t="n">
-        <v>-24.32432432432433</v>
+        <v>-35.29411764705883</v>
       </c>
       <c r="L239" t="n">
         <v>2754.9</v>
@@ -12468,7 +12490,7 @@
         <v>1033</v>
       </c>
       <c r="K240" t="n">
-        <v>-26.02739726027397</v>
+        <v>-25</v>
       </c>
       <c r="L240" t="n">
         <v>2752.7</v>
@@ -12519,7 +12541,7 @@
         <v>1045</v>
       </c>
       <c r="K241" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.22388059701493</v>
       </c>
       <c r="L241" t="n">
         <v>2749.9</v>
@@ -12570,7 +12592,7 @@
         <v>1056</v>
       </c>
       <c r="K242" t="n">
-        <v>-34.19354838709678</v>
+        <v>-57.57575757575758</v>
       </c>
       <c r="L242" t="n">
         <v>2747.3</v>
@@ -12621,7 +12643,7 @@
         <v>1057</v>
       </c>
       <c r="K243" t="n">
-        <v>-34.19354838709678</v>
+        <v>-57.57575757575758</v>
       </c>
       <c r="L243" t="n">
         <v>2743.4</v>
@@ -12672,7 +12694,7 @@
         <v>1060</v>
       </c>
       <c r="K244" t="n">
-        <v>-32.48407643312102</v>
+        <v>-50.72463768115942</v>
       </c>
       <c r="L244" t="n">
         <v>2739.9</v>
@@ -12723,7 +12745,7 @@
         <v>1062</v>
       </c>
       <c r="K245" t="n">
-        <v>-31.64556962025317</v>
+        <v>-48.57142857142857</v>
       </c>
       <c r="L245" t="n">
         <v>2736.6</v>
@@ -12774,7 +12796,7 @@
         <v>1065</v>
       </c>
       <c r="K246" t="n">
-        <v>-27.02702702702703</v>
+        <v>-10</v>
       </c>
       <c r="L246" t="n">
         <v>2732.9</v>
@@ -12825,7 +12847,7 @@
         <v>1072</v>
       </c>
       <c r="K247" t="n">
-        <v>-26.1744966442953</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L247" t="n">
         <v>2733.2</v>
@@ -12876,7 +12898,7 @@
         <v>1072</v>
       </c>
       <c r="K248" t="n">
-        <v>-33.33333333333333</v>
+        <v>21.95121951219512</v>
       </c>
       <c r="L248" t="n">
         <v>2734.1</v>
@@ -12927,7 +12949,7 @@
         <v>1079</v>
       </c>
       <c r="K249" t="n">
-        <v>-29.85074626865671</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>2734.3</v>
@@ -12978,7 +13000,7 @@
         <v>1083</v>
       </c>
       <c r="K250" t="n">
-        <v>-21.66666666666667</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="L250" t="n">
         <v>2733.9</v>
@@ -13029,7 +13051,7 @@
         <v>1083</v>
       </c>
       <c r="K251" t="n">
-        <v>-17.5438596491228</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L251" t="n">
         <v>2734.7</v>
@@ -13080,7 +13102,7 @@
         <v>1086</v>
       </c>
       <c r="K252" t="n">
-        <v>-29.62962962962963</v>
+        <v>-17.24137931034483</v>
       </c>
       <c r="L252" t="n">
         <v>2734.1</v>
@@ -13131,7 +13153,7 @@
         <v>1087</v>
       </c>
       <c r="K253" t="n">
-        <v>-44.32989690721649</v>
+        <v>-25.92592592592592</v>
       </c>
       <c r="L253" t="n">
         <v>2733.7</v>
@@ -13182,7 +13204,7 @@
         <v>1088</v>
       </c>
       <c r="K254" t="n">
-        <v>-44.32989690721649</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L254" t="n">
         <v>2732.9</v>
@@ -13233,7 +13255,7 @@
         <v>1092</v>
       </c>
       <c r="K255" t="n">
-        <v>-38.61386138613862</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L255" t="n">
         <v>2732.3</v>
@@ -13284,7 +13306,7 @@
         <v>1108</v>
       </c>
       <c r="K256" t="n">
-        <v>-48.27586206896552</v>
+        <v>-72.22222222222221</v>
       </c>
       <c r="L256" t="n">
         <v>2730.4</v>
@@ -13335,7 +13357,7 @@
         <v>1109</v>
       </c>
       <c r="K257" t="n">
-        <v>-28.57142857142857</v>
+        <v>-72.97297297297297</v>
       </c>
       <c r="L257" t="n">
         <v>2727.7</v>
@@ -13386,7 +13408,7 @@
         <v>1113</v>
       </c>
       <c r="K258" t="n">
-        <v>-17.07317073170732</v>
+        <v>-47.05882352941176</v>
       </c>
       <c r="L258" t="n">
         <v>2725.4</v>
@@ -13437,7 +13459,7 @@
         <v>1116</v>
       </c>
       <c r="K259" t="n">
-        <v>-12.94117647058824</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L259" t="n">
         <v>2724.1</v>
@@ -13488,7 +13510,7 @@
         <v>1117</v>
       </c>
       <c r="K260" t="n">
-        <v>-14.28571428571428</v>
+        <v>-23.52941176470588</v>
       </c>
       <c r="L260" t="n">
         <v>2723.3</v>
@@ -13590,7 +13612,7 @@
         <v>1135</v>
       </c>
       <c r="K262" t="n">
-        <v>8.860759493670885</v>
+        <v>25</v>
       </c>
       <c r="L262" t="n">
         <v>2724.8</v>
@@ -13641,7 +13663,7 @@
         <v>1141</v>
       </c>
       <c r="K263" t="n">
-        <v>2.380952380952381</v>
+        <v>13.20754716981132</v>
       </c>
       <c r="L263" t="n">
         <v>2725.4</v>
@@ -13692,7 +13714,7 @@
         <v>1142</v>
       </c>
       <c r="K264" t="n">
-        <v>-2.439024390243902</v>
+        <v>4</v>
       </c>
       <c r="L264" t="n">
         <v>2726</v>
@@ -13743,7 +13765,7 @@
         <v>1148</v>
       </c>
       <c r="K265" t="n">
-        <v>2.325581395348837</v>
+        <v>60</v>
       </c>
       <c r="L265" t="n">
         <v>2726.8</v>
@@ -13794,7 +13816,7 @@
         <v>1149</v>
       </c>
       <c r="K266" t="n">
-        <v>4.761904761904762</v>
+        <v>60</v>
       </c>
       <c r="L266" t="n">
         <v>2729.1</v>
@@ -13845,7 +13867,7 @@
         <v>1159</v>
       </c>
       <c r="K267" t="n">
-        <v>8.045977011494253</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="L267" t="n">
         <v>2732.5</v>
@@ -13896,7 +13918,7 @@
         <v>1160</v>
       </c>
       <c r="K268" t="n">
-        <v>9.090909090909092</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L268" t="n">
         <v>2735.6</v>
@@ -13947,7 +13969,7 @@
         <v>1160</v>
       </c>
       <c r="K269" t="n">
-        <v>18.51851851851852</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L269" t="n">
         <v>2738.4</v>
@@ -13998,7 +14020,7 @@
         <v>1160</v>
       </c>
       <c r="K270" t="n">
-        <v>24.67532467532467</v>
+        <v>51.51515151515152</v>
       </c>
       <c r="L270" t="n">
         <v>2741.1</v>
@@ -14049,7 +14071,7 @@
         <v>1163</v>
       </c>
       <c r="K271" t="n">
-        <v>27.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L271" t="n">
         <v>2743.1</v>
@@ -14100,7 +14122,7 @@
         <v>1170</v>
       </c>
       <c r="K272" t="n">
-        <v>38.09523809523809</v>
+        <v>86.20689655172413</v>
       </c>
       <c r="L272" t="n">
         <v>2745</v>
@@ -14151,7 +14173,7 @@
         <v>1176</v>
       </c>
       <c r="K273" t="n">
-        <v>41.57303370786517</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="L273" t="n">
         <v>2748.1</v>
@@ -14202,7 +14224,7 @@
         <v>1182</v>
       </c>
       <c r="K274" t="n">
-        <v>34.04255319148936</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="L274" t="n">
         <v>2750.7</v>
@@ -14253,7 +14275,7 @@
         <v>1191</v>
       </c>
       <c r="K275" t="n">
-        <v>19.19191919191919</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L275" t="n">
         <v>2751.8</v>
@@ -14304,7 +14326,7 @@
         <v>1211</v>
       </c>
       <c r="K276" t="n">
-        <v>53.39805825242718</v>
+        <v>42.30769230769231</v>
       </c>
       <c r="L276" t="n">
         <v>2755</v>
@@ -14355,7 +14377,7 @@
         <v>1214</v>
       </c>
       <c r="K277" t="n">
-        <v>56.19047619047619</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L277" t="n">
         <v>2757.5</v>
@@ -14406,7 +14428,7 @@
         <v>1214</v>
       </c>
       <c r="K278" t="n">
-        <v>54.45544554455446</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L278" t="n">
         <v>2759.9</v>
@@ -14457,7 +14479,7 @@
         <v>1217</v>
       </c>
       <c r="K279" t="n">
-        <v>54.45544554455446</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L279" t="n">
         <v>2762.6</v>
@@ -14508,7 +14530,7 @@
         <v>1217</v>
       </c>
       <c r="K280" t="n">
-        <v>54</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L280" t="n">
         <v>2765.3</v>
@@ -14559,7 +14581,7 @@
         <v>1219</v>
       </c>
       <c r="K281" t="n">
-        <v>45.65217391304348</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="L281" t="n">
         <v>2767.5</v>
@@ -14610,7 +14632,7 @@
         <v>1225</v>
       </c>
       <c r="K282" t="n">
-        <v>44.44444444444444</v>
+        <v>30.61224489795918</v>
       </c>
       <c r="L282" t="n">
         <v>2769.6</v>
@@ -14661,7 +14683,7 @@
         <v>1225</v>
       </c>
       <c r="K283" t="n">
-        <v>54.76190476190477</v>
+        <v>48.83720930232558</v>
       </c>
       <c r="L283" t="n">
         <v>2771.1</v>
@@ -14712,7 +14734,7 @@
         <v>1226</v>
       </c>
       <c r="K284" t="n">
-        <v>54.76190476190477</v>
+        <v>82.85714285714286</v>
       </c>
       <c r="L284" t="n">
         <v>2773.1</v>
@@ -14763,7 +14785,7 @@
         <v>1232</v>
       </c>
       <c r="K285" t="n">
-        <v>40.47619047619047</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L285" t="n">
         <v>2775.4</v>
@@ -14814,7 +14836,7 @@
         <v>1241</v>
       </c>
       <c r="K286" t="n">
-        <v>47.82608695652174</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>2776.6</v>
@@ -14916,7 +14938,7 @@
         <v>1247</v>
       </c>
       <c r="K288" t="n">
-        <v>44.82758620689656</v>
+        <v>40</v>
       </c>
       <c r="L288" t="n">
         <v>2779.6</v>
@@ -14967,7 +14989,7 @@
         <v>1251</v>
       </c>
       <c r="K289" t="n">
-        <v>47.25274725274725</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L289" t="n">
         <v>2781.2</v>
@@ -15018,7 +15040,7 @@
         <v>1253</v>
       </c>
       <c r="K290" t="n">
-        <v>44.08602150537634</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L290" t="n">
         <v>2782.6</v>
@@ -15069,7 +15091,7 @@
         <v>1255</v>
       </c>
       <c r="K291" t="n">
-        <v>39.1304347826087</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L291" t="n">
         <v>2784</v>
@@ -15120,7 +15142,7 @@
         <v>1255</v>
       </c>
       <c r="K292" t="n">
-        <v>34.11764705882353</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L292" t="n">
         <v>2784.8</v>
@@ -15171,7 +15193,7 @@
         <v>1260</v>
       </c>
       <c r="K293" t="n">
-        <v>33.33333333333333</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="L293" t="n">
         <v>2786.1</v>
@@ -15222,7 +15244,7 @@
         <v>1275</v>
       </c>
       <c r="K294" t="n">
-        <v>20.43010752688172</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="L294" t="n">
         <v>2786</v>
@@ -15273,7 +15295,7 @@
         <v>1278</v>
       </c>
       <c r="K295" t="n">
-        <v>28.73563218390805</v>
+        <v>-18.91891891891892</v>
       </c>
       <c r="L295" t="n">
         <v>2786.2</v>
@@ -15324,7 +15346,7 @@
         <v>1280</v>
       </c>
       <c r="K296" t="n">
-        <v>10.14492753623188</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>2785.7</v>
@@ -15375,7 +15397,7 @@
         <v>1290</v>
       </c>
       <c r="K297" t="n">
-        <v>18.42105263157895</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L297" t="n">
         <v>2785.6</v>
@@ -15426,7 +15448,7 @@
         <v>1291</v>
       </c>
       <c r="K298" t="n">
-        <v>19.48051948051948</v>
+        <v>-10</v>
       </c>
       <c r="L298" t="n">
         <v>2785.6</v>
@@ -15477,7 +15499,7 @@
         <v>1292</v>
       </c>
       <c r="K299" t="n">
-        <v>14.66666666666667</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L299" t="n">
         <v>2785.1</v>
@@ -15528,7 +15550,7 @@
         <v>1300</v>
       </c>
       <c r="K300" t="n">
-        <v>22.89156626506024</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L300" t="n">
         <v>2785.6</v>
@@ -15579,7 +15601,7 @@
         <v>1300</v>
       </c>
       <c r="K301" t="n">
-        <v>25.92592592592592</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="L301" t="n">
         <v>2786.3</v>
@@ -15630,7 +15652,7 @@
         <v>1304</v>
       </c>
       <c r="K302" t="n">
-        <v>24.05063291139241</v>
+        <v>13.63636363636363</v>
       </c>
       <c r="L302" t="n">
         <v>2787.4</v>
@@ -15681,7 +15703,7 @@
         <v>1312</v>
       </c>
       <c r="K303" t="n">
-        <v>31.03448275862069</v>
+        <v>78.37837837837837</v>
       </c>
       <c r="L303" t="n">
         <v>2788.8</v>
@@ -15732,7 +15754,7 @@
         <v>1330</v>
       </c>
       <c r="K304" t="n">
-        <v>44.23076923076923</v>
+        <v>96.15384615384616</v>
       </c>
       <c r="L304" t="n">
         <v>2793.5</v>
@@ -15783,7 +15805,7 @@
         <v>1331</v>
       </c>
       <c r="K305" t="n">
-        <v>53.53535353535354</v>
+        <v>96.07843137254902</v>
       </c>
       <c r="L305" t="n">
         <v>2798.6</v>
@@ -15834,7 +15856,7 @@
         <v>1340</v>
       </c>
       <c r="K306" t="n">
-        <v>35.35353535353536</v>
+        <v>60</v>
       </c>
       <c r="L306" t="n">
         <v>2802.6</v>
@@ -15885,7 +15907,7 @@
         <v>1348</v>
       </c>
       <c r="K307" t="n">
-        <v>20.79207920792079</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L307" t="n">
         <v>2804.8</v>
@@ -15936,7 +15958,7 @@
         <v>1357</v>
       </c>
       <c r="K308" t="n">
-        <v>10.90909090909091</v>
+        <v>20</v>
       </c>
       <c r="L308" t="n">
         <v>2806</v>
@@ -15987,7 +16009,7 @@
         <v>1357</v>
       </c>
       <c r="K309" t="n">
-        <v>7.547169811320755</v>
+        <v>8.771929824561402</v>
       </c>
       <c r="L309" t="n">
         <v>2807.3</v>
@@ -16038,7 +16060,7 @@
         <v>1358</v>
       </c>
       <c r="K310" t="n">
-        <v>8.571428571428571</v>
+        <v>6.896551724137931</v>
       </c>
       <c r="L310" t="n">
         <v>2807.7</v>
@@ -16089,7 +16111,7 @@
         <v>1359</v>
       </c>
       <c r="K311" t="n">
-        <v>11.53846153846154</v>
+        <v>1.818181818181818</v>
       </c>
       <c r="L311" t="n">
         <v>2808.2</v>
@@ -16140,7 +16162,7 @@
         <v>1364</v>
       </c>
       <c r="K312" t="n">
-        <v>15.59633027522936</v>
+        <v>-3.846153846153846</v>
       </c>
       <c r="L312" t="n">
         <v>2808.8</v>
@@ -16191,7 +16213,7 @@
         <v>1369</v>
       </c>
       <c r="K313" t="n">
-        <v>15.59633027522936</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L313" t="n">
         <v>2809.1</v>
@@ -16242,7 +16264,7 @@
         <v>1372</v>
       </c>
       <c r="K314" t="n">
-        <v>29.89690721649485</v>
+        <v>-46.34146341463415</v>
       </c>
       <c r="L314" t="n">
         <v>2807.3</v>
@@ -16293,7 +16315,7 @@
         <v>1372</v>
       </c>
       <c r="K315" t="n">
-        <v>34.04255319148936</v>
+        <v>-31.25</v>
       </c>
       <c r="L315" t="n">
         <v>2805.4</v>
@@ -16344,7 +16366,7 @@
         <v>1379</v>
       </c>
       <c r="K316" t="n">
-        <v>23.23232323232323</v>
+        <v>-29.03225806451613</v>
       </c>
       <c r="L316" t="n">
         <v>2803.7</v>
@@ -16395,7 +16417,7 @@
         <v>1380</v>
       </c>
       <c r="K317" t="n">
-        <v>13.33333333333333</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L317" t="n">
         <v>2802.7</v>
@@ -16446,7 +16468,7 @@
         <v>1390</v>
       </c>
       <c r="K318" t="n">
-        <v>1.01010101010101</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L318" t="n">
         <v>2801.6</v>
@@ -16497,7 +16519,7 @@
         <v>1390</v>
       </c>
       <c r="K319" t="n">
-        <v>2.040816326530612</v>
+        <v>-31.25</v>
       </c>
       <c r="L319" t="n">
         <v>2800.5</v>
@@ -16548,7 +16570,7 @@
         <v>1393</v>
       </c>
       <c r="K320" t="n">
-        <v>-9.67741935483871</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L320" t="n">
         <v>2799.2</v>
@@ -16599,7 +16621,7 @@
         <v>1403</v>
       </c>
       <c r="K321" t="n">
-        <v>-18.44660194174757</v>
+        <v>-74.35897435897436</v>
       </c>
       <c r="L321" t="n">
         <v>2796.8</v>
@@ -16650,7 +16672,7 @@
         <v>1412</v>
       </c>
       <c r="K322" t="n">
-        <v>-12.96296296296296</v>
+        <v>-58.13953488372093</v>
       </c>
       <c r="L322" t="n">
         <v>2794.8</v>
@@ -16701,7 +16723,7 @@
         <v>1417</v>
       </c>
       <c r="K323" t="n">
-        <v>-16.19047619047619</v>
+        <v>-37.77777777777778</v>
       </c>
       <c r="L323" t="n">
         <v>2792.8</v>
@@ -16752,7 +16774,7 @@
         <v>1417</v>
       </c>
       <c r="K324" t="n">
-        <v>-40.22988505747126</v>
+        <v>-37.77777777777778</v>
       </c>
       <c r="L324" t="n">
         <v>2791.1</v>
@@ -16803,7 +16825,7 @@
         <v>1417</v>
       </c>
       <c r="K325" t="n">
-        <v>-41.86046511627907</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L325" t="n">
         <v>2789.4</v>
@@ -16854,7 +16876,7 @@
         <v>1430</v>
       </c>
       <c r="K326" t="n">
-        <v>-44.44444444444444</v>
+        <v>-44</v>
       </c>
       <c r="L326" t="n">
         <v>2787.1</v>
@@ -16905,7 +16927,7 @@
         <v>1440</v>
       </c>
       <c r="K327" t="n">
-        <v>-23.91304347826087</v>
+        <v>-4</v>
       </c>
       <c r="L327" t="n">
         <v>2785.9</v>
@@ -16956,7 +16978,7 @@
         <v>1452</v>
       </c>
       <c r="K328" t="n">
-        <v>-26.31578947368421</v>
+        <v>-22.58064516129032</v>
       </c>
       <c r="L328" t="n">
         <v>2784.5</v>
@@ -17007,7 +17029,7 @@
         <v>1454</v>
       </c>
       <c r="K329" t="n">
-        <v>-27.83505154639175</v>
+        <v>-21.31147540983606</v>
       </c>
       <c r="L329" t="n">
         <v>2782.9</v>
@@ -17058,7 +17080,7 @@
         <v>1454</v>
       </c>
       <c r="K330" t="n">
-        <v>-27.08333333333333</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L330" t="n">
         <v>2781.6</v>
@@ -17109,7 +17131,7 @@
         <v>1454</v>
       </c>
       <c r="K331" t="n">
-        <v>-28.42105263157895</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L331" t="n">
         <v>2781.3</v>
@@ -17160,7 +17182,7 @@
         <v>1459</v>
       </c>
       <c r="K332" t="n">
-        <v>-38.94736842105263</v>
+        <v>-52.38095238095239</v>
       </c>
       <c r="L332" t="n">
         <v>2779.6</v>
@@ -17211,7 +17233,7 @@
         <v>1472</v>
       </c>
       <c r="K333" t="n">
-        <v>-53.39805825242718</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L333" t="n">
         <v>2776.1</v>
@@ -17262,7 +17284,7 @@
         <v>1473</v>
       </c>
       <c r="K334" t="n">
-        <v>-50.49504950495049</v>
+        <v>-60.71428571428571</v>
       </c>
       <c r="L334" t="n">
         <v>2772.7</v>
@@ -17313,7 +17335,7 @@
         <v>1473</v>
       </c>
       <c r="K335" t="n">
-        <v>-50.49504950495049</v>
+        <v>-48.83720930232558</v>
       </c>
       <c r="L335" t="n">
         <v>2769.3</v>
@@ -17364,7 +17386,7 @@
         <v>1474</v>
       </c>
       <c r="K336" t="n">
-        <v>-47.36842105263158</v>
+        <v>-94.11764705882352</v>
       </c>
       <c r="L336" t="n">
         <v>2767.1</v>
@@ -17415,7 +17437,7 @@
         <v>1474</v>
       </c>
       <c r="K337" t="n">
-        <v>-46.80851063829788</v>
+        <v>-90.90909090909091</v>
       </c>
       <c r="L337" t="n">
         <v>2763.9</v>
@@ -17466,7 +17488,7 @@
         <v>1479</v>
       </c>
       <c r="K338" t="n">
-        <v>-43.82022471910113</v>
+        <v>-92</v>
       </c>
       <c r="L338" t="n">
         <v>2761.4</v>
@@ -17517,7 +17539,7 @@
         <v>1493</v>
       </c>
       <c r="K339" t="n">
-        <v>-51.45631067961165</v>
+        <v>-94.87179487179486</v>
       </c>
       <c r="L339" t="n">
         <v>2757.7</v>
@@ -17568,7 +17590,7 @@
         <v>1494</v>
       </c>
       <c r="K340" t="n">
-        <v>-48.51485148514851</v>
+        <v>-90</v>
       </c>
       <c r="L340" t="n">
         <v>2754.1</v>
@@ -17619,7 +17641,7 @@
         <v>1498</v>
       </c>
       <c r="K341" t="n">
-        <v>-36.84210526315789</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L341" t="n">
         <v>2750.9</v>
@@ -17670,7 +17692,7 @@
         <v>1509</v>
       </c>
       <c r="K342" t="n">
-        <v>-34.02061855670103</v>
+        <v>-8.108108108108109</v>
       </c>
       <c r="L342" t="n">
         <v>2749.3</v>
@@ -17721,7 +17743,7 @@
         <v>1509</v>
       </c>
       <c r="K343" t="n">
-        <v>-41.30434782608695</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L343" t="n">
         <v>2749</v>
@@ -17772,7 +17794,7 @@
         <v>1511</v>
       </c>
       <c r="K344" t="n">
-        <v>-38.29787234042553</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L344" t="n">
         <v>2748.8</v>
@@ -17823,7 +17845,7 @@
         <v>1511</v>
       </c>
       <c r="K345" t="n">
-        <v>-38.29787234042553</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L345" t="n">
         <v>2748.6</v>
@@ -17874,7 +17896,7 @@
         <v>1511</v>
       </c>
       <c r="K346" t="n">
-        <v>-28.39506172839506</v>
+        <v>-2.702702702702703</v>
       </c>
       <c r="L346" t="n">
         <v>2748.5</v>
@@ -17925,7 +17947,7 @@
         <v>1511</v>
       </c>
       <c r="K347" t="n">
-        <v>-46.47887323943662</v>
+        <v>12.5</v>
       </c>
       <c r="L347" t="n">
         <v>2748.4</v>
@@ -17976,7 +17998,7 @@
         <v>1515</v>
       </c>
       <c r="K348" t="n">
-        <v>-39.68253968253968</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L348" t="n">
         <v>2748.4</v>
@@ -18027,7 +18049,7 @@
         <v>1525</v>
       </c>
       <c r="K349" t="n">
-        <v>-46.47887323943662</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L349" t="n">
         <v>2748.8</v>
@@ -18078,7 +18100,7 @@
         <v>1526</v>
       </c>
       <c r="K350" t="n">
-        <v>-44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>2749.2</v>
@@ -18129,7 +18151,7 @@
         <v>1529</v>
       </c>
       <c r="K351" t="n">
-        <v>-38.66666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L351" t="n">
         <v>2749.5</v>
@@ -18180,7 +18202,7 @@
         <v>1532</v>
       </c>
       <c r="K352" t="n">
-        <v>-36.98630136986301</v>
+        <v>-47.82608695652174</v>
       </c>
       <c r="L352" t="n">
         <v>2748.4</v>
@@ -18231,7 +18253,7 @@
         <v>1547</v>
       </c>
       <c r="K353" t="n">
-        <v>1.333333333333333</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="L353" t="n">
         <v>2748.8</v>
@@ -18282,7 +18304,7 @@
         <v>1581</v>
       </c>
       <c r="K354" t="n">
-        <v>-31.48148148148148</v>
+        <v>-45.71428571428572</v>
       </c>
       <c r="L354" t="n">
         <v>2745.6</v>
@@ -18333,7 +18355,7 @@
         <v>1621</v>
       </c>
       <c r="K355" t="n">
-        <v>4.054054054054054</v>
+        <v>7.272727272727272</v>
       </c>
       <c r="L355" t="n">
         <v>2746.4</v>
@@ -18384,7 +18406,7 @@
         <v>1621</v>
       </c>
       <c r="K356" t="n">
-        <v>4.761904761904762</v>
+        <v>7.272727272727272</v>
       </c>
       <c r="L356" t="n">
         <v>2747.2</v>
@@ -18435,7 +18457,7 @@
         <v>1630</v>
       </c>
       <c r="K357" t="n">
-        <v>10.25641025641026</v>
+        <v>18.26086956521739</v>
       </c>
       <c r="L357" t="n">
         <v>2748.9</v>
@@ -18486,7 +18508,7 @@
         <v>1633</v>
       </c>
       <c r="K358" t="n">
-        <v>11.68831168831169</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L358" t="n">
         <v>2750.7</v>
@@ -18537,7 +18559,7 @@
         <v>1633</v>
       </c>
       <c r="K359" t="n">
-        <v>22.85714285714286</v>
+        <v>25.23364485981308</v>
       </c>
       <c r="L359" t="n">
         <v>2753.5</v>
@@ -18588,7 +18610,7 @@
         <v>1636</v>
       </c>
       <c r="K360" t="n">
-        <v>19.71830985915493</v>
+        <v>19.62616822429906</v>
       </c>
       <c r="L360" t="n">
         <v>2755.9</v>
@@ -18639,7 +18661,7 @@
         <v>1639</v>
       </c>
       <c r="K361" t="n">
-        <v>14.8936170212766</v>
+        <v>19.62616822429906</v>
       </c>
       <c r="L361" t="n">
         <v>2757.7</v>
@@ -18690,7 +18712,7 @@
         <v>1645</v>
       </c>
       <c r="K362" t="n">
-        <v>11.76470588235294</v>
+        <v>12.24489795918367</v>
       </c>
       <c r="L362" t="n">
         <v>2760.4</v>
@@ -18741,7 +18763,7 @@
         <v>1645</v>
       </c>
       <c r="K363" t="n">
-        <v>11.76470588235294</v>
+        <v>71.875</v>
       </c>
       <c r="L363" t="n">
         <v>2761.6</v>
@@ -18792,7 +18814,7 @@
         <v>1648</v>
       </c>
       <c r="K364" t="n">
-        <v>12.40875912408759</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L364" t="n">
         <v>2766.5</v>
@@ -18843,7 +18865,7 @@
         <v>1655</v>
       </c>
       <c r="K365" t="n">
-        <v>16.66666666666666</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L365" t="n">
         <v>2768.1</v>
@@ -18894,7 +18916,7 @@
         <v>1668</v>
       </c>
       <c r="K366" t="n">
-        <v>23.56687898089172</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L366" t="n">
         <v>2771</v>
@@ -18945,7 +18967,7 @@
         <v>1668</v>
       </c>
       <c r="K367" t="n">
-        <v>23.56687898089172</v>
+        <v>65.71428571428571</v>
       </c>
       <c r="L367" t="n">
         <v>2773</v>
@@ -18996,7 +19018,7 @@
         <v>1676</v>
       </c>
       <c r="K368" t="n">
-        <v>30.43478260869566</v>
+        <v>72.09302325581395</v>
       </c>
       <c r="L368" t="n">
         <v>2776.1</v>
@@ -19047,7 +19069,7 @@
         <v>1687</v>
       </c>
       <c r="K369" t="n">
-        <v>29.62962962962963</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="L369" t="n">
         <v>2778.1</v>
@@ -19098,7 +19120,7 @@
         <v>1689</v>
       </c>
       <c r="K370" t="n">
-        <v>30.06134969325153</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="L370" t="n">
         <v>2780.6</v>
@@ -19149,7 +19171,7 @@
         <v>1698</v>
       </c>
       <c r="K371" t="n">
-        <v>32.54437869822485</v>
+        <v>58.49056603773585</v>
       </c>
       <c r="L371" t="n">
         <v>2784.3</v>
@@ -19200,7 +19222,7 @@
         <v>1698</v>
       </c>
       <c r="K372" t="n">
-        <v>34.93975903614458</v>
+        <v>58.49056603773585</v>
       </c>
       <c r="L372" t="n">
         <v>2787.4</v>
@@ -19251,7 +19273,7 @@
         <v>1701</v>
       </c>
       <c r="K373" t="n">
-        <v>25.97402597402597</v>
+        <v>47.16981132075472</v>
       </c>
       <c r="L373" t="n">
         <v>2790.2</v>
@@ -19302,7 +19324,7 @@
         <v>1709</v>
       </c>
       <c r="K374" t="n">
-        <v>51.5625</v>
+        <v>18.51851851851852</v>
       </c>
       <c r="L374" t="n">
         <v>2791.9</v>
@@ -19353,7 +19375,7 @@
         <v>1710</v>
       </c>
       <c r="K375" t="n">
-        <v>28.08988764044944</v>
+        <v>-9.523809523809524</v>
       </c>
       <c r="L375" t="n">
         <v>2792.8</v>
@@ -19404,7 +19426,7 @@
         <v>1714</v>
       </c>
       <c r="K376" t="n">
-        <v>31.18279569892473</v>
+        <v>0</v>
       </c>
       <c r="L376" t="n">
         <v>2792.8</v>
@@ -19455,7 +19477,7 @@
         <v>1729</v>
       </c>
       <c r="K377" t="n">
-        <v>5.05050505050505</v>
+        <v>-43.39622641509434</v>
       </c>
       <c r="L377" t="n">
         <v>2791.3</v>
@@ -19506,7 +19528,7 @@
         <v>1730</v>
       </c>
       <c r="K378" t="n">
-        <v>9.278350515463918</v>
+        <v>-25.58139534883721</v>
       </c>
       <c r="L378" t="n">
         <v>2789.1</v>
@@ -19557,7 +19579,7 @@
         <v>1731</v>
       </c>
       <c r="K379" t="n">
-        <v>10.20408163265306</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L379" t="n">
         <v>2788.1</v>
@@ -19608,7 +19630,7 @@
         <v>1733</v>
       </c>
       <c r="K380" t="n">
-        <v>11.34020618556701</v>
+        <v>-65.71428571428571</v>
       </c>
       <c r="L380" t="n">
         <v>2786.7</v>
@@ -19659,7 +19681,7 @@
         <v>1735</v>
       </c>
       <c r="K381" t="n">
-        <v>16.66666666666666</v>
+        <v>-56.75675675675676</v>
       </c>
       <c r="L381" t="n">
         <v>2784.6</v>
@@ -19710,7 +19732,7 @@
         <v>1735</v>
       </c>
       <c r="K382" t="n">
-        <v>11.11111111111111</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L382" t="n">
         <v>2782.5</v>
@@ -19761,7 +19783,7 @@
         <v>1740</v>
       </c>
       <c r="K383" t="n">
-        <v>15.78947368421053</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L383" t="n">
         <v>2781.2</v>
@@ -19812,7 +19834,7 @@
         <v>1741</v>
       </c>
       <c r="K384" t="n">
-        <v>11.82795698924731</v>
+        <v>-16.12903225806452</v>
       </c>
       <c r="L384" t="n">
         <v>2780.6</v>
@@ -19863,7 +19885,7 @@
         <v>1748</v>
       </c>
       <c r="K385" t="n">
-        <v>11.82795698924731</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L385" t="n">
         <v>2780.8</v>
@@ -19914,7 +19936,7 @@
         <v>1749</v>
       </c>
       <c r="K386" t="n">
-        <v>-1.234567901234568</v>
+        <v>70</v>
       </c>
       <c r="L386" t="n">
         <v>2780.7</v>
@@ -19965,7 +19987,7 @@
         <v>1750</v>
       </c>
       <c r="K387" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L387" t="n">
         <v>2782.2</v>
@@ -20016,7 +20038,7 @@
         <v>1750</v>
       </c>
       <c r="K388" t="n">
-        <v>-10.81081081081081</v>
+        <v>68.42105263157895</v>
       </c>
       <c r="L388" t="n">
         <v>2783.6</v>
@@ -20067,7 +20089,7 @@
         <v>1750</v>
       </c>
       <c r="K389" t="n">
-        <v>4.761904761904762</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="L389" t="n">
         <v>2784.9</v>
@@ -20118,7 +20140,7 @@
         <v>1750</v>
       </c>
       <c r="K390" t="n">
-        <v>1.639344262295082</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L390" t="n">
         <v>2786.4</v>
@@ -20169,7 +20191,7 @@
         <v>1753</v>
       </c>
       <c r="K391" t="n">
-        <v>-20</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L391" t="n">
         <v>2787.4</v>
@@ -20220,7 +20242,7 @@
         <v>1753</v>
       </c>
       <c r="K392" t="n">
-        <v>-20</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L392" t="n">
         <v>2788.4</v>
@@ -20271,7 +20293,7 @@
         <v>1767</v>
       </c>
       <c r="K393" t="n">
-        <v>-33.33333333333333</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L393" t="n">
         <v>2787.5</v>
@@ -20322,7 +20344,7 @@
         <v>1768</v>
       </c>
       <c r="K394" t="n">
-        <v>-25.42372881355932</v>
+        <v>-80</v>
       </c>
       <c r="L394" t="n">
         <v>2786.6</v>
@@ -20373,7 +20395,7 @@
         <v>1768</v>
       </c>
       <c r="K395" t="n">
-        <v>-24.13793103448276</v>
+        <v>-89.47368421052632</v>
       </c>
       <c r="L395" t="n">
         <v>2785</v>
@@ -20424,7 +20446,7 @@
         <v>1770</v>
       </c>
       <c r="K396" t="n">
-        <v>-35.71428571428572</v>
+        <v>-100</v>
       </c>
       <c r="L396" t="n">
         <v>2783.1</v>
@@ -20475,7 +20497,7 @@
         <v>1772</v>
       </c>
       <c r="K397" t="n">
-        <v>-6.976744186046512</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L397" t="n">
         <v>2781.3</v>
@@ -20526,7 +20548,7 @@
         <v>1772</v>
       </c>
       <c r="K398" t="n">
-        <v>-9.523809523809524</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L398" t="n">
         <v>2779.5</v>
@@ -20577,7 +20599,7 @@
         <v>1772</v>
       </c>
       <c r="K399" t="n">
-        <v>-12.19512195121951</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L399" t="n">
         <v>2777.7</v>
@@ -20628,7 +20650,7 @@
         <v>1778</v>
       </c>
       <c r="K400" t="n">
-        <v>-20</v>
+        <v>-84</v>
       </c>
       <c r="L400" t="n">
         <v>2775.3</v>
@@ -20679,7 +20701,7 @@
         <v>1789</v>
       </c>
       <c r="K401" t="n">
-        <v>0</v>
+        <v>-27.77777777777778</v>
       </c>
       <c r="L401" t="n">
         <v>2774.3</v>
@@ -20730,7 +20752,7 @@
         <v>1791</v>
       </c>
       <c r="K402" t="n">
-        <v>3.571428571428571</v>
+        <v>25</v>
       </c>
       <c r="L402" t="n">
         <v>2773.5</v>
@@ -20781,7 +20803,7 @@
         <v>1798</v>
       </c>
       <c r="K403" t="n">
-        <v>-17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>2773.4</v>
@@ -20832,7 +20854,7 @@
         <v>1798</v>
       </c>
       <c r="K404" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L404" t="n">
         <v>2773.4</v>
@@ -20883,7 +20905,7 @@
         <v>1810</v>
       </c>
       <c r="K405" t="n">
-        <v>-45.16129032258064</v>
+        <v>-25</v>
       </c>
       <c r="L405" t="n">
         <v>2772.2</v>
@@ -20934,7 +20956,7 @@
         <v>1818</v>
       </c>
       <c r="K406" t="n">
-        <v>-53.62318840579711</v>
+        <v>-43.47826086956522</v>
       </c>
       <c r="L406" t="n">
         <v>2770.4</v>
@@ -20985,7 +21007,7 @@
         <v>1819</v>
       </c>
       <c r="K407" t="n">
-        <v>-53.62318840579711</v>
+        <v>-40.42553191489361</v>
       </c>
       <c r="L407" t="n">
         <v>2768.5</v>
@@ -21036,7 +21058,7 @@
         <v>1824</v>
       </c>
       <c r="K408" t="n">
-        <v>-43.24324324324324</v>
+        <v>-26.92307692307692</v>
       </c>
       <c r="L408" t="n">
         <v>2767.1</v>
@@ -21087,7 +21109,7 @@
         <v>1835</v>
       </c>
       <c r="K409" t="n">
-        <v>-50.58823529411764</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L409" t="n">
         <v>2764.6</v>
@@ -21138,7 +21160,7 @@
         <v>1837</v>
       </c>
       <c r="K410" t="n">
-        <v>-47.12643678160919</v>
+        <v>-58.33333333333334</v>
       </c>
       <c r="L410" t="n">
         <v>2762.9</v>
@@ -21189,7 +21211,7 @@
         <v>1837</v>
       </c>
       <c r="K411" t="n">
-        <v>-45.23809523809524</v>
+        <v>-65.21739130434783</v>
       </c>
       <c r="L411" t="n">
         <v>2760.1</v>
@@ -21240,7 +21262,7 @@
         <v>1842</v>
       </c>
       <c r="K412" t="n">
-        <v>-37.07865168539326</v>
+        <v>-40.90909090909091</v>
       </c>
       <c r="L412" t="n">
         <v>2757.6</v>
@@ -21291,7 +21313,7 @@
         <v>1848</v>
       </c>
       <c r="K413" t="n">
-        <v>-16.04938271604938</v>
+        <v>-24</v>
       </c>
       <c r="L413" t="n">
         <v>2756.4</v>
@@ -21342,7 +21364,7 @@
         <v>1852</v>
       </c>
       <c r="K414" t="n">
-        <v>-9.523809523809524</v>
+        <v>9.523809523809524</v>
       </c>
       <c r="L414" t="n">
         <v>2755.6</v>
@@ -21393,7 +21415,7 @@
         <v>1862</v>
       </c>
       <c r="K415" t="n">
-        <v>-19.14893617021277</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L415" t="n">
         <v>2755</v>
@@ -21444,7 +21466,7 @@
         <v>1865</v>
       </c>
       <c r="K416" t="n">
-        <v>-20</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L416" t="n">
         <v>2754.9</v>
@@ -21495,7 +21517,7 @@
         <v>1866</v>
       </c>
       <c r="K417" t="n">
-        <v>-21.27659574468085</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L417" t="n">
         <v>2754.8</v>
@@ -21546,7 +21568,7 @@
         <v>1878</v>
       </c>
       <c r="K418" t="n">
-        <v>-7.547169811320755</v>
+        <v>39.53488372093023</v>
       </c>
       <c r="L418" t="n">
         <v>2755.4</v>
@@ -21597,7 +21619,7 @@
         <v>1886</v>
       </c>
       <c r="K419" t="n">
-        <v>-14.03508771929824</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L419" t="n">
         <v>2756.3</v>
@@ -21648,7 +21670,7 @@
         <v>1887</v>
       </c>
       <c r="K420" t="n">
-        <v>-10.09174311926606</v>
+        <v>12</v>
       </c>
       <c r="L420" t="n">
         <v>2756.9</v>
@@ -21699,7 +21721,7 @@
         <v>1898</v>
       </c>
       <c r="K421" t="n">
-        <v>-10.09174311926606</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L421" t="n">
         <v>2758.6</v>
@@ -21750,7 +21772,7 @@
         <v>1900</v>
       </c>
       <c r="K422" t="n">
-        <v>-13.76146788990826</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L422" t="n">
         <v>2759.6</v>
@@ -21801,7 +21823,7 @@
         <v>1905</v>
       </c>
       <c r="K423" t="n">
-        <v>-2.803738317757009</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L423" t="n">
         <v>2760.5</v>
@@ -21852,7 +21874,7 @@
         <v>1905</v>
       </c>
       <c r="K424" t="n">
-        <v>-2.803738317757009</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="L424" t="n">
         <v>2761</v>
@@ -21903,7 +21925,7 @@
         <v>1905</v>
       </c>
       <c r="K425" t="n">
-        <v>9.473684210526317</v>
+        <v>45</v>
       </c>
       <c r="L425" t="n">
         <v>2762.5</v>
@@ -21954,7 +21976,7 @@
         <v>1909</v>
       </c>
       <c r="K426" t="n">
-        <v>14.28571428571428</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="L426" t="n">
         <v>2763.9</v>
@@ -22005,7 +22027,7 @@
         <v>1910</v>
       </c>
       <c r="K427" t="n">
-        <v>12.08791208791209</v>
+        <v>0</v>
       </c>
       <c r="L427" t="n">
         <v>2765.1</v>
@@ -22056,7 +22078,7 @@
         <v>1910</v>
       </c>
       <c r="K428" t="n">
-        <v>6.976744186046512</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L428" t="n">
         <v>2765.1</v>
@@ -22107,7 +22129,7 @@
         <v>1911</v>
       </c>
       <c r="K429" t="n">
-        <v>21.05263157894737</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L429" t="n">
         <v>2765.8</v>
@@ -22158,7 +22180,7 @@
         <v>1913</v>
       </c>
       <c r="K430" t="n">
-        <v>21.05263157894737</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L430" t="n">
         <v>2766.8</v>
@@ -22209,7 +22231,7 @@
         <v>1915</v>
       </c>
       <c r="K431" t="n">
-        <v>17.94871794871795</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L431" t="n">
         <v>2766.5</v>
@@ -22260,7 +22282,7 @@
         <v>1920</v>
       </c>
       <c r="K432" t="n">
-        <v>5.128205128205128</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L432" t="n">
         <v>2765.9</v>
@@ -22311,7 +22333,7 @@
         <v>1921</v>
       </c>
       <c r="K433" t="n">
-        <v>-1.36986301369863</v>
+        <v>-62.5</v>
       </c>
       <c r="L433" t="n">
         <v>2764.9</v>
@@ -22362,7 +22384,7 @@
         <v>1927</v>
       </c>
       <c r="K434" t="n">
-        <v>1.333333333333333</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L434" t="n">
         <v>2764.5</v>
@@ -22413,7 +22435,7 @@
         <v>1930</v>
       </c>
       <c r="K435" t="n">
-        <v>11.76470588235294</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L435" t="n">
         <v>2763.8</v>
@@ -22464,7 +22486,7 @@
         <v>1935</v>
       </c>
       <c r="K436" t="n">
-        <v>8.571428571428571</v>
+        <v>-28</v>
       </c>
       <c r="L436" t="n">
         <v>2763</v>
@@ -22515,7 +22537,7 @@
         <v>1946</v>
       </c>
       <c r="K437" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L437" t="n">
         <v>2763.4</v>
@@ -22566,7 +22588,7 @@
         <v>1955</v>
       </c>
       <c r="K438" t="n">
-        <v>-6.493506493506493</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L438" t="n">
         <v>2762.9</v>
@@ -22617,7 +22639,7 @@
         <v>1955</v>
       </c>
       <c r="K439" t="n">
-        <v>4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L439" t="n">
         <v>2762.5</v>
@@ -22668,7 +22690,7 @@
         <v>1985</v>
       </c>
       <c r="K440" t="n">
-        <v>34.69387755102041</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="L440" t="n">
         <v>2764.9</v>
@@ -22719,7 +22741,7 @@
         <v>1987</v>
       </c>
       <c r="K441" t="n">
-        <v>23.59550561797753</v>
+        <v>43.28358208955223</v>
       </c>
       <c r="L441" t="n">
         <v>2767.3</v>
@@ -22770,7 +22792,7 @@
         <v>1987</v>
       </c>
       <c r="K442" t="n">
-        <v>26.4367816091954</v>
+        <v>42.42424242424242</v>
       </c>
       <c r="L442" t="n">
         <v>2770.2</v>
@@ -22821,7 +22843,7 @@
         <v>1996</v>
       </c>
       <c r="K443" t="n">
-        <v>29.67032967032967</v>
+        <v>44.92753623188405</v>
       </c>
       <c r="L443" t="n">
         <v>2773.9</v>
@@ -22872,7 +22894,7 @@
         <v>1997</v>
       </c>
       <c r="K444" t="n">
-        <v>30.43478260869566</v>
+        <v>52.23880597014925</v>
       </c>
       <c r="L444" t="n">
         <v>2777.1</v>
@@ -22923,7 +22945,7 @@
         <v>2001</v>
       </c>
       <c r="K445" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L445" t="n">
         <v>2781</v>
@@ -22974,7 +22996,7 @@
         <v>2001</v>
       </c>
       <c r="K446" t="n">
-        <v>39.1304347826087</v>
+        <v>60</v>
       </c>
       <c r="L446" t="n">
         <v>2785.4</v>
@@ -23025,7 +23047,7 @@
         <v>2002</v>
       </c>
       <c r="K447" t="n">
-        <v>41.30434782608695</v>
+        <v>91.48936170212765</v>
       </c>
       <c r="L447" t="n">
         <v>2788.8</v>
@@ -23076,7 +23098,7 @@
         <v>2013</v>
       </c>
       <c r="K448" t="n">
-        <v>26.21359223300971</v>
+        <v>55.17241379310344</v>
       </c>
       <c r="L448" t="n">
         <v>2792</v>
@@ -23127,7 +23149,7 @@
         <v>2016</v>
       </c>
       <c r="K449" t="n">
-        <v>23.80952380952381</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L449" t="n">
         <v>2794.9</v>
@@ -23178,7 +23200,7 @@
         <v>2022</v>
       </c>
       <c r="K450" t="n">
-        <v>26.60550458715597</v>
+        <v>20</v>
       </c>
       <c r="L450" t="n">
         <v>2795.4</v>
@@ -23229,7 +23251,7 @@
         <v>2022</v>
       </c>
       <c r="K451" t="n">
-        <v>28.97196261682243</v>
+        <v>20</v>
       </c>
       <c r="L451" t="n">
         <v>2796.1</v>
@@ -23280,7 +23302,7 @@
         <v>2022</v>
       </c>
       <c r="K452" t="n">
-        <v>35.29411764705883</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L452" t="n">
         <v>2796.8</v>
@@ -23331,7 +23353,7 @@
         <v>2023</v>
       </c>
       <c r="K453" t="n">
-        <v>35.29411764705883</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L453" t="n">
         <v>2796.7</v>
@@ -23382,7 +23404,7 @@
         <v>2024</v>
       </c>
       <c r="K454" t="n">
-        <v>31.95876288659793</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L454" t="n">
         <v>2796.6</v>
@@ -23433,7 +23455,7 @@
         <v>2030</v>
       </c>
       <c r="K455" t="n">
-        <v>40</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="L455" t="n">
         <v>2796.7</v>
@@ -23484,7 +23506,7 @@
         <v>2034</v>
       </c>
       <c r="K456" t="n">
-        <v>49.49494949494949</v>
+        <v>12.5</v>
       </c>
       <c r="L456" t="n">
         <v>2797.2</v>
@@ -23535,7 +23557,7 @@
         <v>2042</v>
       </c>
       <c r="K457" t="n">
-        <v>31.25</v>
+        <v>24.13793103448276</v>
       </c>
       <c r="L457" t="n">
         <v>2796.8</v>
@@ -23586,7 +23608,7 @@
         <v>2050</v>
       </c>
       <c r="K458" t="n">
-        <v>49.47368421052632</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L458" t="n">
         <v>2798.3</v>
@@ -23637,7 +23659,7 @@
         <v>2051</v>
       </c>
       <c r="K459" t="n">
-        <v>47.91666666666667</v>
+        <v>37.93103448275862</v>
       </c>
       <c r="L459" t="n">
         <v>2800</v>
@@ -23688,7 +23710,7 @@
         <v>2056</v>
       </c>
       <c r="K460" t="n">
-        <v>29.57746478873239</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L460" t="n">
         <v>2801.6</v>
@@ -23739,7 +23761,7 @@
         <v>2063</v>
       </c>
       <c r="K461" t="n">
-        <v>39.47368421052632</v>
+        <v>56.09756097560976</v>
       </c>
       <c r="L461" t="n">
         <v>2803.9</v>
@@ -23790,7 +23812,7 @@
         <v>2067</v>
       </c>
       <c r="K462" t="n">
-        <v>42.5</v>
+        <v>59.09090909090909</v>
       </c>
       <c r="L462" t="n">
         <v>2806.6</v>
@@ -23841,7 +23863,7 @@
         <v>2073</v>
       </c>
       <c r="K463" t="n">
-        <v>24.67532467532467</v>
+        <v>38.77551020408163</v>
       </c>
       <c r="L463" t="n">
         <v>2808.6</v>
@@ -23892,7 +23914,7 @@
         <v>2073</v>
       </c>
       <c r="K464" t="n">
-        <v>23.68421052631579</v>
+        <v>30.23255813953488</v>
       </c>
       <c r="L464" t="n">
         <v>2810.5</v>
@@ -23943,7 +23965,7 @@
         <v>2084</v>
       </c>
       <c r="K465" t="n">
-        <v>30.12048192771084</v>
+        <v>40</v>
       </c>
       <c r="L465" t="n">
         <v>2812.9</v>
@@ -23994,7 +24016,7 @@
         <v>2085</v>
       </c>
       <c r="K466" t="n">
-        <v>30.95238095238095</v>
+        <v>67.44186046511628</v>
       </c>
       <c r="L466" t="n">
         <v>2815</v>
@@ -24045,7 +24067,7 @@
         <v>2092</v>
       </c>
       <c r="K467" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L467" t="n">
         <v>2817.2</v>
@@ -24096,7 +24118,7 @@
         <v>2092</v>
       </c>
       <c r="K468" t="n">
-        <v>36.70886075949367</v>
+        <v>36.58536585365854</v>
       </c>
       <c r="L468" t="n">
         <v>2818.6</v>
@@ -24147,7 +24169,7 @@
         <v>2093</v>
       </c>
       <c r="K469" t="n">
-        <v>40.25974025974026</v>
+        <v>24.32432432432433</v>
       </c>
       <c r="L469" t="n">
         <v>2820</v>
@@ -24198,7 +24220,7 @@
         <v>2096</v>
       </c>
       <c r="K470" t="n">
-        <v>29.72972972972973</v>
+        <v>-3.03030303030303</v>
       </c>
       <c r="L470" t="n">
         <v>2820.6</v>
@@ -24249,7 +24271,7 @@
         <v>2101</v>
       </c>
       <c r="K471" t="n">
-        <v>34.17721518987342</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>2821</v>
@@ -24300,7 +24322,7 @@
         <v>2106</v>
       </c>
       <c r="K472" t="n">
-        <v>26.19047619047619</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L472" t="n">
         <v>2820.5</v>
@@ -24351,7 +24373,7 @@
         <v>2121</v>
       </c>
       <c r="K473" t="n">
-        <v>6.122448979591836</v>
+        <v>-29.16666666666667</v>
       </c>
       <c r="L473" t="n">
         <v>2819.1</v>
@@ -24402,7 +24424,7 @@
         <v>2121</v>
       </c>
       <c r="K474" t="n">
-        <v>5.154639175257731</v>
+        <v>-67.56756756756756</v>
       </c>
       <c r="L474" t="n">
         <v>2817.7</v>
@@ -24453,7 +24475,7 @@
         <v>2123</v>
       </c>
       <c r="K475" t="n">
-        <v>-3.225806451612903</v>
+        <v>-73.68421052631578</v>
       </c>
       <c r="L475" t="n">
         <v>2815</v>
@@ -24504,7 +24526,7 @@
         <v>2125</v>
       </c>
       <c r="K476" t="n">
-        <v>-9.890109890109891</v>
+        <v>-69.6969696969697</v>
       </c>
       <c r="L476" t="n">
         <v>2812</v>
@@ -24555,7 +24577,7 @@
         <v>2131</v>
       </c>
       <c r="K477" t="n">
-        <v>5.617977528089887</v>
+        <v>-43.58974358974359</v>
       </c>
       <c r="L477" t="n">
         <v>2810.3</v>
@@ -24606,7 +24628,7 @@
         <v>2132</v>
       </c>
       <c r="K478" t="n">
-        <v>-2.439024390243902</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L478" t="n">
         <v>2808.7</v>
@@ -24657,7 +24679,7 @@
         <v>2132</v>
       </c>
       <c r="K479" t="n">
-        <v>-1.234567901234568</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L479" t="n">
         <v>2807.2</v>
@@ -24708,7 +24730,7 @@
         <v>2133</v>
       </c>
       <c r="K480" t="n">
-        <v>-6.493506493506493</v>
+        <v>-50</v>
       </c>
       <c r="L480" t="n">
         <v>2806.1</v>
@@ -24759,7 +24781,7 @@
         <v>2146</v>
       </c>
       <c r="K481" t="n">
-        <v>-30.12048192771084</v>
+        <v>-60</v>
       </c>
       <c r="L481" t="n">
         <v>2803.2</v>
@@ -24810,7 +24832,7 @@
         <v>2158</v>
       </c>
       <c r="K482" t="n">
-        <v>-18.68131868131868</v>
+        <v>8.108108108108109</v>
       </c>
       <c r="L482" t="n">
         <v>2802</v>
@@ -24861,7 +24883,7 @@
         <v>2170</v>
       </c>
       <c r="K483" t="n">
-        <v>-23.71134020618556</v>
+        <v>-18.36734693877551</v>
       </c>
       <c r="L483" t="n">
         <v>2801.1</v>
@@ -24912,7 +24934,7 @@
         <v>2170</v>
       </c>
       <c r="K484" t="n">
-        <v>-23.71134020618556</v>
+        <v>-14.8936170212766</v>
       </c>
       <c r="L484" t="n">
         <v>2800.2</v>
@@ -24963,7 +24985,7 @@
         <v>2171</v>
       </c>
       <c r="K485" t="n">
-        <v>-37.93103448275862</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L485" t="n">
         <v>2799.6</v>
@@ -25014,7 +25036,7 @@
         <v>2172</v>
       </c>
       <c r="K486" t="n">
-        <v>-40.22988505747126</v>
+        <v>-26.82926829268293</v>
       </c>
       <c r="L486" t="n">
         <v>2799.1</v>
@@ -25065,7 +25087,7 @@
         <v>2173</v>
       </c>
       <c r="K487" t="n">
-        <v>-35.80246913580247</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L487" t="n">
         <v>2797.9</v>
@@ -25116,7 +25138,7 @@
         <v>2173</v>
       </c>
       <c r="K488" t="n">
-        <v>-35.80246913580247</v>
+        <v>-31.70731707317073</v>
       </c>
       <c r="L488" t="n">
         <v>2796.6</v>
@@ -25167,7 +25189,7 @@
         <v>2175</v>
       </c>
       <c r="K489" t="n">
-        <v>-36.58536585365854</v>
+        <v>-38.09523809523809</v>
       </c>
       <c r="L489" t="n">
         <v>2795.1</v>
@@ -25218,7 +25240,7 @@
         <v>2184</v>
       </c>
       <c r="K490" t="n">
-        <v>-20.45454545454546</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L490" t="n">
         <v>2794.4</v>
@@ -25269,7 +25291,7 @@
         <v>2186</v>
       </c>
       <c r="K491" t="n">
-        <v>-24.70588235294118</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L491" t="n">
         <v>2795.2</v>
@@ -25320,7 +25342,7 @@
         <v>2190</v>
       </c>
       <c r="K492" t="n">
-        <v>-14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L492" t="n">
         <v>2795.2</v>
@@ -25371,7 +25393,7 @@
         <v>2195</v>
       </c>
       <c r="K493" t="n">
-        <v>10.81081081081081</v>
+        <v>68</v>
       </c>
       <c r="L493" t="n">
         <v>2796.9</v>
@@ -25422,7 +25444,7 @@
         <v>2196</v>
       </c>
       <c r="K494" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="L494" t="n">
         <v>2798.7</v>
@@ -25473,7 +25495,7 @@
         <v>2207</v>
       </c>
       <c r="K495" t="n">
-        <v>26.19047619047619</v>
+        <v>82.85714285714286</v>
       </c>
       <c r="L495" t="n">
         <v>2801.5</v>
@@ -25524,7 +25546,7 @@
         <v>2211</v>
       </c>
       <c r="K496" t="n">
-        <v>32.55813953488372</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L496" t="n">
         <v>2804.8</v>
@@ -25575,7 +25597,7 @@
         <v>2215</v>
       </c>
       <c r="K497" t="n">
-        <v>21.42857142857143</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L497" t="n">
         <v>2807.8</v>
@@ -25626,7 +25648,7 @@
         <v>2224</v>
       </c>
       <c r="K498" t="n">
-        <v>28.26086956521739</v>
+        <v>83.67346938775511</v>
       </c>
       <c r="L498" t="n">
         <v>2811.7</v>
@@ -25677,7 +25699,7 @@
         <v>2224</v>
       </c>
       <c r="K499" t="n">
-        <v>28.26086956521739</v>
+        <v>80</v>
       </c>
       <c r="L499" t="n">
         <v>2815.8</v>
@@ -25728,7 +25750,7 @@
         <v>2228</v>
       </c>
       <c r="K500" t="n">
-        <v>30.52631578947368</v>
+        <v>80.95238095238095</v>
       </c>
       <c r="L500" t="n">
         <v>2819.4</v>
@@ -25779,7 +25801,7 @@
         <v>2235</v>
       </c>
       <c r="K501" t="n">
-        <v>39.32584269662922</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="L501" t="n">
         <v>2822.1</v>
@@ -25830,7 +25852,7 @@
         <v>2235</v>
       </c>
       <c r="K502" t="n">
-        <v>29.87012987012987</v>
+        <v>45</v>
       </c>
       <c r="L502" t="n">
         <v>2824.4</v>
@@ -25881,7 +25903,7 @@
         <v>2237</v>
       </c>
       <c r="K503" t="n">
-        <v>55.22388059701493</v>
+        <v>46.34146341463415</v>
       </c>
       <c r="L503" t="n">
         <v>2826.4</v>
@@ -25932,7 +25954,7 @@
         <v>2241</v>
       </c>
       <c r="K504" t="n">
-        <v>57.74647887323944</v>
+        <v>35.29411764705883</v>
       </c>
       <c r="L504" t="n">
         <v>2828.7</v>
@@ -25983,7 +26005,7 @@
         <v>2241</v>
       </c>
       <c r="K505" t="n">
-        <v>57.14285714285714</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L505" t="n">
         <v>2829.9</v>
@@ -26034,7 +26056,7 @@
         <v>2243</v>
       </c>
       <c r="K506" t="n">
-        <v>60.56338028169014</v>
+        <v>50</v>
       </c>
       <c r="L506" t="n">
         <v>2830.9</v>
@@ -26085,7 +26107,7 @@
         <v>2277</v>
       </c>
       <c r="K507" t="n">
-        <v>75</v>
+        <v>73.58490566037736</v>
       </c>
       <c r="L507" t="n">
         <v>2835.7</v>
@@ -26136,7 +26158,7 @@
         <v>2286</v>
       </c>
       <c r="K508" t="n">
-        <v>61.06194690265486</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L508" t="n">
         <v>2838.7</v>
@@ -26187,7 +26209,7 @@
         <v>2295</v>
       </c>
       <c r="K509" t="n">
-        <v>66.66666666666666</v>
+        <v>52.23880597014925</v>
       </c>
       <c r="L509" t="n">
         <v>2842.6</v>
@@ -26238,7 +26260,7 @@
         <v>2297</v>
       </c>
       <c r="K510" t="n">
-        <v>61.06194690265486</v>
+        <v>64.51612903225806</v>
       </c>
       <c r="L510" t="n">
         <v>2845.9</v>
@@ -26289,7 +26311,7 @@
         <v>2297</v>
       </c>
       <c r="K511" t="n">
-        <v>60.36036036036037</v>
+        <v>64.51612903225806</v>
       </c>
       <c r="L511" t="n">
         <v>2849.9</v>
@@ -26340,7 +26362,7 @@
         <v>2301</v>
       </c>
       <c r="K512" t="n">
-        <v>60.36036036036037</v>
+        <v>65.625</v>
       </c>
       <c r="L512" t="n">
         <v>2854.3</v>
@@ -26391,7 +26413,7 @@
         <v>2309</v>
       </c>
       <c r="K513" t="n">
-        <v>61.40350877192983</v>
+        <v>67.64705882352942</v>
       </c>
       <c r="L513" t="n">
         <v>2859.3</v>
@@ -26442,7 +26464,7 @@
         <v>2310</v>
       </c>
       <c r="K514" t="n">
-        <v>61.40350877192983</v>
+        <v>68.11594202898551</v>
       </c>
       <c r="L514" t="n">
         <v>2864</v>
@@ -26493,7 +26515,7 @@
         <v>2313</v>
       </c>
       <c r="K515" t="n">
-        <v>52.83018867924528</v>
+        <v>60</v>
       </c>
       <c r="L515" t="n">
         <v>2868.4</v>
@@ -26544,7 +26566,7 @@
         <v>2317</v>
       </c>
       <c r="K516" t="n">
-        <v>45.28301886792453</v>
+        <v>10</v>
       </c>
       <c r="L516" t="n">
         <v>2872.2</v>
@@ -26595,7 +26617,7 @@
         <v>2318</v>
       </c>
       <c r="K517" t="n">
-        <v>49.51456310679612</v>
+        <v>37.5</v>
       </c>
       <c r="L517" t="n">
         <v>2872.5</v>
@@ -26646,7 +26668,7 @@
         <v>2328</v>
       </c>
       <c r="K518" t="n">
-        <v>50</v>
+        <v>39.39393939393939</v>
       </c>
       <c r="L518" t="n">
         <v>2874.7</v>
@@ -26697,7 +26719,7 @@
         <v>2328</v>
       </c>
       <c r="K519" t="n">
-        <v>50</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L519" t="n">
         <v>2876</v>
@@ -26748,7 +26770,7 @@
         <v>2328</v>
       </c>
       <c r="K520" t="n">
-        <v>48</v>
+        <v>48.38709677419355</v>
       </c>
       <c r="L520" t="n">
         <v>2877.5</v>
@@ -26799,7 +26821,7 @@
         <v>2328</v>
       </c>
       <c r="K521" t="n">
-        <v>59.13978494623656</v>
+        <v>40.74074074074074</v>
       </c>
       <c r="L521" t="n">
         <v>2879</v>
@@ -26850,7 +26872,7 @@
         <v>2335</v>
       </c>
       <c r="K522" t="n">
-        <v>62</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L522" t="n">
         <v>2880.8</v>
@@ -26901,7 +26923,7 @@
         <v>2336</v>
       </c>
       <c r="K523" t="n">
-        <v>61.61616161616161</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L523" t="n">
         <v>2881.9</v>
@@ -26952,7 +26974,7 @@
         <v>2345</v>
       </c>
       <c r="K524" t="n">
-        <v>46.15384615384615</v>
+        <v>12.5</v>
       </c>
       <c r="L524" t="n">
         <v>2882</v>
@@ -27003,7 +27025,7 @@
         <v>2348</v>
       </c>
       <c r="K525" t="n">
-        <v>42.05607476635514</v>
+        <v>16.12903225806452</v>
       </c>
       <c r="L525" t="n">
         <v>2882.1</v>
@@ -27054,7 +27076,7 @@
         <v>2354</v>
       </c>
       <c r="K526" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L526" t="n">
         <v>2882</v>
@@ -27105,7 +27127,7 @@
         <v>2367</v>
       </c>
       <c r="K527" t="n">
-        <v>17.77777777777778</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L527" t="n">
         <v>2883.3</v>
@@ -27156,7 +27178,7 @@
         <v>2367</v>
       </c>
       <c r="K528" t="n">
-        <v>30.8641975308642</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L528" t="n">
         <v>2883.6</v>
@@ -27207,7 +27229,7 @@
         <v>2368</v>
       </c>
       <c r="K529" t="n">
-        <v>20.54794520547945</v>
+        <v>5</v>
       </c>
       <c r="L529" t="n">
         <v>2883.8</v>
@@ -27258,7 +27280,7 @@
         <v>2371</v>
       </c>
       <c r="K530" t="n">
-        <v>18.91891891891892</v>
+        <v>-2.325581395348837</v>
       </c>
       <c r="L530" t="n">
         <v>2883.7</v>
@@ -27309,7 +27331,7 @@
         <v>2373</v>
       </c>
       <c r="K531" t="n">
-        <v>21.05263157894737</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L531" t="n">
         <v>2883.8</v>
@@ -27360,7 +27382,7 @@
         <v>2374</v>
       </c>
       <c r="K532" t="n">
-        <v>17.80821917808219</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L532" t="n">
         <v>2883.3</v>
@@ -27411,7 +27433,7 @@
         <v>2380</v>
       </c>
       <c r="K533" t="n">
-        <v>-1.408450704225352</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L533" t="n">
         <v>2882.1</v>
@@ -27462,7 +27484,7 @@
         <v>2383</v>
       </c>
       <c r="K534" t="n">
-        <v>1.36986301369863</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="L534" t="n">
         <v>2882.1</v>
@@ -27513,7 +27535,7 @@
         <v>2383</v>
       </c>
       <c r="K535" t="n">
-        <v>5.714285714285714</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L535" t="n">
         <v>2882.4</v>
@@ -27564,7 +27586,7 @@
         <v>2384</v>
       </c>
       <c r="K536" t="n">
-        <v>10.44776119402985</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L536" t="n">
         <v>2883.2</v>
@@ -27615,7 +27637,7 @@
         <v>2395</v>
       </c>
       <c r="K537" t="n">
-        <v>24.67532467532467</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="L537" t="n">
         <v>2883.8</v>
@@ -27666,7 +27688,7 @@
         <v>2402</v>
       </c>
       <c r="K538" t="n">
-        <v>2.702702702702703</v>
+        <v>0</v>
       </c>
       <c r="L538" t="n">
         <v>2883.7</v>
@@ -27717,7 +27739,7 @@
         <v>2402</v>
       </c>
       <c r="K539" t="n">
-        <v>2.702702702702703</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L539" t="n">
         <v>2883.7</v>
@@ -27768,7 +27790,7 @@
         <v>2406</v>
       </c>
       <c r="K540" t="n">
-        <v>-2.564102564102564</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L540" t="n">
         <v>2883.6</v>
@@ -27819,7 +27841,7 @@
         <v>2409</v>
       </c>
       <c r="K541" t="n">
-        <v>-6.172839506172839</v>
+        <v>-20</v>
       </c>
       <c r="L541" t="n">
         <v>2883</v>
@@ -27870,7 +27892,7 @@
         <v>2409</v>
       </c>
       <c r="K542" t="n">
-        <v>-16.21621621621622</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L542" t="n">
         <v>2882.3</v>
@@ -27921,7 +27943,7 @@
         <v>2411</v>
       </c>
       <c r="K543" t="n">
-        <v>-14.66666666666667</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L543" t="n">
         <v>2882.4</v>
@@ -27972,7 +27994,7 @@
         <v>2412</v>
       </c>
       <c r="K544" t="n">
-        <v>-4.477611940298507</v>
+        <v>-10.3448275862069</v>
       </c>
       <c r="L544" t="n">
         <v>2882.1</v>
@@ -28023,7 +28045,7 @@
         <v>2412</v>
       </c>
       <c r="K545" t="n">
-        <v>0</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L545" t="n">
         <v>2881.8</v>
@@ -28074,7 +28096,7 @@
         <v>2420</v>
       </c>
       <c r="K546" t="n">
-        <v>-3.03030303030303</v>
+        <v>-84</v>
       </c>
       <c r="L546" t="n">
         <v>2880.8</v>
@@ -28125,7 +28147,7 @@
         <v>2421</v>
       </c>
       <c r="K547" t="n">
-        <v>-25.92592592592592</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L547" t="n">
         <v>2878.8</v>
@@ -28176,7 +28198,7 @@
         <v>2421</v>
       </c>
       <c r="K548" t="n">
-        <v>-25.92592592592592</v>
+        <v>-68.42105263157895</v>
       </c>
       <c r="L548" t="n">
         <v>2877.5</v>
@@ -28227,7 +28249,7 @@
         <v>2423</v>
       </c>
       <c r="K549" t="n">
-        <v>-27.27272727272727</v>
+        <v>-64.70588235294117</v>
       </c>
       <c r="L549" t="n">
         <v>2876</v>
@@ -28278,7 +28300,7 @@
         <v>2423</v>
       </c>
       <c r="K550" t="n">
-        <v>-23.07692307692308</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L550" t="n">
         <v>2874.9</v>
@@ -28329,7 +28351,7 @@
         <v>2424</v>
       </c>
       <c r="K551" t="n">
-        <v>-25.49019607843137</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L551" t="n">
         <v>2874.2</v>
@@ -28380,7 +28402,7 @@
         <v>2425</v>
       </c>
       <c r="K552" t="n">
-        <v>-29.41176470588236</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L552" t="n">
         <v>2873.4</v>
@@ -28431,7 +28453,7 @@
         <v>2425</v>
       </c>
       <c r="K553" t="n">
-        <v>-20</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L553" t="n">
         <v>2872.4</v>
@@ -28482,7 +28504,7 @@
         <v>2425</v>
       </c>
       <c r="K554" t="n">
-        <v>-28.57142857142857</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L554" t="n">
         <v>2871.5</v>
@@ -28533,7 +28555,7 @@
         <v>2435</v>
       </c>
       <c r="K555" t="n">
-        <v>-42.30769230769231</v>
+        <v>-73.33333333333333</v>
       </c>
       <c r="L555" t="n">
         <v>2869.6</v>
@@ -28584,7 +28606,7 @@
         <v>2437</v>
       </c>
       <c r="K556" t="n">
-        <v>-43.39622641509434</v>
+        <v>-87.5</v>
       </c>
       <c r="L556" t="n">
         <v>2868.3</v>
@@ -28635,7 +28657,7 @@
         <v>2447</v>
       </c>
       <c r="K557" t="n">
-        <v>-46.15384615384615</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L557" t="n">
         <v>2867.9</v>
@@ -28686,7 +28708,7 @@
         <v>2448</v>
       </c>
       <c r="K558" t="n">
-        <v>-39.1304347826087</v>
+        <v>-12</v>
       </c>
       <c r="L558" t="n">
         <v>2867.4</v>
@@ -28737,7 +28759,7 @@
         <v>2449</v>
       </c>
       <c r="K559" t="n">
-        <v>-36.17021276595745</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L559" t="n">
         <v>2867.2</v>
@@ -28788,7 +28810,7 @@
         <v>2450</v>
       </c>
       <c r="K560" t="n">
-        <v>-27.27272727272727</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L560" t="n">
         <v>2867.1</v>
@@ -28839,7 +28861,7 @@
         <v>2454</v>
       </c>
       <c r="K561" t="n">
-        <v>-11.11111111111111</v>
+        <v>10.3448275862069</v>
       </c>
       <c r="L561" t="n">
         <v>2867.3</v>
@@ -28890,7 +28912,7 @@
         <v>2460</v>
       </c>
       <c r="K562" t="n">
-        <v>1.96078431372549</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L562" t="n">
         <v>2868.2</v>
@@ -28941,7 +28963,7 @@
         <v>2460</v>
       </c>
       <c r="K563" t="n">
-        <v>-2.040816326530612</v>
+        <v>25.71428571428571</v>
       </c>
       <c r="L563" t="n">
         <v>2869.1</v>
@@ -28992,7 +29014,7 @@
         <v>2467</v>
       </c>
       <c r="K564" t="n">
-        <v>12.72727272727273</v>
+        <v>81.25</v>
       </c>
       <c r="L564" t="n">
         <v>2870.7</v>
@@ -29043,7 +29065,7 @@
         <v>2467</v>
       </c>
       <c r="K565" t="n">
-        <v>12.72727272727273</v>
+        <v>93.33333333333333</v>
       </c>
       <c r="L565" t="n">
         <v>2873.3</v>
@@ -29094,7 +29116,7 @@
         <v>2473</v>
       </c>
       <c r="K566" t="n">
-        <v>16.9811320754717</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L566" t="n">
         <v>2875.5</v>
@@ -29145,7 +29167,7 @@
         <v>2478</v>
       </c>
       <c r="K567" t="n">
-        <v>5.263157894736842</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L567" t="n">
         <v>2876.2</v>
@@ -29196,7 +29218,7 @@
         <v>2479</v>
       </c>
       <c r="K568" t="n">
-        <v>3.448275862068965</v>
+        <v>20</v>
       </c>
       <c r="L568" t="n">
         <v>2876.9</v>
@@ -29247,7 +29269,7 @@
         <v>2479</v>
       </c>
       <c r="K569" t="n">
-        <v>7.142857142857142</v>
+        <v>17.24137931034483</v>
       </c>
       <c r="L569" t="n">
         <v>2877.5</v>
@@ -29298,7 +29320,7 @@
         <v>2484</v>
       </c>
       <c r="K570" t="n">
-        <v>-1.639344262295082</v>
+        <v>-13.33333333333333</v>
       </c>
       <c r="L570" t="n">
         <v>2877.5</v>
@@ -29349,7 +29371,7 @@
         <v>2512</v>
       </c>
       <c r="K571" t="n">
-        <v>-34.09090909090909</v>
+        <v>-73.07692307692307</v>
       </c>
       <c r="L571" t="n">
         <v>2874.3</v>
@@ -29400,7 +29422,7 @@
         <v>2532</v>
       </c>
       <c r="K572" t="n">
-        <v>-8.411214953271028</v>
+        <v>-25</v>
       </c>
       <c r="L572" t="n">
         <v>2872.5</v>
@@ -29451,7 +29473,7 @@
         <v>2553</v>
       </c>
       <c r="K573" t="n">
-        <v>-23.4375</v>
+        <v>-53.48837209302325</v>
       </c>
       <c r="L573" t="n">
         <v>2868.6</v>
@@ -29502,7 +29524,7 @@
         <v>2563</v>
       </c>
       <c r="K574" t="n">
-        <v>-14.49275362318841</v>
+        <v>-37.5</v>
       </c>
       <c r="L574" t="n">
         <v>2865</v>
@@ -29553,7 +29575,7 @@
         <v>2563</v>
       </c>
       <c r="K575" t="n">
-        <v>-7.8125</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L575" t="n">
         <v>2861.4</v>
@@ -29604,7 +29626,7 @@
         <v>2570</v>
       </c>
       <c r="K576" t="n">
-        <v>-0.7518796992481203</v>
+        <v>-19.56521739130435</v>
       </c>
       <c r="L576" t="n">
         <v>2859.1</v>
@@ -29655,7 +29677,7 @@
         <v>2573</v>
       </c>
       <c r="K577" t="n">
-        <v>-11.11111111111111</v>
+        <v>-21.27659574468085</v>
       </c>
       <c r="L577" t="n">
         <v>2857</v>
@@ -29706,7 +29728,7 @@
         <v>2581</v>
       </c>
       <c r="K578" t="n">
-        <v>-3.759398496240602</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L578" t="n">
         <v>2855.8</v>
@@ -29757,7 +29779,7 @@
         <v>2588</v>
       </c>
       <c r="K579" t="n">
-        <v>-9.352517985611511</v>
+        <v>-13.46153846153846</v>
       </c>
       <c r="L579" t="n">
         <v>2853.9</v>
@@ -29808,7 +29830,7 @@
         <v>2589</v>
       </c>
       <c r="K580" t="n">
-        <v>-10.79136690647482</v>
+        <v>16.88311688311688</v>
       </c>
       <c r="L580" t="n">
         <v>2852.4</v>
@@ -29859,7 +29881,7 @@
         <v>2592</v>
       </c>
       <c r="K581" t="n">
-        <v>-15.94202898550724</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L581" t="n">
         <v>2853.4</v>
@@ -29910,7 +29932,7 @@
         <v>2596</v>
       </c>
       <c r="K582" t="n">
-        <v>-17.64705882352941</v>
+        <v>34.88372093023256</v>
       </c>
       <c r="L582" t="n">
         <v>2852.8</v>
@@ -29961,7 +29983,7 @@
         <v>2600</v>
       </c>
       <c r="K583" t="n">
-        <v>-20</v>
+        <v>2.702702702702703</v>
       </c>
       <c r="L583" t="n">
         <v>2853.9</v>
@@ -30012,7 +30034,7 @@
         <v>2619</v>
       </c>
       <c r="K584" t="n">
-        <v>-35.52631578947368</v>
+        <v>-32.14285714285715</v>
       </c>
       <c r="L584" t="n">
         <v>2852.1</v>
@@ -30063,7 +30085,7 @@
         <v>2621</v>
       </c>
       <c r="K585" t="n">
-        <v>-36.36363636363637</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L585" t="n">
         <v>2850.1</v>
@@ -30114,7 +30136,7 @@
         <v>2625</v>
       </c>
       <c r="K586" t="n">
-        <v>-35.52631578947368</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L586" t="n">
         <v>2847</v>
@@ -30165,7 +30187,7 @@
         <v>2633</v>
       </c>
       <c r="K587" t="n">
-        <v>-26.45161290322581</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L587" t="n">
         <v>2845</v>
@@ -30216,7 +30238,7 @@
         <v>2633</v>
       </c>
       <c r="K588" t="n">
-        <v>-25.97402597402597</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L588" t="n">
         <v>2842.2</v>
@@ -30267,7 +30289,7 @@
         <v>2633</v>
       </c>
       <c r="K589" t="n">
-        <v>-25.97402597402597</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L589" t="n">
         <v>2840.1</v>
@@ -30318,7 +30340,7 @@
         <v>2637</v>
       </c>
       <c r="K590" t="n">
-        <v>-20.26143790849673</v>
+        <v>-28.88888888888889</v>
       </c>
       <c r="L590" t="n">
         <v>2838.5</v>
@@ -30369,7 +30391,7 @@
         <v>2646</v>
       </c>
       <c r="K591" t="n">
-        <v>4.477611940298507</v>
+        <v>-16</v>
       </c>
       <c r="L591" t="n">
         <v>2838.1</v>
@@ -30420,7 +30442,7 @@
         <v>2646</v>
       </c>
       <c r="K592" t="n">
-        <v>-12.28070175438596</v>
+        <v>-8.695652173913043</v>
       </c>
       <c r="L592" t="n">
         <v>2837.3</v>
@@ -30471,7 +30493,7 @@
         <v>2654</v>
       </c>
       <c r="K593" t="n">
-        <v>-0.9900990099009901</v>
+        <v>20</v>
       </c>
       <c r="L593" t="n">
         <v>2836.1</v>
@@ -30522,7 +30544,7 @@
         <v>2664</v>
       </c>
       <c r="K594" t="n">
-        <v>-0.9900990099009901</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L594" t="n">
         <v>2837.8</v>
@@ -30573,7 +30595,7 @@
         <v>2664</v>
       </c>
       <c r="K595" t="n">
-        <v>-0.9900990099009901</v>
+        <v>58.97435897435898</v>
       </c>
       <c r="L595" t="n">
         <v>2839.7</v>
@@ -30624,7 +30646,7 @@
         <v>2667</v>
       </c>
       <c r="K596" t="n">
-        <v>-5.154639175257731</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L596" t="n">
         <v>2842.3</v>
@@ -30675,7 +30697,7 @@
         <v>2687</v>
       </c>
       <c r="K597" t="n">
-        <v>-19.29824561403509</v>
+        <v>-3.703703703703703</v>
       </c>
       <c r="L597" t="n">
         <v>2842.1</v>
@@ -30726,7 +30748,7 @@
         <v>2701</v>
       </c>
       <c r="K598" t="n">
-        <v>-13.33333333333333</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L598" t="n">
         <v>2843.3</v>
@@ -30777,7 +30799,7 @@
         <v>2703</v>
       </c>
       <c r="K599" t="n">
-        <v>-9.565217391304348</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L599" t="n">
         <v>2844.3</v>
@@ -30828,7 +30850,7 @@
         <v>2713</v>
       </c>
       <c r="K600" t="n">
-        <v>-16.12903225806452</v>
+        <v>-19.40298507462687</v>
       </c>
       <c r="L600" t="n">
         <v>2843.9</v>
@@ -30879,7 +30901,7 @@
         <v>2713</v>
       </c>
       <c r="K601" t="n">
-        <v>-14.0495867768595</v>
+        <v>-19.40298507462687</v>
       </c>
       <c r="L601" t="n">
         <v>2842.6</v>
@@ -30930,7 +30952,7 @@
         <v>2715</v>
       </c>
       <c r="K602" t="n">
-        <v>-15.96638655462185</v>
+        <v>-4.918032786885246</v>
       </c>
       <c r="L602" t="n">
         <v>2841.5</v>
@@ -30981,7 +31003,7 @@
         <v>2715</v>
       </c>
       <c r="K603" t="n">
-        <v>-13.04347826086956</v>
+        <v>-25.49019607843137</v>
       </c>
       <c r="L603" t="n">
         <v>2841.2</v>
@@ -31032,7 +31054,7 @@
         <v>2716</v>
       </c>
       <c r="K604" t="n">
-        <v>5.154639175257731</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L604" t="n">
         <v>2840</v>
@@ -31083,7 +31105,7 @@
         <v>2721</v>
       </c>
       <c r="K605" t="n">
-        <v>12</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L605" t="n">
         <v>2839.3</v>
@@ -31134,7 +31156,7 @@
         <v>2726</v>
       </c>
       <c r="K606" t="n">
-        <v>10.89108910891089</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="L606" t="n">
         <v>2837.8</v>
@@ -31185,7 +31207,7 @@
         <v>2729</v>
       </c>
       <c r="K607" t="n">
-        <v>6.25</v>
+        <v>-21.42857142857143</v>
       </c>
       <c r="L607" t="n">
         <v>2838.6</v>
@@ -31236,7 +31258,7 @@
         <v>2729</v>
       </c>
       <c r="K608" t="n">
-        <v>6.25</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L608" t="n">
         <v>2838</v>
@@ -31287,7 +31309,7 @@
         <v>2734</v>
       </c>
       <c r="K609" t="n">
-        <v>10.89108910891089</v>
+        <v>52.38095238095239</v>
       </c>
       <c r="L609" t="n">
         <v>2838.1</v>
@@ -31338,7 +31360,7 @@
         <v>2735</v>
       </c>
       <c r="K610" t="n">
-        <v>6.122448979591836</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L610" t="n">
         <v>2839.1</v>
@@ -31389,7 +31411,7 @@
         <v>2735</v>
       </c>
       <c r="K611" t="n">
-        <v>-3.370786516853932</v>
+        <v>40</v>
       </c>
       <c r="L611" t="n">
         <v>2840.1</v>
@@ -31440,7 +31462,7 @@
         <v>2736</v>
       </c>
       <c r="K612" t="n">
-        <v>-2.222222222222222</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L612" t="n">
         <v>2841</v>
@@ -31491,7 +31513,7 @@
         <v>2737</v>
       </c>
       <c r="K613" t="n">
-        <v>6.024096385542169</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L613" t="n">
         <v>2841.8</v>
@@ -31542,7 +31564,7 @@
         <v>2737</v>
       </c>
       <c r="K614" t="n">
-        <v>-6.849315068493151</v>
+        <v>12.5</v>
       </c>
       <c r="L614" t="n">
         <v>2842.5</v>
@@ -31593,7 +31615,7 @@
         <v>2737</v>
       </c>
       <c r="K615" t="n">
-        <v>-6.849315068493151</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L615" t="n">
         <v>2842.7</v>
@@ -31644,7 +31666,7 @@
         <v>2741</v>
       </c>
       <c r="K616" t="n">
-        <v>-16.21621621621622</v>
+        <v>0</v>
       </c>
       <c r="L616" t="n">
         <v>2843</v>
@@ -31695,7 +31717,7 @@
         <v>2741</v>
       </c>
       <c r="K617" t="n">
-        <v>14.81481481481481</v>
+        <v>0</v>
       </c>
       <c r="L617" t="n">
         <v>2843</v>
@@ -31746,7 +31768,7 @@
         <v>2742</v>
       </c>
       <c r="K618" t="n">
-        <v>-17.07317073170732</v>
+        <v>-75</v>
       </c>
       <c r="L618" t="n">
         <v>2842.9</v>
@@ -31797,7 +31819,7 @@
         <v>2744</v>
       </c>
       <c r="K619" t="n">
-        <v>-17.07317073170732</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L619" t="n">
         <v>2842.1</v>
@@ -31848,7 +31870,7 @@
         <v>2745</v>
       </c>
       <c r="K620" t="n">
-        <v>12.5</v>
+        <v>-60</v>
       </c>
       <c r="L620" t="n">
         <v>2841.5</v>
@@ -31899,7 +31921,7 @@
         <v>2745</v>
       </c>
       <c r="K621" t="n">
-        <v>12.5</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L621" t="n">
         <v>2840.9</v>
@@ -31950,7 +31972,7 @@
         <v>2745</v>
       </c>
       <c r="K622" t="n">
-        <v>6.666666666666667</v>
+        <v>-75</v>
       </c>
       <c r="L622" t="n">
         <v>2840.2</v>
@@ -32001,7 +32023,7 @@
         <v>2747</v>
       </c>
       <c r="K623" t="n">
-        <v>12.5</v>
+        <v>-40</v>
       </c>
       <c r="L623" t="n">
         <v>2839.8</v>
@@ -32052,7 +32074,7 @@
         <v>2751</v>
       </c>
       <c r="K624" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L624" t="n">
         <v>2839.8</v>
@@ -32103,7 +32125,7 @@
         <v>2757</v>
       </c>
       <c r="K625" t="n">
-        <v>22.22222222222222</v>
+        <v>62.5</v>
       </c>
       <c r="L625" t="n">
         <v>2840.4</v>
@@ -32154,7 +32176,7 @@
         <v>2769</v>
       </c>
       <c r="K626" t="n">
-        <v>58.13953488372093</v>
+        <v>78.57142857142857</v>
       </c>
       <c r="L626" t="n">
         <v>2842.6</v>
@@ -32205,7 +32227,7 @@
         <v>2778</v>
       </c>
       <c r="K627" t="n">
-        <v>26.53061224489796</v>
+        <v>38.88888888888889</v>
       </c>
       <c r="L627" t="n">
         <v>2843.9</v>
@@ -32256,7 +32278,7 @@
         <v>2793</v>
       </c>
       <c r="K628" t="n">
-        <v>43.75</v>
+        <v>63.26530612244898</v>
       </c>
       <c r="L628" t="n">
         <v>2846.8</v>
@@ -32307,7 +32329,7 @@
         <v>2795</v>
       </c>
       <c r="K629" t="n">
-        <v>40.98360655737705</v>
+        <v>64</v>
       </c>
       <c r="L629" t="n">
         <v>2850.1</v>
@@ -32358,7 +32380,7 @@
         <v>2796</v>
       </c>
       <c r="K630" t="n">
-        <v>40.98360655737705</v>
+        <v>60.78431372549019</v>
       </c>
       <c r="L630" t="n">
         <v>2853.2</v>
@@ -32409,7 +32431,7 @@
         <v>2806</v>
       </c>
       <c r="K631" t="n">
-        <v>49.29577464788733</v>
+        <v>67.21311475409836</v>
       </c>
       <c r="L631" t="n">
         <v>2857.3</v>
@@ -32460,7 +32482,7 @@
         <v>2807</v>
       </c>
       <c r="K632" t="n">
-        <v>46.47887323943662</v>
+        <v>63.33333333333333</v>
       </c>
       <c r="L632" t="n">
         <v>2861.3</v>
@@ -32511,7 +32533,7 @@
         <v>2808</v>
       </c>
       <c r="K633" t="n">
-        <v>46.47887323943662</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L633" t="n">
         <v>2865</v>
@@ -32562,7 +32584,7 @@
         <v>2812</v>
       </c>
       <c r="K634" t="n">
-        <v>49.33333333333334</v>
+        <v>56.36363636363636</v>
       </c>
       <c r="L634" t="n">
         <v>2868.7</v>
@@ -32613,7 +32635,7 @@
         <v>2812</v>
       </c>
       <c r="K635" t="n">
-        <v>49.33333333333334</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L635" t="n">
         <v>2871.8</v>
@@ -32664,7 +32686,7 @@
         <v>2823</v>
       </c>
       <c r="K636" t="n">
-        <v>36.58536585365854</v>
+        <v>37.77777777777778</v>
       </c>
       <c r="L636" t="n">
         <v>2872.6</v>
@@ -32715,7 +32737,7 @@
         <v>2827</v>
       </c>
       <c r="K637" t="n">
-        <v>30.23255813953488</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L637" t="n">
         <v>2873.9</v>
@@ -32766,7 +32788,7 @@
         <v>2832</v>
       </c>
       <c r="K638" t="n">
-        <v>24.44444444444444</v>
+        <v>-24.32432432432433</v>
       </c>
       <c r="L638" t="n">
         <v>2873.2</v>
@@ -32817,7 +32839,7 @@
         <v>2842</v>
       </c>
       <c r="K639" t="n">
-        <v>34.69387755102041</v>
+        <v>4.347826086956522</v>
       </c>
       <c r="L639" t="n">
         <v>2873.3</v>
@@ -32868,7 +32890,7 @@
         <v>2849</v>
       </c>
       <c r="K640" t="n">
-        <v>25</v>
+        <v>-34.88372093023256</v>
       </c>
       <c r="L640" t="n">
         <v>2872.8</v>
@@ -32919,7 +32941,7 @@
         <v>2856</v>
       </c>
       <c r="K641" t="n">
-        <v>29.72972972972973</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L641" t="n">
         <v>2872</v>
@@ -32970,7 +32992,7 @@
         <v>2857</v>
       </c>
       <c r="K642" t="n">
-        <v>28.57142857142857</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L642" t="n">
         <v>2871.2</v>
@@ -33021,7 +33043,7 @@
         <v>2862</v>
       </c>
       <c r="K643" t="n">
-        <v>30.43478260869566</v>
+        <v>-12</v>
       </c>
       <c r="L643" t="n">
         <v>2871</v>
@@ -33072,7 +33094,7 @@
         <v>2868</v>
       </c>
       <c r="K644" t="n">
-        <v>31.62393162393162</v>
+        <v>0</v>
       </c>
       <c r="L644" t="n">
         <v>2871</v>
@@ -33123,7 +33145,7 @@
         <v>2873</v>
       </c>
       <c r="K645" t="n">
-        <v>31.03448275862069</v>
+        <v>32</v>
       </c>
       <c r="L645" t="n">
         <v>2871.5</v>
@@ -33174,7 +33196,7 @@
         <v>2879</v>
       </c>
       <c r="K646" t="n">
-        <v>16.36363636363636</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="L646" t="n">
         <v>2872.5</v>
@@ -33225,7 +33247,7 @@
         <v>2884</v>
       </c>
       <c r="K647" t="n">
-        <v>30.18867924528302</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L647" t="n">
         <v>2874.4</v>
@@ -33276,7 +33298,7 @@
         <v>2886</v>
       </c>
       <c r="K648" t="n">
-        <v>16.12903225806452</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L648" t="n">
         <v>2876.6</v>
@@ -33327,7 +33349,7 @@
         <v>2901</v>
       </c>
       <c r="K649" t="n">
-        <v>26.41509433962264</v>
+        <v>65.38461538461539</v>
       </c>
       <c r="L649" t="n">
         <v>2879.3</v>
@@ -33378,7 +33400,7 @@
         <v>2905</v>
       </c>
       <c r="K650" t="n">
-        <v>30.27522935779817</v>
+        <v>63.26530612244898</v>
       </c>
       <c r="L650" t="n">
         <v>2883.1</v>
@@ -33429,7 +33451,7 @@
         <v>2905</v>
       </c>
       <c r="K651" t="n">
-        <v>23.23232323232323</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L651" t="n">
         <v>2886.2</v>
@@ -33480,7 +33502,7 @@
         <v>2911</v>
       </c>
       <c r="K652" t="n">
-        <v>28.84615384615384</v>
+        <v>67.3469387755102</v>
       </c>
       <c r="L652" t="n">
         <v>2890</v>
@@ -33531,7 +33553,7 @@
         <v>2911</v>
       </c>
       <c r="K653" t="n">
-        <v>30.09708737864078</v>
+        <v>62.7906976744186</v>
       </c>
       <c r="L653" t="n">
         <v>2893.3</v>
@@ -33582,7 +33604,7 @@
         <v>2920</v>
       </c>
       <c r="K654" t="n">
-        <v>33.33333333333333</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="L654" t="n">
         <v>2896.9</v>
@@ -33633,7 +33655,7 @@
         <v>2925</v>
       </c>
       <c r="K655" t="n">
-        <v>36.28318584070797</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L655" t="n">
         <v>2900.5</v>
@@ -33684,7 +33706,7 @@
         <v>2948</v>
       </c>
       <c r="K656" t="n">
-        <v>60</v>
+        <v>93.75</v>
       </c>
       <c r="L656" t="n">
         <v>2907</v>
@@ -33735,7 +33757,7 @@
         <v>2948</v>
       </c>
       <c r="K657" t="n">
-        <v>65.28925619834712</v>
+        <v>100</v>
       </c>
       <c r="L657" t="n">
         <v>2913</v>
@@ -33786,7 +33808,7 @@
         <v>2971</v>
       </c>
       <c r="K658" t="n">
-        <v>43.88489208633094</v>
+        <v>34.28571428571428</v>
       </c>
       <c r="L658" t="n">
         <v>2916.9</v>
@@ -33837,7 +33859,7 @@
         <v>2974</v>
       </c>
       <c r="K659" t="n">
-        <v>40.90909090909091</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L659" t="n">
         <v>2919.6</v>
@@ -33888,7 +33910,7 @@
         <v>2980</v>
       </c>
       <c r="K660" t="n">
-        <v>41.98473282442748</v>
+        <v>22.66666666666666</v>
       </c>
       <c r="L660" t="n">
         <v>2921.3</v>
@@ -33939,7 +33961,7 @@
         <v>2987</v>
       </c>
       <c r="K661" t="n">
-        <v>41.98473282442748</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="L661" t="n">
         <v>2923.7</v>
@@ -33990,7 +34012,7 @@
         <v>2988</v>
       </c>
       <c r="K662" t="n">
-        <v>41.98473282442748</v>
+        <v>22.07792207792208</v>
       </c>
       <c r="L662" t="n">
         <v>2925.4</v>
@@ -34041,7 +34063,7 @@
         <v>3001</v>
       </c>
       <c r="K663" t="n">
-        <v>45.32374100719424</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L663" t="n">
         <v>2928.4</v>
@@ -34092,7 +34114,7 @@
         <v>3004</v>
       </c>
       <c r="K664" t="n">
-        <v>44.11764705882353</v>
+        <v>24.05063291139241</v>
       </c>
       <c r="L664" t="n">
         <v>2930.8</v>
@@ -34143,7 +34165,7 @@
         <v>3012</v>
       </c>
       <c r="K665" t="n">
-        <v>33.81294964028777</v>
+        <v>-18.75</v>
       </c>
       <c r="L665" t="n">
         <v>2931.9</v>
@@ -34194,7 +34216,7 @@
         <v>3014</v>
       </c>
       <c r="K666" t="n">
-        <v>37.77777777777778</v>
+        <v>-21.21212121212121</v>
       </c>
       <c r="L666" t="n">
         <v>2930.5</v>
@@ -34245,7 +34267,7 @@
         <v>3014</v>
       </c>
       <c r="K667" t="n">
-        <v>35.38461538461539</v>
+        <v>20.93023255813954</v>
       </c>
       <c r="L667" t="n">
         <v>2929.1</v>
@@ -34296,7 +34318,7 @@
         <v>3024</v>
       </c>
       <c r="K668" t="n">
-        <v>42.02898550724638</v>
+        <v>32</v>
       </c>
       <c r="L668" t="n">
         <v>2931</v>
@@ -34347,7 +34369,7 @@
         <v>3025</v>
       </c>
       <c r="K669" t="n">
-        <v>35.48387096774194</v>
+        <v>51.11111111111111</v>
       </c>
       <c r="L669" t="n">
         <v>2932.7</v>
@@ -34398,7 +34420,7 @@
         <v>3026</v>
       </c>
       <c r="K670" t="n">
-        <v>33.88429752066116</v>
+        <v>43.58974358974359</v>
       </c>
       <c r="L670" t="n">
         <v>2935.1</v>
@@ -34449,7 +34471,7 @@
         <v>3028</v>
       </c>
       <c r="K671" t="n">
-        <v>34.95934959349594</v>
+        <v>50</v>
       </c>
       <c r="L671" t="n">
         <v>2937</v>
@@ -34500,7 +34522,7 @@
         <v>3033</v>
       </c>
       <c r="K672" t="n">
-        <v>26.22950819672131</v>
+        <v>6.25</v>
       </c>
       <c r="L672" t="n">
         <v>2938.5</v>
@@ -34551,7 +34573,7 @@
         <v>3033</v>
       </c>
       <c r="K673" t="n">
-        <v>26.22950819672131</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L673" t="n">
         <v>2938.7</v>
@@ -34602,7 +34624,7 @@
         <v>3042</v>
       </c>
       <c r="K674" t="n">
-        <v>11.47540983606557</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L674" t="n">
         <v>2937.7</v>
@@ -34653,7 +34675,7 @@
         <v>3047</v>
       </c>
       <c r="K675" t="n">
-        <v>3.278688524590164</v>
+        <v>-15.15151515151515</v>
       </c>
       <c r="L675" t="n">
         <v>2937</v>
@@ -34704,7 +34726,7 @@
         <v>3060</v>
       </c>
       <c r="K676" t="n">
-        <v>-5.357142857142857</v>
+        <v>17.39130434782609</v>
       </c>
       <c r="L676" t="n">
         <v>2937.8</v>
@@ -34755,7 +34777,7 @@
         <v>3077</v>
       </c>
       <c r="K677" t="n">
-        <v>-17.82945736434108</v>
+        <v>-35.84905660377358</v>
       </c>
       <c r="L677" t="n">
         <v>2936.9</v>
@@ -34806,7 +34828,7 @@
         <v>3089</v>
       </c>
       <c r="K678" t="n">
-        <v>10.16949152542373</v>
+        <v>-12.5</v>
       </c>
       <c r="L678" t="n">
         <v>2936.2</v>
@@ -34857,7 +34879,7 @@
         <v>3097</v>
       </c>
       <c r="K679" t="n">
-        <v>0.8130081300813009</v>
+        <v>-23.94366197183098</v>
       </c>
       <c r="L679" t="n">
         <v>2934.6</v>
@@ -34908,7 +34930,7 @@
         <v>3097</v>
       </c>
       <c r="K680" t="n">
-        <v>5.982905982905983</v>
+        <v>-27.53623188405797</v>
       </c>
       <c r="L680" t="n">
         <v>2932.9</v>
@@ -34959,7 +34981,7 @@
         <v>3098</v>
       </c>
       <c r="K681" t="n">
-        <v>-0.9009009009009009</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L681" t="n">
         <v>2930.9</v>
@@ -35010,7 +35032,7 @@
         <v>3103</v>
       </c>
       <c r="K682" t="n">
-        <v>4.347826086956522</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L682" t="n">
         <v>2929.9</v>
@@ -35061,7 +35083,7 @@
         <v>3108</v>
       </c>
       <c r="K683" t="n">
-        <v>-2.803738317757009</v>
+        <v>6.060606060606061</v>
       </c>
       <c r="L683" t="n">
         <v>2929.4</v>
@@ -35112,7 +35134,7 @@
         <v>3108</v>
       </c>
       <c r="K684" t="n">
-        <v>-5.769230769230769</v>
+        <v>14.75409836065574</v>
       </c>
       <c r="L684" t="n">
         <v>2929.8</v>
@@ -35163,7 +35185,7 @@
         <v>3108</v>
       </c>
       <c r="K685" t="n">
-        <v>2.083333333333333</v>
+        <v>-8.333333333333332</v>
       </c>
       <c r="L685" t="n">
         <v>2930.7</v>
@@ -35214,7 +35236,7 @@
         <v>3117</v>
       </c>
       <c r="K686" t="n">
-        <v>-4.854368932038835</v>
+        <v>10</v>
       </c>
       <c r="L686" t="n">
         <v>2929.4</v>
@@ -35265,7 +35287,7 @@
         <v>3123</v>
       </c>
       <c r="K687" t="n">
-        <v>-10.09174311926606</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L687" t="n">
         <v>2929.2</v>
@@ -35316,7 +35338,7 @@
         <v>3135</v>
       </c>
       <c r="K688" t="n">
-        <v>-8.108108108108109</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L688" t="n">
         <v>2929</v>
@@ -35367,7 +35389,7 @@
         <v>3135</v>
       </c>
       <c r="K689" t="n">
-        <v>-9.090909090909092</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L689" t="n">
         <v>2929.6</v>
@@ -35418,7 +35440,7 @@
         <v>3141</v>
       </c>
       <c r="K690" t="n">
-        <v>-14.78260869565217</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="L690" t="n">
         <v>2929.6</v>
@@ -35469,7 +35491,7 @@
         <v>3142</v>
       </c>
       <c r="K691" t="n">
-        <v>-15.78947368421053</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L691" t="n">
         <v>2929.8</v>
@@ -35520,7 +35542,7 @@
         <v>3152</v>
       </c>
       <c r="K692" t="n">
-        <v>-2.521008403361344</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L692" t="n">
         <v>2930.5</v>
@@ -35571,7 +35593,7 @@
         <v>3152</v>
       </c>
       <c r="K693" t="n">
-        <v>-2.521008403361344</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L693" t="n">
         <v>2930.7</v>
@@ -35622,7 +35644,7 @@
         <v>3152</v>
       </c>
       <c r="K694" t="n">
-        <v>5.454545454545454</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="L694" t="n">
         <v>2930.9</v>
@@ -35673,7 +35695,7 @@
         <v>3152</v>
       </c>
       <c r="K695" t="n">
-        <v>10.47619047619048</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="L695" t="n">
         <v>2931.1</v>
@@ -35724,7 +35746,7 @@
         <v>3152</v>
       </c>
       <c r="K696" t="n">
-        <v>-2.173913043478261</v>
+        <v>58.62068965517241</v>
       </c>
       <c r="L696" t="n">
         <v>2932.2</v>
@@ -35775,7 +35797,7 @@
         <v>3161</v>
       </c>
       <c r="K697" t="n">
-        <v>7.142857142857142</v>
+        <v>-15.38461538461539</v>
       </c>
       <c r="L697" t="n">
         <v>2933</v>
@@ -35826,7 +35848,7 @@
         <v>3162</v>
       </c>
       <c r="K698" t="n">
-        <v>-6.849315068493151</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L698" t="n">
         <v>2932.7</v>
@@ -35877,7 +35899,7 @@
         <v>3163</v>
       </c>
       <c r="K699" t="n">
-        <v>3.03030303030303</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L699" t="n">
         <v>2932.3</v>

--- a/BackTest/2019-10-17 BackTest LINK.xlsx
+++ b/BackTest/2019-10-17 BackTest LINK.xlsx
@@ -451,17 +451,13 @@
         <v>2704.216666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>2693</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2693</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>2703.566666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>2692</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>2702.65</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>2687</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>2702.083333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>2699</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>2701.683333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>2706</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>2701.383333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>2706</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>2700.75</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>2692</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>2700.183333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>2695</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>2700.066666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>2717</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>2699.85</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>2716</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>2699.733333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>2709</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>2699.75</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>2713</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>2699.683333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>2714</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>2699.766666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>2717</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>2699.733333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>2717</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>2699.75</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>2720</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>2699.833333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>2722</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>2699.983333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1221,22 +1081,14 @@
         <v>2700.15</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1264,22 +1116,14 @@
         <v>2700.466666666667</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1307,22 +1151,14 @@
         <v>2700.95</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1356,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1397,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1438,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1479,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1520,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1561,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1602,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1643,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1684,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1725,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1766,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1807,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1848,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1889,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1930,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1971,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2012,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2053,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2094,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2135,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2176,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2217,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2258,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2299,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2340,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2381,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2422,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2463,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2504,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2545,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2586,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2627,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2668,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2709,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2750,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2791,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2832,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2873,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2914,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2955,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2996,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3037,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3078,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3119,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3160,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3201,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3242,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3283,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3324,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3365,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3406,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3447,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3488,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3529,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3570,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3611,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3652,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3693,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3734,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3775,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3816,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3857,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3898,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3939,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3980,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4062,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4103,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4144,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4185,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4226,14 +3642,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4267,14 +3677,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4308,14 +3712,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4349,14 +3747,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4390,14 +3782,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4431,14 +3817,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4472,14 +3852,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4513,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4554,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4595,14 +3957,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4636,14 +3992,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4677,14 +4027,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4718,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4759,14 +4097,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4800,14 +4132,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4841,14 +4167,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4882,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4923,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4964,14 +4272,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5005,14 +4307,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5046,14 +4342,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5087,14 +4377,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5128,14 +4412,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5169,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5210,14 +4482,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5251,14 +4517,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5292,14 +4552,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5333,14 +4587,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5374,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5415,14 +4657,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5456,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5497,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5538,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5579,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5620,14 +4832,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5661,14 +4867,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5702,14 +4902,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5743,14 +4937,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5784,14 +4972,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5825,14 +5007,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5866,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5907,14 +5077,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5948,14 +5112,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5989,14 +5147,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6030,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6071,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6112,14 +5252,8 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6153,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6194,14 +5322,8 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6235,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6276,14 +5392,8 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6317,14 +5427,8 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6358,14 +5462,8 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6399,14 +5497,8 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6440,14 +5532,8 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6481,14 +5567,8 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6522,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6563,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6604,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6645,14 +5707,8 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6686,14 +5742,8 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6727,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6768,14 +5812,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6809,14 +5847,8 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6850,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6891,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6932,14 +5952,8 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6973,14 +5987,8 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7014,14 +6022,8 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7055,14 +6057,8 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7096,14 +6092,8 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7137,14 +6127,8 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7178,14 +6162,8 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7219,14 +6197,8 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7260,14 +6232,8 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7301,14 +6267,8 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7342,14 +6302,8 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7383,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7424,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7465,14 +6407,8 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7506,14 +6442,8 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7547,14 +6477,8 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7588,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7629,14 +6547,8 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7670,14 +6582,8 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7711,14 +6617,8 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7752,14 +6652,8 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7793,14 +6687,8 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7834,14 +6722,8 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7875,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7916,14 +6792,8 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7957,14 +6827,8 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7998,14 +6862,8 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8039,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8080,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8121,14 +6967,8 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8162,14 +7002,8 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8203,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8244,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8285,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8326,14 +7142,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8367,14 +7177,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8408,14 +7212,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8449,14 +7247,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8490,14 +7282,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8531,14 +7317,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8572,14 +7352,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8613,14 +7387,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8654,14 +7422,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8695,14 +7457,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8736,14 +7492,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8777,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8818,14 +7562,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8859,14 +7597,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8900,14 +7632,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8941,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8982,14 +7702,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -9023,14 +7737,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9064,14 +7772,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9105,14 +7807,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9146,14 +7842,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9187,14 +7877,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9228,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9269,14 +7947,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9310,14 +7982,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9351,14 +8017,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9392,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9433,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9474,14 +8122,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9515,14 +8157,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9556,14 +8192,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9597,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9638,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9679,14 +8297,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9720,14 +8332,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9761,14 +8367,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9802,14 +8402,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9843,14 +8437,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9884,14 +8472,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9925,14 +8507,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9966,14 +8542,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -10007,14 +8577,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -10048,14 +8612,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -10089,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -10130,14 +8682,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -10171,14 +8717,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -10212,14 +8752,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10253,14 +8787,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10294,14 +8822,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10335,14 +8857,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10376,14 +8892,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10417,14 +8927,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10458,14 +8962,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10499,14 +8997,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10540,14 +9032,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10581,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10622,14 +9102,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10663,14 +9137,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10704,14 +9172,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10745,14 +9207,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10786,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10827,14 +9277,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10868,14 +9312,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10909,14 +9347,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10950,14 +9382,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10991,14 +9417,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>2693</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11026,18 +9446,18 @@
         <v>2759.95</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>2693</v>
-      </c>
+      <c r="J259" t="n">
+        <v>2718</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M259" t="n">
@@ -11067,15 +9487,15 @@
         <v>2759.033333333333</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>2693</v>
-      </c>
+      <c r="J260" t="n">
+        <v>2721</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11108,15 +9528,15 @@
         <v>2758.166666666667</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>2693</v>
-      </c>
+      <c r="J261" t="n">
+        <v>2722</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11149,15 +9569,15 @@
         <v>2757.5</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>2693</v>
-      </c>
+      <c r="J262" t="n">
+        <v>2732</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11190,15 +9610,15 @@
         <v>2756.616666666667</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>2693</v>
-      </c>
+      <c r="J263" t="n">
+        <v>2740</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11231,15 +9651,15 @@
         <v>2755.75</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>2693</v>
-      </c>
+      <c r="J264" t="n">
+        <v>2734</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11272,15 +9692,15 @@
         <v>2754.9</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>2693</v>
-      </c>
+      <c r="J265" t="n">
+        <v>2733</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11313,15 +9733,15 @@
         <v>2754.033333333333</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>2693</v>
-      </c>
+      <c r="J266" t="n">
+        <v>2739</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11360,9 +9780,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11401,9 +9819,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11442,9 +9858,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11483,9 +9897,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11524,9 +9936,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11565,9 +9975,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11606,9 +10014,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11647,9 +10053,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11688,9 +10092,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11729,9 +10131,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11770,9 +10170,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11811,9 +10209,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11852,9 +10248,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11893,9 +10287,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11934,9 +10326,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11975,9 +10365,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12016,9 +10404,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12057,9 +10443,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12098,9 +10482,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12139,9 +10521,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12180,9 +10560,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12221,9 +10599,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12262,9 +10638,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12303,9 +10677,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12344,9 +10716,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12385,9 +10755,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12426,9 +10794,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12467,9 +10833,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12508,9 +10872,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12549,9 +10911,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12590,9 +10950,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12631,9 +10989,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12672,9 +11028,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12713,9 +11067,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12754,9 +11106,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12795,9 +11145,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12836,9 +11184,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12877,9 +11223,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12918,9 +11262,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12959,9 +11301,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13000,9 +11340,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13041,9 +11379,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13082,9 +11418,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13120,19 +11454,17 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>2693</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M310" t="n">
-        <v>1.034361307092462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -13161,11 +11493,15 @@
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -13196,11 +11532,15 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -13231,11 +11571,15 @@
         <v>0</v>
       </c>
       <c r="I313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -13266,11 +11610,15 @@
         <v>0</v>
       </c>
       <c r="I314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -13301,11 +11649,15 @@
         <v>0</v>
       </c>
       <c r="I315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -13340,7 +11692,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -13375,7 +11731,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -13410,7 +11770,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -13445,7 +11809,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -13480,7 +11848,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -13515,7 +11887,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -13550,7 +11926,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -13585,7 +11965,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -13620,7 +12004,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +12043,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -13690,7 +12082,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -13725,7 +12121,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -13760,7 +12160,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13795,7 +12199,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13830,7 +12238,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13865,7 +12277,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13900,7 +12316,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13935,7 +12355,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13970,7 +12394,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -14005,7 +12433,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -14040,7 +12472,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -14075,7 +12511,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -14110,7 +12550,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -14145,7 +12589,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -14180,7 +12628,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -14215,7 +12667,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -14250,7 +12706,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -14285,7 +12745,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -14320,7 +12784,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -14355,7 +12823,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -14390,7 +12862,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -14425,7 +12901,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -14460,7 +12940,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -14495,7 +12979,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -14530,7 +13018,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -14565,7 +13057,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -14600,7 +13096,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -14635,7 +13135,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -14670,7 +13174,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -14705,7 +13213,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -14740,7 +13252,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14775,7 +13291,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +13330,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14845,7 +13369,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14880,7 +13408,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14915,7 +13447,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14950,7 +13486,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14985,7 +13525,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -15020,7 +13564,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -15055,7 +13603,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -15090,7 +13642,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -15125,7 +13681,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -15160,7 +13720,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -15195,7 +13759,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -15230,7 +13798,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -15265,7 +13837,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -15300,7 +13876,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -15335,7 +13915,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -15370,7 +13954,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -15405,7 +13993,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -15440,7 +14032,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -15475,7 +14071,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -15510,7 +14110,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -15545,7 +14149,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -15580,7 +14188,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -15615,7 +14227,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -15650,7 +14266,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -15685,7 +14305,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -15720,7 +14344,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -15755,7 +14383,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15790,7 +14422,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15825,7 +14461,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15860,7 +14500,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15895,7 +14539,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15930,7 +14578,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +14617,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -16000,7 +14656,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -16035,7 +14695,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -16070,7 +14734,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -16105,7 +14773,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -16140,7 +14812,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -16175,7 +14851,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -16210,7 +14890,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -16245,7 +14929,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -16280,7 +14968,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -16315,7 +15007,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -16350,7 +15046,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -16385,7 +15085,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -16420,7 +15124,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -16455,7 +15163,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -16490,7 +15202,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -16525,7 +15241,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -16560,7 +15280,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -16595,7 +15319,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -16630,7 +15358,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -16665,7 +15397,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -16700,7 +15436,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -16735,7 +15475,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16770,7 +15514,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16805,7 +15553,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16840,7 +15592,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16875,7 +15631,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16910,7 +15670,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16945,7 +15709,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16980,7 +15748,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -17015,7 +15787,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -17050,7 +15826,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -17085,7 +15865,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +15904,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -17155,7 +15943,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -17190,7 +15982,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -17225,7 +16021,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -17260,7 +16060,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -17295,7 +16099,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -17330,7 +16138,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -17365,7 +16177,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -17400,7 +16216,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -17435,7 +16255,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -17470,7 +16294,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -17505,7 +16333,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -17540,7 +16372,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -17575,7 +16411,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -17610,7 +16450,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -17645,7 +16489,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -17680,7 +16528,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -17715,7 +16567,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -17750,7 +16606,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17785,7 +16645,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17820,7 +16684,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17855,7 +16723,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17890,7 +16762,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17925,7 +16801,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17960,7 +16840,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17995,7 +16879,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -18030,7 +16918,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -18065,7 +16957,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -18100,7 +16996,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -18135,7 +17035,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -18170,7 +17074,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -18205,7 +17113,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -18240,7 +17152,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -18275,7 +17191,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -18310,7 +17230,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -18345,7 +17269,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -18380,7 +17308,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -18415,7 +17347,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -18450,7 +17386,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -18485,7 +17425,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -18520,7 +17464,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -18555,7 +17503,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -18590,7 +17542,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -18625,7 +17581,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -18660,7 +17620,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -18695,7 +17659,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -18730,7 +17698,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18765,7 +17737,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18800,7 +17776,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18835,7 +17815,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18870,7 +17854,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18905,7 +17893,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18940,7 +17932,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18975,7 +17971,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -19010,7 +18010,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -19045,7 +18049,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -19080,7 +18088,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -19115,7 +18127,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -19150,7 +18166,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -19185,7 +18205,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -19220,7 +18244,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -19255,7 +18283,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -19290,7 +18322,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -19325,7 +18361,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -19360,7 +18400,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -19395,7 +18439,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +18478,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -19465,7 +18517,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -19500,7 +18556,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -19535,7 +18595,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -19570,7 +18634,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -19605,7 +18673,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -19640,7 +18712,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -19675,7 +18751,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -19710,7 +18790,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -19745,7 +18829,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19780,7 +18868,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19815,7 +18907,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19850,7 +18946,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19885,7 +18985,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19920,7 +19024,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19955,7 +19063,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19990,7 +19102,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -20025,7 +19141,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -20060,7 +19180,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -20095,7 +19219,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -20130,7 +19258,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -20165,7 +19297,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -20200,7 +19336,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -20231,14 +19371,16 @@
         <v>0</v>
       </c>
       <c r="I513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
-      <c r="M513" t="n">
-        <v>1</v>
-      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -20266,7 +19408,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
@@ -20301,7 +19443,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
@@ -20336,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
@@ -20371,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
@@ -25306,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
@@ -25341,7 +24483,7 @@
         <v>0</v>
       </c>
       <c r="I659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
@@ -25376,7 +24518,7 @@
         <v>0</v>
       </c>
       <c r="I660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>

--- a/BackTest/2019-10-17 BackTest LINK.xlsx
+++ b/BackTest/2019-10-17 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>17868.05993654053</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>18063.36673654053</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2728</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2728</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>18023.46673654053</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2739</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2728</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +565,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>2728</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -616,10 +634,14 @@
         <v>18164.64733654053</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2724</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2724</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -649,11 +671,19 @@
         <v>18164.64733654053</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2729</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -685,8 +715,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +754,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +793,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +832,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -817,8 +871,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +910,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +949,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +988,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1027,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1066,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1102,19 @@
         <v>14663.78363654052</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2715</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1143,19 @@
         <v>14583.92243654052</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2714</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1184,19 @@
         <v>13347.26303654052</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2705</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1225,19 @@
         <v>4181.735436540524</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1269,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1305,19 @@
         <v>4195.109236540525</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2683</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1346,19 @@
         <v>4205.185436540525</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2690</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1387,19 @@
         <v>4205.185436540525</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2691</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1428,19 @@
         <v>4360.585436540525</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2691</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1469,19 @@
         <v>4350.585436540525</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2701</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1510,19 @@
         <v>5095.620636540525</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1551,19 @@
         <v>5031.483336540525</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2707</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1592,19 @@
         <v>5394.522636540525</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2694</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1633,19 @@
         <v>5501.522636540525</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2696</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1674,19 @@
         <v>6515.522636540525</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2705</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1715,19 @@
         <v>7086.385536540525</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2706</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1756,19 @@
         <v>7435.042442617873</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2710</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1800,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1836,19 @@
         <v>7234.169542617874</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2698</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1877,19 @@
         <v>7245.604742617874</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2690</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1918,19 @@
         <v>5778.604742617874</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2692</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1959,19 @@
         <v>5890.455342617874</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2680</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,15 +2000,17 @@
         <v>6674.338542617874</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>2681</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>2724</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L41" t="n">
@@ -1777,12 +2041,14 @@
         <v>7093.327042617874</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>2683</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>2724</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1816,12 +2082,14 @@
         <v>7093.327042617874</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>2685</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>2724</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1855,12 +2123,14 @@
         <v>7659.320842617874</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>2685</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>2724</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1894,12 +2164,14 @@
         <v>7613.064942617874</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>2693</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>2724</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1933,12 +2205,14 @@
         <v>7594.029242617874</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>2687</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>2724</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1972,12 +2246,14 @@
         <v>7605.474642617874</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>2686</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>2724</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2011,12 +2287,14 @@
         <v>7605.474642617874</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>2692</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>2724</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2050,12 +2328,14 @@
         <v>6805.334842617874</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>2692</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>2724</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2089,12 +2369,14 @@
         <v>6805.334842617874</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>2691</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>2724</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2128,12 +2410,14 @@
         <v>9142.221942617874</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>2691</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>2724</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2167,12 +2451,14 @@
         <v>9389.670342617874</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>2699</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2724</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2206,12 +2492,14 @@
         <v>9389.670342617874</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>2701</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2724</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2245,10 +2533,14 @@
         <v>10413.68384261787</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2701</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2724</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2282,10 +2574,14 @@
         <v>10436.71104261787</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2715</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2724</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2319,10 +2615,14 @@
         <v>10252.75234261787</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2719</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2724</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2356,10 +2656,14 @@
         <v>10068.61954261787</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2718</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2724</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2396,7 +2700,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2724</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2430,10 +2736,14 @@
         <v>10041.57574261788</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2693</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2724</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2467,10 +2777,14 @@
         <v>10029.13444261787</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2694</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2724</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2504,10 +2818,14 @@
         <v>10029.13444261787</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2693</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2724</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2541,10 +2859,14 @@
         <v>10017.54484261788</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2693</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2724</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2578,12 +2900,14 @@
         <v>9617.544842617875</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>2689</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>2724</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2617,12 +2941,14 @@
         <v>9724.144742617875</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>2684</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2724</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2656,12 +2982,14 @@
         <v>9741.774342617875</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>2699</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2724</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2695,12 +3023,14 @@
         <v>9741.774342617875</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>2706</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2724</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2734,12 +3064,14 @@
         <v>9338.913742617875</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>2706</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2724</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2773,12 +3105,14 @@
         <v>9756.224142617875</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>2691</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>2724</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2812,12 +3146,14 @@
         <v>10484.00654261788</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>2695</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>2724</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2851,12 +3187,14 @@
         <v>11220.38354261788</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>2715</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>2724</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2890,12 +3228,14 @@
         <v>10722.67044261787</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>2716</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>2724</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,12 +3269,14 @@
         <v>10722.67044261787</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>2713</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>2724</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2968,10 +3310,14 @@
         <v>10775.74684261787</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2713</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2724</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3005,10 +3351,14 @@
         <v>13948.12594261787</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2714</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2724</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3042,10 +3392,14 @@
         <v>19478.32634261787</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2715</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2724</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3079,10 +3433,14 @@
         <v>19487.90054261787</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2717</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2724</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3116,10 +3474,14 @@
         <v>19534.90054261787</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2720</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2724</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3153,10 +3515,14 @@
         <v>19598.33234261787</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2722</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2724</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3190,10 +3556,14 @@
         <v>19598.33234261787</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2724</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2724</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3227,10 +3597,14 @@
         <v>19598.33234261787</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2724</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2724</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3267,7 +3641,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2724</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3304,7 +3680,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2724</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3341,7 +3719,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2724</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3378,7 +3758,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2724</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3415,7 +3797,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2724</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3452,7 +3836,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2724</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3489,7 +3875,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2724</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3526,7 +3914,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2724</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3563,7 +3953,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2724</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3600,7 +3992,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2724</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3637,7 +4031,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2724</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3674,7 +4070,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2724</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3711,7 +4109,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2724</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3748,7 +4148,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>2724</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3785,7 +4187,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2724</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3822,7 +4226,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>2724</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3859,7 +4265,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2724</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3896,7 +4304,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2724</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3933,7 +4343,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2724</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3970,7 +4382,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2724</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,7 +4421,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>2724</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4044,7 +4460,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2724</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4081,7 +4499,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2724</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4118,7 +4538,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2724</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4155,7 +4577,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2724</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4192,7 +4616,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2724</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4229,7 +4655,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2724</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4266,7 +4694,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2724</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4303,7 +4733,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>2724</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4340,7 +4772,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2724</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4377,7 +4811,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2724</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4414,7 +4850,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2724</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4451,7 +4889,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2724</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,7 +4928,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2724</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4525,7 +4967,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2724</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4562,7 +5006,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2724</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,7 +5045,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>2724</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,7 +5084,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>2724</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,7 +5123,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>2724</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4710,7 +5162,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2724</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4747,7 +5201,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2724</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,7 +5240,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2724</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4821,7 +5279,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2724</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4858,7 +5318,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2724</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,7 +5357,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2724</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,7 +5396,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2724</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,7 +5435,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2724</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,7 +5474,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2724</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5043,7 +5513,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2724</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5080,7 +5552,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2724</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5117,7 +5591,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2724</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5154,7 +5630,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2724</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,7 +5669,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2724</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,7 +5708,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2724</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5265,7 +5747,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2724</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5302,7 +5786,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2724</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5336,10 +5822,12 @@
         <v>19473.11061057208</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2724</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5376,7 +5864,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2724</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5413,7 +5903,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2724</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5450,7 +5942,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2724</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5484,10 +5978,12 @@
         <v>21405.12401057208</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2724</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5524,7 +6020,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2724</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5561,7 +6059,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2724</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5595,10 +6095,12 @@
         <v>22402.62001057208</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2724</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5632,10 +6134,12 @@
         <v>22120.87951057208</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2724</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5669,10 +6173,12 @@
         <v>21706.33311057208</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2724</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5709,7 +6215,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2724</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5746,7 +6254,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2724</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5783,7 +6293,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2724</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5820,7 +6332,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2724</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5857,7 +6371,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2724</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5894,7 +6410,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2724</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,7 +6449,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2724</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,7 +6488,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2724</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6005,7 +6527,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2724</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6042,7 +6566,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2724</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6076,10 +6602,12 @@
         <v>24675.78051057209</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2724</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6113,10 +6641,12 @@
         <v>25210.92141057209</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2724</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6153,7 +6683,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2724</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6190,7 +6722,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2724</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6227,7 +6761,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2724</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6264,7 +6800,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2724</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,7 +6839,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2724</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6338,7 +6878,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2724</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6375,7 +6917,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2724</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,7 +6956,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2724</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6449,7 +6995,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2724</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6486,7 +7034,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2724</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6523,7 +7073,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2724</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6560,7 +7112,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2724</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6597,7 +7151,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2724</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6634,7 +7190,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2724</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6671,7 +7229,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2724</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6708,7 +7268,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2724</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6745,7 +7307,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2724</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6782,7 +7346,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2724</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6819,7 +7385,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2724</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6856,7 +7424,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2724</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6893,7 +7463,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2724</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6927,741 +7499,877 @@
         <v>20918.17277691588</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2724</v>
+      </c>
       <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2821</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2821</v>
+      </c>
+      <c r="D181" t="n">
+        <v>2821</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2821</v>
+      </c>
+      <c r="F181" t="n">
+        <v>694.8516</v>
+      </c>
+      <c r="G181" t="n">
+        <v>21613.02437691588</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2821</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2837</v>
+      </c>
+      <c r="D182" t="n">
+        <v>2837</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2821</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2170.2491</v>
+      </c>
+      <c r="G182" t="n">
+        <v>23783.27347691588</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2830</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2830</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2830</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2830</v>
+      </c>
+      <c r="F183" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="G183" t="n">
+        <v>23627.87347691588</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2844</v>
+      </c>
+      <c r="D184" t="n">
+        <v>2844</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2837</v>
+      </c>
+      <c r="F184" t="n">
+        <v>8594.79518326301</v>
+      </c>
+      <c r="G184" t="n">
+        <v>32222.66866017889</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2834</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2835</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2835</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2834</v>
+      </c>
+      <c r="F185" t="n">
+        <v>105.2678</v>
+      </c>
+      <c r="G185" t="n">
+        <v>32117.40086017888</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2836</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2842</v>
+      </c>
+      <c r="D186" t="n">
+        <v>2862</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2834</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19342.6542</v>
+      </c>
+      <c r="G186" t="n">
+        <v>51460.05506017889</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2842</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2843</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2855</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F187" t="n">
+        <v>6358.3096</v>
+      </c>
+      <c r="G187" t="n">
+        <v>57818.36466017889</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2843</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2843</v>
+      </c>
+      <c r="D188" t="n">
+        <v>2854</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4121.3224</v>
+      </c>
+      <c r="G188" t="n">
+        <v>57818.36466017889</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2842</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2842</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2842</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2984.5454</v>
+      </c>
+      <c r="G189" t="n">
+        <v>54833.81926017888</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2844</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2842</v>
+      </c>
+      <c r="D190" t="n">
+        <v>2844</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2842</v>
+      </c>
+      <c r="F190" t="n">
+        <v>800.6977000000001</v>
+      </c>
+      <c r="G190" t="n">
+        <v>54833.81926017888</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2842</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2833</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2842</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2548.0606</v>
+      </c>
+      <c r="G191" t="n">
+        <v>52285.75866017889</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2829</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2829</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2829</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2829</v>
+      </c>
+      <c r="F192" t="n">
+        <v>10</v>
+      </c>
+      <c r="G192" t="n">
+        <v>52275.75866017889</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2824</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2824</v>
+      </c>
+      <c r="D193" t="n">
+        <v>2824</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2824</v>
+      </c>
+      <c r="F193" t="n">
+        <v>422.1493</v>
+      </c>
+      <c r="G193" t="n">
+        <v>51853.60936017889</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2834</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2830</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2834</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2830</v>
+      </c>
+      <c r="F194" t="n">
+        <v>300</v>
+      </c>
+      <c r="G194" t="n">
+        <v>52153.60936017889</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2832</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2832</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2832</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2832</v>
+      </c>
+      <c r="F195" t="n">
+        <v>50</v>
+      </c>
+      <c r="G195" t="n">
+        <v>52203.60936017889</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2837</v>
+      </c>
+      <c r="D196" t="n">
+        <v>2837</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2837</v>
+      </c>
+      <c r="F196" t="n">
+        <v>234.5081</v>
+      </c>
+      <c r="G196" t="n">
+        <v>52438.11746017889</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2839</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2843</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2837</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3701.9765</v>
+      </c>
+      <c r="G197" t="n">
+        <v>56140.09396017889</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2839</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2839</v>
+      </c>
+      <c r="D198" t="n">
+        <v>2839</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2839</v>
+      </c>
+      <c r="F198" t="n">
+        <v>183.9587</v>
+      </c>
+      <c r="G198" t="n">
+        <v>56140.09396017889</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2839</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2837</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2839</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2837</v>
+      </c>
+      <c r="F199" t="n">
+        <v>2084.7276</v>
+      </c>
+      <c r="G199" t="n">
+        <v>54055.36636017889</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2834</v>
+      </c>
+      <c r="D200" t="n">
+        <v>2846</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2833</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1976.35800769501</v>
+      </c>
+      <c r="G200" t="n">
+        <v>52079.00835248388</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2835</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2841</v>
+      </c>
+      <c r="D201" t="n">
+        <v>2841</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2835</v>
+      </c>
+      <c r="F201" t="n">
+        <v>73.0176</v>
+      </c>
+      <c r="G201" t="n">
+        <v>52152.02595248388</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2841</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2841</v>
+      </c>
+      <c r="D202" t="n">
+        <v>2841</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2841</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1715.8276</v>
+      </c>
+      <c r="G202" t="n">
+        <v>52152.02595248388</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2724</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>2821</v>
-      </c>
-      <c r="C181" t="n">
-        <v>2821</v>
-      </c>
-      <c r="D181" t="n">
-        <v>2821</v>
-      </c>
-      <c r="E181" t="n">
-        <v>2821</v>
-      </c>
-      <c r="F181" t="n">
-        <v>694.8516</v>
-      </c>
-      <c r="G181" t="n">
-        <v>21613.02437691588</v>
-      </c>
-      <c r="H181" t="n">
-        <v>3</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>2821</v>
-      </c>
-      <c r="C182" t="n">
-        <v>2837</v>
-      </c>
-      <c r="D182" t="n">
-        <v>2837</v>
-      </c>
-      <c r="E182" t="n">
-        <v>2821</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2170.2491</v>
-      </c>
-      <c r="G182" t="n">
-        <v>23783.27347691588</v>
-      </c>
-      <c r="H182" t="n">
-        <v>3</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>2830</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2830</v>
-      </c>
-      <c r="D183" t="n">
-        <v>2830</v>
-      </c>
-      <c r="E183" t="n">
-        <v>2830</v>
-      </c>
-      <c r="F183" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="G183" t="n">
-        <v>23627.87347691588</v>
-      </c>
-      <c r="H183" t="n">
-        <v>3</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>2837</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2844</v>
-      </c>
-      <c r="D184" t="n">
-        <v>2844</v>
-      </c>
-      <c r="E184" t="n">
-        <v>2837</v>
-      </c>
-      <c r="F184" t="n">
-        <v>8594.79518326301</v>
-      </c>
-      <c r="G184" t="n">
-        <v>32222.66866017889</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>2834</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2835</v>
-      </c>
-      <c r="D185" t="n">
-        <v>2835</v>
-      </c>
-      <c r="E185" t="n">
-        <v>2834</v>
-      </c>
-      <c r="F185" t="n">
-        <v>105.2678</v>
-      </c>
-      <c r="G185" t="n">
-        <v>32117.40086017888</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>2836</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2842</v>
-      </c>
-      <c r="D186" t="n">
-        <v>2862</v>
-      </c>
-      <c r="E186" t="n">
-        <v>2834</v>
-      </c>
-      <c r="F186" t="n">
-        <v>19342.6542</v>
-      </c>
-      <c r="G186" t="n">
-        <v>51460.05506017889</v>
-      </c>
-      <c r="H186" t="n">
-        <v>3</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>2842</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2843</v>
-      </c>
-      <c r="D187" t="n">
-        <v>2855</v>
-      </c>
-      <c r="E187" t="n">
-        <v>2842</v>
-      </c>
-      <c r="F187" t="n">
-        <v>6358.3096</v>
-      </c>
-      <c r="G187" t="n">
-        <v>57818.36466017889</v>
-      </c>
-      <c r="H187" t="n">
-        <v>3</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>2843</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2843</v>
-      </c>
-      <c r="D188" t="n">
-        <v>2854</v>
-      </c>
-      <c r="E188" t="n">
-        <v>2842</v>
-      </c>
-      <c r="F188" t="n">
-        <v>4121.3224</v>
-      </c>
-      <c r="G188" t="n">
-        <v>57818.36466017889</v>
-      </c>
-      <c r="H188" t="n">
-        <v>3</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>2842</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2842</v>
-      </c>
-      <c r="D189" t="n">
-        <v>2842</v>
-      </c>
-      <c r="E189" t="n">
-        <v>2842</v>
-      </c>
-      <c r="F189" t="n">
-        <v>2984.5454</v>
-      </c>
-      <c r="G189" t="n">
-        <v>54833.81926017888</v>
-      </c>
-      <c r="H189" t="n">
-        <v>3</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>2844</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2842</v>
-      </c>
-      <c r="D190" t="n">
-        <v>2844</v>
-      </c>
-      <c r="E190" t="n">
-        <v>2842</v>
-      </c>
-      <c r="F190" t="n">
-        <v>800.6977000000001</v>
-      </c>
-      <c r="G190" t="n">
-        <v>54833.81926017888</v>
-      </c>
-      <c r="H190" t="n">
-        <v>3</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>2842</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2833</v>
-      </c>
-      <c r="D191" t="n">
-        <v>2842</v>
-      </c>
-      <c r="E191" t="n">
-        <v>2833</v>
-      </c>
-      <c r="F191" t="n">
-        <v>2548.0606</v>
-      </c>
-      <c r="G191" t="n">
-        <v>52285.75866017889</v>
-      </c>
-      <c r="H191" t="n">
-        <v>3</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>2829</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2829</v>
-      </c>
-      <c r="D192" t="n">
-        <v>2829</v>
-      </c>
-      <c r="E192" t="n">
-        <v>2829</v>
-      </c>
-      <c r="F192" t="n">
-        <v>10</v>
-      </c>
-      <c r="G192" t="n">
-        <v>52275.75866017889</v>
-      </c>
-      <c r="H192" t="n">
-        <v>3</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>2824</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2824</v>
-      </c>
-      <c r="D193" t="n">
-        <v>2824</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2824</v>
-      </c>
-      <c r="F193" t="n">
-        <v>422.1493</v>
-      </c>
-      <c r="G193" t="n">
-        <v>51853.60936017889</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>2834</v>
-      </c>
-      <c r="C194" t="n">
-        <v>2830</v>
-      </c>
-      <c r="D194" t="n">
-        <v>2834</v>
-      </c>
-      <c r="E194" t="n">
-        <v>2830</v>
-      </c>
-      <c r="F194" t="n">
-        <v>300</v>
-      </c>
-      <c r="G194" t="n">
-        <v>52153.60936017889</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>2832</v>
-      </c>
-      <c r="C195" t="n">
-        <v>2832</v>
-      </c>
-      <c r="D195" t="n">
-        <v>2832</v>
-      </c>
-      <c r="E195" t="n">
-        <v>2832</v>
-      </c>
-      <c r="F195" t="n">
-        <v>50</v>
-      </c>
-      <c r="G195" t="n">
-        <v>52203.60936017889</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>2837</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2837</v>
-      </c>
-      <c r="D196" t="n">
-        <v>2837</v>
-      </c>
-      <c r="E196" t="n">
-        <v>2837</v>
-      </c>
-      <c r="F196" t="n">
-        <v>234.5081</v>
-      </c>
-      <c r="G196" t="n">
-        <v>52438.11746017889</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>2837</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2839</v>
-      </c>
-      <c r="D197" t="n">
-        <v>2843</v>
-      </c>
-      <c r="E197" t="n">
-        <v>2837</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3701.9765</v>
-      </c>
-      <c r="G197" t="n">
-        <v>56140.09396017889</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>2839</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2839</v>
-      </c>
-      <c r="D198" t="n">
-        <v>2839</v>
-      </c>
-      <c r="E198" t="n">
-        <v>2839</v>
-      </c>
-      <c r="F198" t="n">
-        <v>183.9587</v>
-      </c>
-      <c r="G198" t="n">
-        <v>56140.09396017889</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>2839</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2837</v>
-      </c>
-      <c r="D199" t="n">
-        <v>2839</v>
-      </c>
-      <c r="E199" t="n">
-        <v>2837</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2084.7276</v>
-      </c>
-      <c r="G199" t="n">
-        <v>54055.36636017889</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>2837</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2834</v>
-      </c>
-      <c r="D200" t="n">
-        <v>2846</v>
-      </c>
-      <c r="E200" t="n">
-        <v>2833</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1976.35800769501</v>
-      </c>
-      <c r="G200" t="n">
-        <v>52079.00835248388</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>2835</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2841</v>
-      </c>
-      <c r="D201" t="n">
-        <v>2841</v>
-      </c>
-      <c r="E201" t="n">
-        <v>2835</v>
-      </c>
-      <c r="F201" t="n">
-        <v>73.0176</v>
-      </c>
-      <c r="G201" t="n">
-        <v>52152.02595248388</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>2841</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2841</v>
-      </c>
-      <c r="D202" t="n">
-        <v>2841</v>
-      </c>
-      <c r="E202" t="n">
-        <v>2841</v>
-      </c>
-      <c r="F202" t="n">
-        <v>1715.8276</v>
-      </c>
-      <c r="G202" t="n">
-        <v>52152.02595248388</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>1.03795154185022</v>
       </c>
       <c r="M202" t="inlineStr"/>
     </row>
@@ -7688,7 +8396,7 @@
         <v>52152.02595248388</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7721,7 +8429,7 @@
         <v>54401.22895248388</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7754,7 +8462,7 @@
         <v>57194.82835248388</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7787,7 +8495,7 @@
         <v>58060.47105248387</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7820,7 +8528,7 @@
         <v>58849.46990297338</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7853,7 +8561,7 @@
         <v>58849.46990297338</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7886,7 +8594,7 @@
         <v>56882.45840297338</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7919,7 +8627,7 @@
         <v>56889.94530297338</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7952,7 +8660,7 @@
         <v>58026.60550297338</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7985,7 +8693,7 @@
         <v>60150.13370297338</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8018,7 +8726,7 @@
         <v>60132.48360297339</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8051,7 +8759,7 @@
         <v>59783.74800297339</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8084,7 +8792,7 @@
         <v>59373.97630297339</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8117,7 +8825,7 @@
         <v>60022.57680297339</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8150,7 +8858,7 @@
         <v>59588.27220297338</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8183,7 +8891,7 @@
         <v>59767.54050297339</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8216,7 +8924,7 @@
         <v>62075.28160297339</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8249,7 +8957,7 @@
         <v>61990.12720297339</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8282,7 +8990,7 @@
         <v>64205.77940297339</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8315,7 +9023,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8348,7 +9056,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8381,7 +9089,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8414,7 +9122,7 @@
         <v>61923.19100297338</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8447,7 +9155,7 @@
         <v>59309.47010297338</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8480,7 +9188,7 @@
         <v>59309.47010297338</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8513,7 +9221,7 @@
         <v>58368.46660297339</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8546,7 +9254,7 @@
         <v>58572.12120297339</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8579,7 +9287,7 @@
         <v>58336.50000297339</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8612,7 +9320,7 @@
         <v>57970.37410297339</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8645,7 +9353,7 @@
         <v>55369.14200297339</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8678,7 +9386,7 @@
         <v>55369.14200297339</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8711,7 +9419,7 @@
         <v>55919.23380297339</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8744,7 +9452,7 @@
         <v>56476.48730297339</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8777,7 +9485,7 @@
         <v>40014.68530297339</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8810,7 +9518,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8843,7 +9551,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8876,7 +9584,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8909,7 +9617,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8942,7 +9650,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8975,7 +9683,7 @@
         <v>39987.89160297339</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9008,7 +9716,7 @@
         <v>39564.40890297339</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9041,7 +9749,7 @@
         <v>39407.37910297339</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9074,7 +9782,7 @@
         <v>39537.37910297339</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9107,7 +9815,7 @@
         <v>38851.61810297339</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9140,7 +9848,7 @@
         <v>38501.61810297339</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9173,7 +9881,7 @@
         <v>42010.9054029734</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9206,7 +9914,7 @@
         <v>41512.4767029734</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9239,7 +9947,7 @@
         <v>41512.4767029734</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9272,7 +9980,7 @@
         <v>41512.4767029734</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9305,7 +10013,7 @@
         <v>41412.4767029734</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9338,7 +10046,7 @@
         <v>41149.3216029734</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9371,7 +10079,7 @@
         <v>44119.58490297339</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9404,7 +10112,7 @@
         <v>44119.58490297339</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9437,7 +10145,7 @@
         <v>43666.32370297339</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9470,7 +10178,7 @@
         <v>43666.32370297339</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9503,7 +10211,7 @@
         <v>42175.15610297339</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9536,7 +10244,7 @@
         <v>42128.97390297339</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9569,7 +10277,7 @@
         <v>42149.03820297339</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9602,7 +10310,7 @@
         <v>41739.61530297339</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9635,7 +10343,7 @@
         <v>41881.80170297339</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9668,7 +10376,7 @@
         <v>41758.77020297339</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9701,7 +10409,7 @@
         <v>42137.43090297339</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9734,7 +10442,7 @@
         <v>42137.43090297339</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9767,7 +10475,7 @@
         <v>42137.43090297339</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9800,7 +10508,7 @@
         <v>42148.43090297339</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9833,7 +10541,7 @@
         <v>42051.4132029734</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9866,7 +10574,7 @@
         <v>41752.1632029734</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9899,7 +10607,7 @@
         <v>42167.4860029734</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9932,7 +10640,7 @@
         <v>42599.8489029734</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9965,7 +10673,7 @@
         <v>42042.76550297339</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9998,7 +10706,7 @@
         <v>41697.29052251363</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10031,7 +10739,7 @@
         <v>39878.44212251362</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10064,7 +10772,7 @@
         <v>39878.44212251362</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10097,7 +10805,7 @@
         <v>39419.04822251362</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10130,7 +10838,7 @@
         <v>39008.86852251362</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10163,7 +10871,7 @@
         <v>39061.64092251362</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10196,7 +10904,7 @@
         <v>40294.65422251362</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10229,7 +10937,7 @@
         <v>43137.52922251362</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10262,7 +10970,7 @@
         <v>43247.02032251362</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10295,7 +11003,7 @@
         <v>43212.45452251362</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10328,7 +11036,7 @@
         <v>43213.45452251362</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10361,7 +11069,7 @@
         <v>43336.81352251362</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10394,7 +11102,7 @@
         <v>42902.45282251362</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10427,7 +11135,7 @@
         <v>44993.92582251362</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10460,7 +11168,7 @@
         <v>45301.19222251362</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10493,7 +11201,7 @@
         <v>44769.93092251362</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10526,7 +11234,7 @@
         <v>41042.60232251362</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10559,7 +11267,7 @@
         <v>40957.80232251362</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10592,7 +11300,7 @@
         <v>41667.04162251362</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10625,7 +11333,7 @@
         <v>41697.08312251362</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10658,7 +11366,7 @@
         <v>41638.28312251362</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10691,7 +11399,7 @@
         <v>41638.28312251362</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10724,7 +11432,7 @@
         <v>41795.63142251362</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10757,7 +11465,7 @@
         <v>40707.91992251362</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10790,7 +11498,7 @@
         <v>32393.69312251362</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10823,7 +11531,7 @@
         <v>32393.69312251362</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10856,7 +11564,7 @@
         <v>32488.47162251362</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10889,7 +11597,7 @@
         <v>27163.56852251362</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10922,7 +11630,7 @@
         <v>27189.55132251362</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10955,7 +11663,7 @@
         <v>26449.66482251362</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10988,7 +11696,7 @@
         <v>26555.32492251362</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11219,7 +11927,7 @@
         <v>25717.93012251362</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11252,7 +11960,7 @@
         <v>25452.59922251362</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11285,7 +11993,7 @@
         <v>25852.59922251362</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11351,7 +12059,7 @@
         <v>27413.59662251362</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11384,7 +12092,7 @@
         <v>26200.42672251362</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11417,7 +12125,7 @@
         <v>25716.50372251362</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11483,7 +12191,7 @@
         <v>26067.21702251362</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -13760,7 +14468,7 @@
         <v>52414.97714012783</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13892,7 +14600,7 @@
         <v>51697.34144012783</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13925,7 +14633,7 @@
         <v>49648.05074012783</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13958,7 +14666,7 @@
         <v>51959.16834012783</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13991,7 +14699,7 @@
         <v>51959.16834012783</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14024,7 +14732,7 @@
         <v>51122.79674012783</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14057,7 +14765,7 @@
         <v>51122.79674012783</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14090,7 +14798,7 @@
         <v>48134.62414012783</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14123,7 +14831,7 @@
         <v>46855.71974012783</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14156,7 +14864,7 @@
         <v>46987.15924012783</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14189,7 +14897,7 @@
         <v>48357.08654012784</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14222,7 +14930,7 @@
         <v>48650.80964012784</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14255,7 +14963,7 @@
         <v>48650.80964012784</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14288,7 +14996,7 @@
         <v>49569.04854012783</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14321,7 +15029,7 @@
         <v>49569.04854012783</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14354,7 +15062,7 @@
         <v>49569.04854012783</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14453,7 +15161,7 @@
         <v>46735.61434012784</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14486,7 +15194,7 @@
         <v>47045.55854012784</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14585,7 +15293,7 @@
         <v>48597.36584012784</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14618,7 +15326,7 @@
         <v>43378.48484012784</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14651,7 +15359,7 @@
         <v>43379.38484012784</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16532,7 +17240,7 @@
         <v>34543.17155571366</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16730,7 +17438,7 @@
         <v>37412.43765571366</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16763,7 +17471,7 @@
         <v>36991.23565571367</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16796,7 +17504,7 @@
         <v>36981.36845571367</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16829,7 +17537,7 @@
         <v>37625.34795571367</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18215,7 +18923,7 @@
         <v>55999.58035571369</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18281,7 +18989,7 @@
         <v>58550.23054566771</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18314,7 +19022,7 @@
         <v>62068.11694566771</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18347,7 +19055,7 @@
         <v>61509.12763933591</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18380,7 +19088,7 @@
         <v>61509.12763933591</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18413,7 +19121,7 @@
         <v>61050.75373933591</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18446,7 +19154,7 @@
         <v>61007.73463933591</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18479,7 +19187,7 @@
         <v>62132.85994153294</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19205,7 +19913,7 @@
         <v>59040.44234153293</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19634,7 +20342,7 @@
         <v>24475.62056996291</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19733,7 +20441,7 @@
         <v>23789.13036996291</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19766,7 +20474,7 @@
         <v>22942.66996996291</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19799,7 +20507,7 @@
         <v>22942.66996996291</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19832,7 +20540,7 @@
         <v>25423.92956996291</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19865,7 +20573,7 @@
         <v>27936.96136996291</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19898,7 +20606,7 @@
         <v>29607.98816996291</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19931,7 +20639,7 @@
         <v>29115.50876996291</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19964,7 +20672,7 @@
         <v>28394.47936996291</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19997,7 +20705,7 @@
         <v>27615.58226996291</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20030,7 +20738,7 @@
         <v>27945.58226996291</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20063,7 +20771,7 @@
         <v>27945.58226996291</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20096,7 +20804,7 @@
         <v>27945.58226996291</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20129,7 +20837,7 @@
         <v>27945.58226996291</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20162,7 +20870,7 @@
         <v>28002.35626996291</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20195,7 +20903,7 @@
         <v>31237.13196996292</v>
       </c>
       <c r="H582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20228,7 +20936,7 @@
         <v>24484.10056996292</v>
       </c>
       <c r="H583" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20261,7 +20969,7 @@
         <v>19598.32026996292</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20294,7 +21002,7 @@
         <v>18823.52086996292</v>
       </c>
       <c r="H585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20327,7 +21035,7 @@
         <v>18930.22456996292</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20360,7 +21068,7 @@
         <v>18930.22456996292</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20393,7 +21101,7 @@
         <v>18421.75066996292</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20426,7 +21134,7 @@
         <v>16734.89736996292</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20459,7 +21167,7 @@
         <v>17477.54836996292</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20558,7 +21266,7 @@
         <v>19132.10686996292</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20591,7 +21299,7 @@
         <v>19132.10686996292</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20624,7 +21332,7 @@
         <v>18725.33426996292</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20657,7 +21365,7 @@
         <v>28563.56346996292</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20690,7 +21398,7 @@
         <v>25136.88966996292</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20723,7 +21431,7 @@
         <v>25136.88966996292</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20756,7 +21464,7 @@
         <v>24977.80386996292</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20789,7 +21497,7 @@
         <v>24482.94116996292</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20822,7 +21530,7 @@
         <v>24482.94116996292</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20855,7 +21563,7 @@
         <v>26087.83566996292</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20888,7 +21596,7 @@
         <v>25406.30896996292</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20921,7 +21629,7 @@
         <v>25406.30896996292</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20954,7 +21662,7 @@
         <v>23441.30896996292</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20987,7 +21695,7 @@
         <v>23474.30896996292</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21020,7 +21728,7 @@
         <v>23474.30896996292</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21053,7 +21761,7 @@
         <v>21474.39226996292</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21086,7 +21794,7 @@
         <v>21474.39226996292</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21119,7 +21827,7 @@
         <v>21503.74056996292</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21152,7 +21860,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21185,7 +21893,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21218,7 +21926,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21251,7 +21959,7 @@
         <v>17812.53906996292</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21284,7 +21992,7 @@
         <v>17248.07526996292</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21317,7 +22025,7 @@
         <v>17512.78846996292</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21350,7 +22058,7 @@
         <v>17214.38196996292</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21383,7 +22091,7 @@
         <v>18690.45216996292</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21416,7 +22124,7 @@
         <v>18692.10506996292</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21449,7 +22157,7 @@
         <v>18913.62496996292</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21482,7 +22190,7 @@
         <v>20658.69926996292</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21515,7 +22223,7 @@
         <v>20658.69926996292</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21548,7 +22256,7 @@
         <v>23968.50526996292</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21581,7 +22289,7 @@
         <v>23968.50526996292</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21614,7 +22322,7 @@
         <v>23779.10526996292</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21647,7 +22355,7 @@
         <v>23746.20526996292</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21680,7 +22388,7 @@
         <v>22083.95611899339</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21713,7 +22421,7 @@
         <v>22083.95611899339</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21746,7 +22454,7 @@
         <v>19902.01681899339</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21779,7 +22487,7 @@
         <v>-25418.73358100661</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21812,7 +22520,7 @@
         <v>-25104.44558100661</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21845,7 +22553,7 @@
         <v>-30456.1659810066</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21878,7 +22586,7 @@
         <v>-27169.9502810066</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21911,7 +22619,7 @@
         <v>-27169.9502810066</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21944,7 +22652,7 @@
         <v>-26811.73838100661</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21977,7 +22685,7 @@
         <v>-26885.13438100661</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22010,7 +22718,7 @@
         <v>-26875.13438100661</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22043,7 +22751,7 @@
         <v>-26885.13438100661</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22076,7 +22784,7 @@
         <v>-27591.65198100661</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22109,7 +22817,7 @@
         <v>-29936.45068100661</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22142,7 +22850,7 @@
         <v>-28053.73188100661</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22175,7 +22883,7 @@
         <v>-28152.0412810066</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22208,7 +22916,7 @@
         <v>-30246.5456810066</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22241,7 +22949,7 @@
         <v>-31783.6830810066</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22274,7 +22982,7 @@
         <v>-31804.6830810066</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22373,7 +23081,7 @@
         <v>-31608.9830810066</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23429,7 +24137,7 @@
         <v>-32574.67102045067</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -25112,7 +25820,7 @@
         <v>-15705.26210945873</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25145,7 +25853,7 @@
         <v>-15705.26210945873</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25178,7 +25886,7 @@
         <v>-59475.79730945873</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25211,7 +25919,7 @@
         <v>-61785.67630945873</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25244,7 +25952,7 @@
         <v>-61785.45970945873</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25475,7 +26183,7 @@
         <v>-58757.91148811042</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25574,7 +26282,7 @@
         <v>-58831.65508811042</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25651,6 +26359,6 @@
       <c r="M747" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest LINK.xlsx
+++ b/BackTest/2019-10-17 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>17868.05993654053</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>18063.36673654053</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2728</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2728</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>18023.46673654053</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2739</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2728</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>2728</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -634,14 +616,10 @@
         <v>18164.64733654053</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2724</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -671,1184 +649,1030 @@
         <v>18164.64733654053</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2727</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2722</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2727</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2722</v>
+      </c>
+      <c r="F9" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18046.74733654052</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>2729</v>
       </c>
-      <c r="J8" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="C10" t="n">
+        <v>2729</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2729</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2729</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18064.74733654052</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2722</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2720</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2722</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2720</v>
+      </c>
+      <c r="F11" t="n">
+        <v>859.9277</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17204.81963654052</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2720</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2712</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2720</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2710</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2534.4462</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14670.37343654052</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2712</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2718</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2718</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2712</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100.6796</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14771.05303654052</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2710</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2710</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2710</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2710</v>
+      </c>
+      <c r="F14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14721.05303654052</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2711</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2719</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2719</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2711</v>
+      </c>
+      <c r="F15" t="n">
+        <v>444.5442</v>
+      </c>
+      <c r="G15" t="n">
+        <v>15165.59723654052</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2719</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2719</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2720</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2719</v>
+      </c>
+      <c r="F16" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15165.59723654052</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2717</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2717</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2717</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2717</v>
+      </c>
+      <c r="F17" t="n">
+        <v>363.7136</v>
+      </c>
+      <c r="G17" t="n">
+        <v>14801.88363654052</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2715</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2715</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2715</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2715</v>
+      </c>
+      <c r="F18" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>14666.18363654052</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2714</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2714</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2714</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2714</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14663.78363654052</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2714</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2705</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2714</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2705</v>
+      </c>
+      <c r="F20" t="n">
+        <v>79.8612</v>
+      </c>
+      <c r="G20" t="n">
+        <v>14583.92243654052</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2703</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2700</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2703</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1236.6594</v>
+      </c>
+      <c r="G21" t="n">
+        <v>13347.26303654052</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2701</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2683</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2701</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2683</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9165.527599999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4181.735436540524</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2684</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2683</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2684</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2683</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4181.735436540524</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2690</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2690</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2690</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2690</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13.3738</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4195.109236540525</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2683</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2683</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2691</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2691</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2691</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2691</v>
+      </c>
+      <c r="F25" t="n">
+        <v>10.0762</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4205.185436540525</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2690</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2683</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2727</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2722</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2727</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2722</v>
-      </c>
-      <c r="F9" t="n">
-        <v>117.9</v>
-      </c>
-      <c r="G9" t="n">
-        <v>18046.74733654052</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2691</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2691</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2691</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2691</v>
+      </c>
+      <c r="F26" t="n">
+        <v>366.7608</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4205.185436540525</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2691</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2683</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2701</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2701</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F27" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4360.585436540525</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2691</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2691</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2700</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2700</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2700</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2700</v>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4350.585436540525</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2701</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2691</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2703</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2707</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2707</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2703</v>
+      </c>
+      <c r="F29" t="n">
+        <v>745.0352</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5095.620636540525</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2691</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2701</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2694</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2701</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2694</v>
+      </c>
+      <c r="F30" t="n">
+        <v>64.1373</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5031.483336540525</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2696</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2696</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2696</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2696</v>
+      </c>
+      <c r="F31" t="n">
+        <v>363.0393</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5394.522636540525</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2694</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2694</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2705</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2705</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2705</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2705</v>
+      </c>
+      <c r="F32" t="n">
+        <v>107</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5501.522636540525</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>2694</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2705</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2706</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2706</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2705</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1014</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6515.522636540525</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>2694</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2710</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2710</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2711</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2710</v>
+      </c>
+      <c r="F34" t="n">
+        <v>570.8629</v>
+      </c>
+      <c r="G34" t="n">
+        <v>7086.385536540525</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2714</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2715</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2715</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2714</v>
+      </c>
+      <c r="F35" t="n">
+        <v>348.6569060773481</v>
+      </c>
+      <c r="G35" t="n">
+        <v>7435.042442617873</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2698</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2698</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2698</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2698</v>
+      </c>
+      <c r="F36" t="n">
+        <v>111.7273</v>
+      </c>
+      <c r="G36" t="n">
+        <v>7323.315142617874</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2694</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2690</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2694</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2690</v>
+      </c>
+      <c r="F37" t="n">
+        <v>89.1456</v>
+      </c>
+      <c r="G37" t="n">
+        <v>7234.169542617874</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2698</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2729</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2729</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2729</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2729</v>
-      </c>
-      <c r="F10" t="n">
-        <v>18</v>
-      </c>
-      <c r="G10" t="n">
-        <v>18064.74733654052</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2722</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2720</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2722</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2720</v>
-      </c>
-      <c r="F11" t="n">
-        <v>859.9277</v>
-      </c>
-      <c r="G11" t="n">
-        <v>17204.81963654052</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2720</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2712</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2720</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2710</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2534.4462</v>
-      </c>
-      <c r="G12" t="n">
-        <v>14670.37343654052</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2712</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2718</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2718</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2712</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100.6796</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14771.05303654052</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2710</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2710</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2710</v>
-      </c>
-      <c r="E14" t="n">
-        <v>2710</v>
-      </c>
-      <c r="F14" t="n">
-        <v>50</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14721.05303654052</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2711</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2719</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2719</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2711</v>
-      </c>
-      <c r="F15" t="n">
-        <v>444.5442</v>
-      </c>
-      <c r="G15" t="n">
-        <v>15165.59723654052</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2719</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2719</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2720</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2719</v>
-      </c>
-      <c r="F16" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15165.59723654052</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2717</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2717</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2717</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2717</v>
-      </c>
-      <c r="F17" t="n">
-        <v>363.7136</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14801.88363654052</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2715</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2715</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2715</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2715</v>
-      </c>
-      <c r="F18" t="n">
-        <v>135.7</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14666.18363654052</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2714</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2714</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2714</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2714</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G19" t="n">
-        <v>14663.78363654052</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2715</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2714</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2705</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2714</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2705</v>
-      </c>
-      <c r="F20" t="n">
-        <v>79.8612</v>
-      </c>
-      <c r="G20" t="n">
-        <v>14583.92243654052</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2714</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2703</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2700</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2703</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2700</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1236.6594</v>
-      </c>
-      <c r="G21" t="n">
-        <v>13347.26303654052</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2705</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2701</v>
-      </c>
-      <c r="C22" t="n">
-        <v>2683</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2701</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2683</v>
-      </c>
-      <c r="F22" t="n">
-        <v>9165.527599999999</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4181.735436540524</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2700</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2684</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2683</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2684</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2683</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4181.735436540524</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2690</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2690</v>
-      </c>
-      <c r="D24" t="n">
-        <v>2690</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2690</v>
-      </c>
-      <c r="F24" t="n">
-        <v>13.3738</v>
-      </c>
-      <c r="G24" t="n">
-        <v>4195.109236540525</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2683</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2691</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2691</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2691</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2691</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10.0762</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4205.185436540525</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2690</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>2691</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2691</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2691</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2691</v>
-      </c>
-      <c r="F26" t="n">
-        <v>366.7608</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4205.185436540525</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2691</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>2700</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2701</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2701</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2700</v>
-      </c>
-      <c r="F27" t="n">
-        <v>155.4</v>
-      </c>
-      <c r="G27" t="n">
-        <v>4360.585436540525</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2691</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>2700</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2700</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2700</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2700</v>
-      </c>
-      <c r="F28" t="n">
-        <v>10</v>
-      </c>
-      <c r="G28" t="n">
-        <v>4350.585436540525</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2701</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2703</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2707</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2707</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2703</v>
-      </c>
-      <c r="F29" t="n">
-        <v>745.0352</v>
-      </c>
-      <c r="G29" t="n">
-        <v>5095.620636540525</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2700</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2701</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2694</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2701</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2694</v>
-      </c>
-      <c r="F30" t="n">
-        <v>64.1373</v>
-      </c>
-      <c r="G30" t="n">
-        <v>5031.483336540525</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2707</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2696</v>
-      </c>
-      <c r="C31" t="n">
-        <v>2696</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2696</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2696</v>
-      </c>
-      <c r="F31" t="n">
-        <v>363.0393</v>
-      </c>
-      <c r="G31" t="n">
-        <v>5394.522636540525</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2694</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2705</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2705</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2705</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2705</v>
-      </c>
-      <c r="F32" t="n">
-        <v>107</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5501.522636540525</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2696</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2705</v>
-      </c>
-      <c r="C33" t="n">
-        <v>2706</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2706</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2705</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1014</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6515.522636540525</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2705</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2710</v>
-      </c>
-      <c r="C34" t="n">
-        <v>2710</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2711</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2710</v>
-      </c>
-      <c r="F34" t="n">
-        <v>570.8629</v>
-      </c>
-      <c r="G34" t="n">
-        <v>7086.385536540525</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2706</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2714</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2715</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2715</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2714</v>
-      </c>
-      <c r="F35" t="n">
-        <v>348.6569060773481</v>
-      </c>
-      <c r="G35" t="n">
-        <v>7435.042442617873</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2710</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2698</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2698</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2698</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2698</v>
-      </c>
-      <c r="F36" t="n">
-        <v>111.7273</v>
-      </c>
-      <c r="G36" t="n">
-        <v>7323.315142617874</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>2694</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2690</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2694</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2690</v>
-      </c>
-      <c r="F37" t="n">
-        <v>89.1456</v>
-      </c>
-      <c r="G37" t="n">
-        <v>7234.169542617874</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2698</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1882,9 +1706,7 @@
       <c r="I38" t="n">
         <v>2690</v>
       </c>
-      <c r="J38" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1923,9 +1745,7 @@
       <c r="I39" t="n">
         <v>2692</v>
       </c>
-      <c r="J39" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1964,9 +1784,7 @@
       <c r="I40" t="n">
         <v>2680</v>
       </c>
-      <c r="J40" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2005,9 +1823,7 @@
       <c r="I41" t="n">
         <v>2681</v>
       </c>
-      <c r="J41" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2046,9 +1862,7 @@
       <c r="I42" t="n">
         <v>2683</v>
       </c>
-      <c r="J42" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2087,9 +1901,7 @@
       <c r="I43" t="n">
         <v>2685</v>
       </c>
-      <c r="J43" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2128,9 +1940,7 @@
       <c r="I44" t="n">
         <v>2685</v>
       </c>
-      <c r="J44" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2169,9 +1979,7 @@
       <c r="I45" t="n">
         <v>2693</v>
       </c>
-      <c r="J45" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2210,9 +2018,7 @@
       <c r="I46" t="n">
         <v>2687</v>
       </c>
-      <c r="J46" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2251,9 +2057,7 @@
       <c r="I47" t="n">
         <v>2686</v>
       </c>
-      <c r="J47" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2292,9 +2096,7 @@
       <c r="I48" t="n">
         <v>2692</v>
       </c>
-      <c r="J48" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2333,9 +2135,7 @@
       <c r="I49" t="n">
         <v>2692</v>
       </c>
-      <c r="J49" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2374,9 +2174,7 @@
       <c r="I50" t="n">
         <v>2691</v>
       </c>
-      <c r="J50" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2415,9 +2213,7 @@
       <c r="I51" t="n">
         <v>2691</v>
       </c>
-      <c r="J51" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2456,9 +2252,7 @@
       <c r="I52" t="n">
         <v>2699</v>
       </c>
-      <c r="J52" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2497,9 +2291,7 @@
       <c r="I53" t="n">
         <v>2701</v>
       </c>
-      <c r="J53" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2538,9 +2330,7 @@
       <c r="I54" t="n">
         <v>2701</v>
       </c>
-      <c r="J54" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2579,9 +2369,7 @@
       <c r="I55" t="n">
         <v>2715</v>
       </c>
-      <c r="J55" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2620,9 +2408,7 @@
       <c r="I56" t="n">
         <v>2719</v>
       </c>
-      <c r="J56" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2661,9 +2447,7 @@
       <c r="I57" t="n">
         <v>2718</v>
       </c>
-      <c r="J57" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2700,9 +2484,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2741,9 +2523,7 @@
       <c r="I59" t="n">
         <v>2693</v>
       </c>
-      <c r="J59" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2782,9 +2562,7 @@
       <c r="I60" t="n">
         <v>2694</v>
       </c>
-      <c r="J60" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2823,9 +2601,7 @@
       <c r="I61" t="n">
         <v>2693</v>
       </c>
-      <c r="J61" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,9 +2640,7 @@
       <c r="I62" t="n">
         <v>2693</v>
       </c>
-      <c r="J62" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2905,9 +2679,7 @@
       <c r="I63" t="n">
         <v>2689</v>
       </c>
-      <c r="J63" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2946,9 +2718,7 @@
       <c r="I64" t="n">
         <v>2684</v>
       </c>
-      <c r="J64" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2987,9 +2757,7 @@
       <c r="I65" t="n">
         <v>2699</v>
       </c>
-      <c r="J65" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,9 +2796,7 @@
       <c r="I66" t="n">
         <v>2706</v>
       </c>
-      <c r="J66" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3069,9 +2835,7 @@
       <c r="I67" t="n">
         <v>2706</v>
       </c>
-      <c r="J67" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3110,9 +2874,7 @@
       <c r="I68" t="n">
         <v>2691</v>
       </c>
-      <c r="J68" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3151,9 +2913,7 @@
       <c r="I69" t="n">
         <v>2695</v>
       </c>
-      <c r="J69" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,9 +2952,7 @@
       <c r="I70" t="n">
         <v>2715</v>
       </c>
-      <c r="J70" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3228,14 +2986,10 @@
         <v>10722.67044261787</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2716</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3274,9 +3028,7 @@
       <c r="I72" t="n">
         <v>2713</v>
       </c>
-      <c r="J72" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3310,14 +3062,10 @@
         <v>10775.74684261787</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2713</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3351,14 +3099,10 @@
         <v>13948.12594261787</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2714</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3392,14 +3136,10 @@
         <v>19478.32634261787</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2715</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3433,14 +3173,10 @@
         <v>19487.90054261787</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2717</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3474,14 +3210,10 @@
         <v>19534.90054261787</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2720</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3515,14 +3247,10 @@
         <v>19598.33234261787</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2722</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,14 +3284,10 @@
         <v>19598.33234261787</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2724</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3597,14 +3321,10 @@
         <v>19598.33234261787</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2724</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2724</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3641,9 +3361,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,9 +3398,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3719,9 +3435,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3758,9 +3472,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3797,9 +3509,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3836,9 +3546,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3875,9 +3583,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,9 +3620,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,20 +3654,16 @@
         <v>21069.41674261787</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>2724</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3989,17 +3689,11 @@
         <v>21304.00744261787</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -4028,17 +3722,11 @@
         <v>21452.91224261787</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4067,17 +3755,11 @@
         <v>25556.50144261787</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4106,17 +3788,11 @@
         <v>25556.50144261787</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4145,17 +3821,11 @@
         <v>25514.37834261787</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4184,17 +3854,11 @@
         <v>25414.37834261787</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4223,17 +3887,11 @@
         <v>25729.37834261787</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4262,17 +3920,11 @@
         <v>25729.37834261787</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4301,17 +3953,11 @@
         <v>25650.82874261788</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4340,17 +3986,11 @@
         <v>25650.82874261788</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4379,17 +4019,11 @@
         <v>25402.56804261788</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4418,17 +4052,11 @@
         <v>25402.56804261788</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4457,17 +4085,11 @@
         <v>25074.00964261788</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4499,14 +4121,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4538,14 +4154,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4577,14 +4187,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4613,17 +4217,11 @@
         <v>24668.63924261788</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4652,17 +4250,11 @@
         <v>24763.86594261787</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4691,17 +4283,11 @@
         <v>24752.94924261787</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4730,17 +4316,11 @@
         <v>24802.07504261787</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4769,17 +4349,11 @@
         <v>24161.70944261787</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4808,17 +4382,11 @@
         <v>28476.89321057209</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4847,17 +4415,11 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4886,17 +4448,11 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4925,17 +4481,11 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4964,17 +4514,11 @@
         <v>30801.90311057209</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5003,17 +4547,11 @@
         <v>30773.07061057209</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5042,17 +4580,11 @@
         <v>30799.69331057209</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5081,17 +4613,11 @@
         <v>30788.14631057209</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5120,17 +4646,11 @@
         <v>30632.74631057209</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5159,17 +4679,11 @@
         <v>30015.48941057209</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5198,17 +4712,11 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5237,17 +4745,11 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5276,17 +4778,11 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5315,17 +4811,11 @@
         <v>26317.39881057209</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5354,17 +4844,11 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5396,14 +4880,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5432,17 +4910,11 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5471,17 +4943,11 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5510,17 +4976,11 @@
         <v>22753.93061057209</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5552,14 +5012,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5591,14 +5045,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5630,14 +5078,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5669,14 +5111,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5708,14 +5144,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5747,14 +5177,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5786,14 +5210,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5825,14 +5243,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5864,14 +5276,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5903,14 +5309,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5942,14 +5342,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5981,14 +5375,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6020,14 +5408,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6059,14 +5441,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6098,14 +5474,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6137,14 +5507,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6176,14 +5540,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6215,14 +5573,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6254,14 +5606,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6293,14 +5639,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6332,14 +5672,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6371,14 +5705,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6410,14 +5738,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6449,14 +5771,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6488,14 +5804,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6527,14 +5837,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6566,14 +5870,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6605,14 +5903,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6644,14 +5936,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6683,14 +5969,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6722,14 +6002,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6761,14 +6035,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6800,14 +6068,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6839,14 +6101,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6878,14 +6134,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6917,14 +6167,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6956,14 +6200,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6995,14 +6233,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7034,14 +6266,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7073,14 +6299,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7112,14 +6332,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7151,14 +6365,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7190,14 +6398,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7229,14 +6431,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7268,14 +6464,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7307,14 +6497,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7346,14 +6530,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7385,14 +6563,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7424,14 +6596,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7460,17 +6626,11 @@
         <v>23668.18057691588</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7499,17 +6659,11 @@
         <v>20918.17277691588</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7538,17 +6692,11 @@
         <v>21613.02437691588</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7577,17 +6725,11 @@
         <v>23783.27347691588</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7616,17 +6758,11 @@
         <v>23627.87347691588</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7655,17 +6791,11 @@
         <v>32222.66866017889</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7694,17 +6824,11 @@
         <v>32117.40086017888</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7733,17 +6857,11 @@
         <v>51460.05506017889</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7772,17 +6890,11 @@
         <v>57818.36466017889</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7811,17 +6923,11 @@
         <v>57818.36466017889</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7850,17 +6956,11 @@
         <v>54833.81926017888</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7889,17 +6989,11 @@
         <v>54833.81926017888</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7928,17 +7022,11 @@
         <v>52285.75866017889</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7967,17 +7055,11 @@
         <v>52275.75866017889</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8006,17 +7088,11 @@
         <v>51853.60936017889</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8045,17 +7121,11 @@
         <v>52153.60936017889</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8084,17 +7154,11 @@
         <v>52203.60936017889</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8123,17 +7187,11 @@
         <v>52438.11746017889</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8162,17 +7220,11 @@
         <v>56140.09396017889</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8201,17 +7253,11 @@
         <v>56140.09396017889</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8240,17 +7286,11 @@
         <v>54055.36636017889</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8279,17 +7319,11 @@
         <v>52079.00835248388</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8318,17 +7352,11 @@
         <v>52152.02595248388</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8357,19 +7385,13 @@
         <v>52152.02595248388</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2724</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
-        <v>1.03795154185022</v>
+        <v>1</v>
       </c>
       <c r="M202" t="inlineStr"/>
     </row>
@@ -8396,7 +7418,7 @@
         <v>52152.02595248388</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8429,7 +7451,7 @@
         <v>54401.22895248388</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8462,7 +7484,7 @@
         <v>57194.82835248388</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8495,7 +7517,7 @@
         <v>58060.47105248387</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8528,7 +7550,7 @@
         <v>58849.46990297338</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8561,7 +7583,7 @@
         <v>58849.46990297338</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8594,7 +7616,7 @@
         <v>56882.45840297338</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8759,7 +7781,7 @@
         <v>59783.74800297339</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8792,7 +7814,7 @@
         <v>59373.97630297339</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8825,7 +7847,7 @@
         <v>60022.57680297339</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8858,7 +7880,7 @@
         <v>59588.27220297338</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8891,7 +7913,7 @@
         <v>59767.54050297339</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8924,7 +7946,7 @@
         <v>62075.28160297339</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8957,7 +7979,7 @@
         <v>61990.12720297339</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8990,7 +8012,7 @@
         <v>64205.77940297339</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -9023,7 +8045,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9056,7 +8078,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9089,7 +8111,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9122,7 +8144,7 @@
         <v>61923.19100297338</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9155,7 +8177,7 @@
         <v>59309.47010297338</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9188,7 +8210,7 @@
         <v>59309.47010297338</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9221,7 +8243,7 @@
         <v>58368.46660297339</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9254,7 +8276,7 @@
         <v>58572.12120297339</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9287,7 +8309,7 @@
         <v>58336.50000297339</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9320,7 +8342,7 @@
         <v>57970.37410297339</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -9353,7 +8375,7 @@
         <v>55369.14200297339</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9386,7 +8408,7 @@
         <v>55369.14200297339</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9419,7 +8441,7 @@
         <v>55919.23380297339</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9452,7 +8474,7 @@
         <v>56476.48730297339</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9485,7 +8507,7 @@
         <v>40014.68530297339</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9518,7 +8540,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9551,7 +8573,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9584,7 +8606,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9617,7 +8639,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9650,7 +8672,7 @@
         <v>40050.68530297339</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9683,7 +8705,7 @@
         <v>39987.89160297339</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9716,7 +8738,7 @@
         <v>39564.40890297339</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9749,7 +8771,7 @@
         <v>39407.37910297339</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9782,7 +8804,7 @@
         <v>39537.37910297339</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9815,7 +8837,7 @@
         <v>38851.61810297339</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9848,7 +8870,7 @@
         <v>38501.61810297339</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9881,7 +8903,7 @@
         <v>42010.9054029734</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9914,7 +8936,7 @@
         <v>41512.4767029734</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9947,7 +8969,7 @@
         <v>41512.4767029734</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9980,7 +9002,7 @@
         <v>41512.4767029734</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10013,7 +9035,7 @@
         <v>41412.4767029734</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10046,7 +9068,7 @@
         <v>41149.3216029734</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10079,7 +9101,7 @@
         <v>44119.58490297339</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10112,7 +9134,7 @@
         <v>44119.58490297339</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10145,7 +9167,7 @@
         <v>43666.32370297339</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10178,7 +9200,7 @@
         <v>43666.32370297339</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10211,7 +9233,7 @@
         <v>42175.15610297339</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10244,7 +9266,7 @@
         <v>42128.97390297339</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10277,7 +9299,7 @@
         <v>42149.03820297339</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10310,7 +9332,7 @@
         <v>41739.61530297339</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10343,7 +9365,7 @@
         <v>41881.80170297339</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10376,7 +9398,7 @@
         <v>41758.77020297339</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10409,7 +9431,7 @@
         <v>42137.43090297339</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10442,7 +9464,7 @@
         <v>42137.43090297339</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10475,7 +9497,7 @@
         <v>42137.43090297339</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10508,7 +9530,7 @@
         <v>42148.43090297339</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10541,7 +9563,7 @@
         <v>42051.4132029734</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -13346,7 +12368,7 @@
         <v>37564.46862251362</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13379,7 +12401,7 @@
         <v>37471.16862251362</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13511,7 +12533,7 @@
         <v>39424.9960559426</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13544,7 +12566,7 @@
         <v>41152.5960559426</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13577,7 +12599,7 @@
         <v>41152.5960559426</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13610,7 +12632,7 @@
         <v>44135.2487559426</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13643,7 +12665,7 @@
         <v>45638.1799559426</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13676,7 +12698,7 @@
         <v>52256.94419175557</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13709,7 +12731,7 @@
         <v>53046.98824012782</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13742,7 +12764,7 @@
         <v>53036.09604012782</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13775,7 +12797,7 @@
         <v>52880.50584012782</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13808,7 +12830,7 @@
         <v>52573.83804012782</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13841,7 +12863,7 @@
         <v>52573.83804012782</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13874,7 +12896,7 @@
         <v>51914.17904012782</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13907,7 +12929,7 @@
         <v>51935.79154012782</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13940,7 +12962,7 @@
         <v>51958.78774012782</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13973,7 +12995,7 @@
         <v>55233.35254012782</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14006,7 +13028,7 @@
         <v>55102.04364012783</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14039,7 +13061,7 @@
         <v>55102.04364012783</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14072,7 +13094,7 @@
         <v>54907.13194012783</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14105,7 +13127,7 @@
         <v>54432.13144012783</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14138,7 +13160,7 @@
         <v>53643.94404012783</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14171,7 +13193,7 @@
         <v>53643.94404012783</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -16514,7 +15536,7 @@
         <v>47257.10265571366</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16547,7 +15569,7 @@
         <v>47226.30985571365</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16580,7 +15602,7 @@
         <v>47226.30985571365</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16613,7 +15635,7 @@
         <v>46005.07995571366</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -18791,7 +17813,7 @@
         <v>54269.65725571369</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18824,7 +17846,7 @@
         <v>55067.07475571369</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18857,7 +17879,7 @@
         <v>55980.42245571369</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18890,7 +17912,7 @@
         <v>56117.74095571369</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18923,7 +17945,7 @@
         <v>55999.58035571369</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18956,7 +17978,7 @@
         <v>55999.58035571369</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18989,7 +18011,7 @@
         <v>58550.23054566771</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19022,7 +18044,7 @@
         <v>62068.11694566771</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19055,7 +18077,7 @@
         <v>61509.12763933591</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19088,7 +18110,7 @@
         <v>61509.12763933591</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19121,7 +18143,7 @@
         <v>61050.75373933591</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19154,7 +18176,7 @@
         <v>61007.73463933591</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19187,7 +18209,7 @@
         <v>62132.85994153294</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19220,7 +18242,7 @@
         <v>62086.28294153294</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19253,7 +18275,7 @@
         <v>61398.37274153294</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19286,7 +18308,7 @@
         <v>61398.37274153294</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19319,7 +18341,7 @@
         <v>60956.21844153294</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19352,7 +18374,7 @@
         <v>60833.68354153294</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19385,7 +18407,7 @@
         <v>60865.69174153294</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19418,7 +18440,7 @@
         <v>60923.82464153293</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19451,7 +18473,7 @@
         <v>60923.82464153293</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19484,7 +18506,7 @@
         <v>61041.53934153293</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19517,7 +18539,7 @@
         <v>58497.26574153293</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19550,7 +18572,7 @@
         <v>58502.93034153293</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19583,7 +18605,7 @@
         <v>57769.88054153293</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19616,7 +18638,7 @@
         <v>57769.88054153293</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19913,7 +18935,7 @@
         <v>59040.44234153293</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20078,7 +19100,7 @@
         <v>22224.40346996291</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20309,7 +19331,7 @@
         <v>24290.52566996291</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20441,7 +19463,7 @@
         <v>23789.13036996291</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20474,7 +19496,7 @@
         <v>22942.66996996291</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20507,7 +19529,7 @@
         <v>22942.66996996291</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20540,7 +19562,7 @@
         <v>25423.92956996291</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20606,7 +19628,7 @@
         <v>29607.98816996291</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20639,7 +19661,7 @@
         <v>29115.50876996291</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20672,7 +19694,7 @@
         <v>28394.47936996291</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20705,7 +19727,7 @@
         <v>27615.58226996291</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20738,7 +19760,7 @@
         <v>27945.58226996291</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20936,7 +19958,7 @@
         <v>24484.10056996292</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21035,7 +20057,7 @@
         <v>18930.22456996292</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21101,7 +20123,7 @@
         <v>18421.75066996292</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21134,7 +20156,7 @@
         <v>16734.89736996292</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21266,7 +20288,7 @@
         <v>19132.10686996292</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21299,7 +20321,7 @@
         <v>19132.10686996292</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21332,7 +20354,7 @@
         <v>18725.33426996292</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21365,7 +20387,7 @@
         <v>28563.56346996292</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21398,7 +20420,7 @@
         <v>25136.88966996292</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21431,7 +20453,7 @@
         <v>25136.88966996292</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21464,7 +20486,7 @@
         <v>24977.80386996292</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21497,7 +20519,7 @@
         <v>24482.94116996292</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21530,7 +20552,7 @@
         <v>24482.94116996292</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21563,7 +20585,7 @@
         <v>26087.83566996292</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21596,7 +20618,7 @@
         <v>25406.30896996292</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21629,7 +20651,7 @@
         <v>25406.30896996292</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21662,7 +20684,7 @@
         <v>23441.30896996292</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21695,7 +20717,7 @@
         <v>23474.30896996292</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21728,7 +20750,7 @@
         <v>23474.30896996292</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21761,7 +20783,7 @@
         <v>21474.39226996292</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21794,7 +20816,7 @@
         <v>21474.39226996292</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21827,7 +20849,7 @@
         <v>21503.74056996292</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21860,7 +20882,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21893,7 +20915,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21926,7 +20948,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21959,7 +20981,7 @@
         <v>17812.53906996292</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21992,7 +21014,7 @@
         <v>17248.07526996292</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22025,7 +21047,7 @@
         <v>17512.78846996292</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22058,7 +21080,7 @@
         <v>17214.38196996292</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22091,7 +21113,7 @@
         <v>18690.45216996292</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22124,7 +21146,7 @@
         <v>18692.10506996292</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22157,7 +21179,7 @@
         <v>18913.62496996292</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22190,7 +21212,7 @@
         <v>20658.69926996292</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22223,7 +21245,7 @@
         <v>20658.69926996292</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22256,7 +21278,7 @@
         <v>23968.50526996292</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22289,7 +21311,7 @@
         <v>23968.50526996292</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22322,7 +21344,7 @@
         <v>23779.10526996292</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22355,7 +21377,7 @@
         <v>23746.20526996292</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22388,7 +21410,7 @@
         <v>22083.95611899339</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22421,7 +21443,7 @@
         <v>22083.95611899339</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22454,7 +21476,7 @@
         <v>19902.01681899339</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22487,7 +21509,7 @@
         <v>-25418.73358100661</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22520,7 +21542,7 @@
         <v>-25104.44558100661</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22553,7 +21575,7 @@
         <v>-30456.1659810066</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22586,7 +21608,7 @@
         <v>-27169.9502810066</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22619,7 +21641,7 @@
         <v>-27169.9502810066</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22652,7 +21674,7 @@
         <v>-26811.73838100661</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22685,7 +21707,7 @@
         <v>-26885.13438100661</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22718,7 +21740,7 @@
         <v>-26875.13438100661</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22751,7 +21773,7 @@
         <v>-26885.13438100661</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22784,7 +21806,7 @@
         <v>-27591.65198100661</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22817,7 +21839,7 @@
         <v>-29936.45068100661</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22850,7 +21872,7 @@
         <v>-28053.73188100661</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22883,7 +21905,7 @@
         <v>-28152.0412810066</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22916,7 +21938,7 @@
         <v>-30246.5456810066</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22949,7 +21971,7 @@
         <v>-31783.6830810066</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22982,7 +22004,7 @@
         <v>-31804.6830810066</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24269,10 +23291,14 @@
         <v>-28851.25482045067</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>2844</v>
+      </c>
+      <c r="J684" t="n">
+        <v>2844</v>
+      </c>
       <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
@@ -24302,11 +23328,19 @@
         <v>-27798.30962390979</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>2850</v>
+      </c>
+      <c r="J685" t="n">
+        <v>2844</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24338,8 +23372,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>2844</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25820,7 +24860,7 @@
         <v>-15705.26210945873</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -25853,7 +24893,7 @@
         <v>-15705.26210945873</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25886,7 +24926,7 @@
         <v>-59475.79730945873</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -25919,7 +24959,7 @@
         <v>-61785.67630945873</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -25952,7 +24992,7 @@
         <v>-61785.45970945873</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -26183,7 +25223,7 @@
         <v>-58757.91148811042</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -26282,7 +25322,7 @@
         <v>-58831.65508811042</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -26359,6 +25399,6 @@
       <c r="M747" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest LINK.xlsx
+++ b/BackTest/2019-10-17 BackTest LINK.xlsx
@@ -1177,14 +1177,10 @@
         <v>4195.109236540525</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2683</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1214,19 +1210,11 @@
         <v>4205.185436540525</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2690</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2683</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1255,19 +1243,11 @@
         <v>4205.185436540525</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2691</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2683</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1296,14 +1276,10 @@
         <v>4360.585436540525</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2691</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2691</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1333,19 +1309,11 @@
         <v>4350.585436540525</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2701</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2691</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1374,19 +1342,11 @@
         <v>5095.620636540525</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2700</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2691</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1448,14 +1408,10 @@
         <v>5394.522636540525</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2694</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2694</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
@@ -1488,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2694</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1527,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>2694</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1662,17 +1606,11 @@
         <v>7234.169542617874</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1701,17 +1639,11 @@
         <v>7245.604742617874</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1740,17 +1672,11 @@
         <v>5778.604742617874</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1779,17 +1705,11 @@
         <v>5890.455342617874</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2680</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1818,17 +1738,11 @@
         <v>6674.338542617874</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2681</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1857,17 +1771,11 @@
         <v>7093.327042617874</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1896,17 +1804,11 @@
         <v>7093.327042617874</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1935,17 +1837,11 @@
         <v>7659.320842617874</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1974,17 +1870,11 @@
         <v>7613.064942617874</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2013,17 +1903,11 @@
         <v>7594.029242617874</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2052,17 +1936,11 @@
         <v>7605.474642617874</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2091,17 +1969,11 @@
         <v>7605.474642617874</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2130,17 +2002,11 @@
         <v>6805.334842617874</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2169,17 +2035,11 @@
         <v>6805.334842617874</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2691</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2208,17 +2068,11 @@
         <v>9142.221942617874</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2691</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2247,17 +2101,11 @@
         <v>9389.670342617874</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2286,17 +2134,11 @@
         <v>9389.670342617874</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2325,17 +2167,11 @@
         <v>10413.68384261787</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>2701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2364,17 +2200,11 @@
         <v>10436.71104261787</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2715</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2403,17 +2233,11 @@
         <v>10252.75234261787</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2719</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2442,17 +2266,11 @@
         <v>10068.61954261787</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>2718</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2485,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2518,17 +2332,11 @@
         <v>10041.57574261788</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2557,17 +2365,11 @@
         <v>10029.13444261787</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2694</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2596,17 +2398,11 @@
         <v>10029.13444261787</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2635,17 +2431,11 @@
         <v>10017.54484261788</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2674,17 +2464,11 @@
         <v>9617.544842617875</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2713,17 +2497,11 @@
         <v>9724.144742617875</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2684</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2752,17 +2530,11 @@
         <v>9741.774342617875</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2791,17 +2563,11 @@
         <v>9741.774342617875</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2706</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2838,7 +2604,7 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L67" t="n">
@@ -3173,9 +2939,11 @@
         <v>19487.90054261787</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2717</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3210,9 +2978,11 @@
         <v>19534.90054261787</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2720</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3654,16 +3424,18 @@
         <v>21069.41674261787</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
       <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
@@ -3689,11 +3461,15 @@
         <v>21304.00744261787</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3722,11 +3498,15 @@
         <v>21452.91224261787</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3755,11 +3535,15 @@
         <v>25556.50144261787</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3788,11 +3572,15 @@
         <v>25556.50144261787</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3821,11 +3609,15 @@
         <v>25514.37834261787</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3854,11 +3646,15 @@
         <v>25414.37834261787</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3887,11 +3683,15 @@
         <v>25729.37834261787</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3920,11 +3720,15 @@
         <v>25729.37834261787</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3953,11 +3757,15 @@
         <v>25650.82874261788</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3986,11 +3794,15 @@
         <v>25650.82874261788</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +3831,15 @@
         <v>25402.56804261788</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4052,11 +3868,15 @@
         <v>25402.56804261788</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4085,11 +3905,15 @@
         <v>25074.00964261788</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4122,7 +3946,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4155,7 +3983,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4188,7 +4020,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4217,11 +4053,15 @@
         <v>24668.63924261788</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4250,11 +4090,15 @@
         <v>24763.86594261787</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4283,11 +4127,15 @@
         <v>24752.94924261787</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4316,11 +4164,15 @@
         <v>24802.07504261787</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4349,11 +4201,15 @@
         <v>24161.70944261787</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4382,11 +4238,15 @@
         <v>28476.89321057209</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4415,11 +4275,15 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4448,11 +4312,15 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4481,11 +4349,15 @@
         <v>29098.29721057209</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4514,11 +4386,15 @@
         <v>30801.90311057209</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4547,11 +4423,15 @@
         <v>30773.07061057209</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4580,11 +4460,15 @@
         <v>30799.69331057209</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4613,11 +4497,15 @@
         <v>30788.14631057209</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4646,11 +4534,15 @@
         <v>30632.74631057209</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4679,11 +4571,15 @@
         <v>30015.48941057209</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4712,11 +4608,15 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4745,11 +4645,15 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4778,11 +4682,15 @@
         <v>28295.71181057209</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4811,11 +4719,15 @@
         <v>26317.39881057209</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4844,11 +4756,15 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4881,7 +4797,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4910,11 +4830,15 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4943,11 +4867,15 @@
         <v>26446.72941057209</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4976,11 +4904,15 @@
         <v>22753.93061057209</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5013,7 +4945,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5046,7 +4982,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5079,7 +5019,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5112,7 +5056,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5145,7 +5093,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5178,7 +5130,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5211,7 +5167,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5244,7 +5204,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5277,7 +5241,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5310,7 +5278,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5343,7 +5315,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5376,7 +5352,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5409,7 +5389,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5442,7 +5426,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5475,7 +5463,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5508,7 +5500,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5541,7 +5537,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5574,7 +5574,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5607,7 +5611,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5640,7 +5648,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +5685,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5706,7 +5722,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5739,7 +5759,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5772,7 +5796,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5805,7 +5833,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5838,7 +5870,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5871,7 +5907,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5904,7 +5944,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5937,7 +5981,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5970,7 +6018,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6003,7 +6055,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6036,7 +6092,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6069,7 +6129,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6102,7 +6166,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6135,7 +6203,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6168,7 +6240,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6201,7 +6277,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6234,7 +6314,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6267,7 +6351,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6300,7 +6388,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6333,7 +6425,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6366,7 +6462,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6399,7 +6499,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6432,7 +6536,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6465,7 +6573,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6498,7 +6610,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6531,7 +6647,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6564,7 +6684,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6597,7 +6721,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6626,11 +6754,15 @@
         <v>23668.18057691588</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6659,11 +6791,15 @@
         <v>20918.17277691588</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6692,11 +6828,15 @@
         <v>21613.02437691588</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6725,11 +6865,15 @@
         <v>23783.27347691588</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6758,11 +6902,15 @@
         <v>23627.87347691588</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6791,11 +6939,15 @@
         <v>32222.66866017889</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6824,11 +6976,15 @@
         <v>32117.40086017888</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6857,11 +7013,15 @@
         <v>51460.05506017889</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6890,11 +7050,15 @@
         <v>57818.36466017889</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6923,11 +7087,15 @@
         <v>57818.36466017889</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6956,11 +7124,15 @@
         <v>54833.81926017888</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6989,11 +7161,15 @@
         <v>54833.81926017888</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7022,11 +7198,15 @@
         <v>52285.75866017889</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7055,11 +7235,15 @@
         <v>52275.75866017889</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7088,11 +7272,15 @@
         <v>51853.60936017889</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7121,11 +7309,15 @@
         <v>52153.60936017889</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7154,11 +7346,15 @@
         <v>52203.60936017889</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7187,11 +7383,15 @@
         <v>52438.11746017889</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7220,11 +7420,15 @@
         <v>56140.09396017889</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7253,11 +7457,15 @@
         <v>56140.09396017889</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7290,10 +7498,12 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
@@ -7319,7 +7529,7 @@
         <v>52079.00835248388</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7352,7 +7562,7 @@
         <v>52152.02595248388</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7517,7 +7727,7 @@
         <v>58060.47105248387</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7550,7 +7760,7 @@
         <v>58849.46990297338</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7583,7 +7793,7 @@
         <v>58849.46990297338</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7616,7 +7826,7 @@
         <v>56882.45840297338</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7781,7 +7991,7 @@
         <v>59783.74800297339</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7814,7 +8024,7 @@
         <v>59373.97630297339</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7847,7 +8057,7 @@
         <v>60022.57680297339</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7880,7 +8090,7 @@
         <v>59588.27220297338</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7913,7 +8123,7 @@
         <v>59767.54050297339</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7946,7 +8156,7 @@
         <v>62075.28160297339</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7979,7 +8189,7 @@
         <v>61990.12720297339</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8012,7 +8222,7 @@
         <v>64205.77940297339</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8045,7 +8255,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8078,7 +8288,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8111,7 +8321,7 @@
         <v>63410.77690297338</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8144,7 +8354,7 @@
         <v>61923.19100297338</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8177,7 +8387,7 @@
         <v>59309.47010297338</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8210,7 +8420,7 @@
         <v>59309.47010297338</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -12368,7 +12578,7 @@
         <v>37564.46862251362</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12401,7 +12611,7 @@
         <v>37471.16862251362</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12533,7 +12743,7 @@
         <v>39424.9960559426</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12566,7 +12776,7 @@
         <v>41152.5960559426</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12599,7 +12809,7 @@
         <v>41152.5960559426</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12632,7 +12842,7 @@
         <v>44135.2487559426</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12665,7 +12875,7 @@
         <v>45638.1799559426</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12698,7 +12908,7 @@
         <v>52256.94419175557</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12731,7 +12941,7 @@
         <v>53046.98824012782</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12764,7 +12974,7 @@
         <v>53036.09604012782</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12797,7 +13007,7 @@
         <v>52880.50584012782</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12830,7 +13040,7 @@
         <v>52573.83804012782</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12863,7 +13073,7 @@
         <v>52573.83804012782</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12896,7 +13106,7 @@
         <v>51914.17904012782</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12929,7 +13139,7 @@
         <v>51935.79154012782</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12962,7 +13172,7 @@
         <v>51958.78774012782</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12995,7 +13205,7 @@
         <v>55233.35254012782</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13028,7 +13238,7 @@
         <v>55102.04364012783</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13061,7 +13271,7 @@
         <v>55102.04364012783</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13094,7 +13304,7 @@
         <v>54907.13194012783</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13127,7 +13337,7 @@
         <v>54432.13144012783</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13160,7 +13370,7 @@
         <v>53643.94404012783</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13193,7 +13403,7 @@
         <v>53643.94404012783</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -15536,7 +15746,7 @@
         <v>47257.10265571366</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15569,7 +15779,7 @@
         <v>47226.30985571365</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15602,7 +15812,7 @@
         <v>47226.30985571365</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15635,7 +15845,7 @@
         <v>46005.07995571366</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17813,7 +18023,7 @@
         <v>54269.65725571369</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17846,7 +18056,7 @@
         <v>55067.07475571369</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17879,7 +18089,7 @@
         <v>55980.42245571369</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17912,7 +18122,7 @@
         <v>56117.74095571369</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17945,7 +18155,7 @@
         <v>55999.58035571369</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17978,7 +18188,7 @@
         <v>55999.58035571369</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18011,7 +18221,7 @@
         <v>58550.23054566771</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18044,7 +18254,7 @@
         <v>62068.11694566771</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18077,7 +18287,7 @@
         <v>61509.12763933591</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18110,7 +18320,7 @@
         <v>61509.12763933591</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18143,7 +18353,7 @@
         <v>61050.75373933591</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18176,7 +18386,7 @@
         <v>61007.73463933591</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18209,7 +18419,7 @@
         <v>62132.85994153294</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18242,7 +18452,7 @@
         <v>62086.28294153294</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18275,7 +18485,7 @@
         <v>61398.37274153294</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18308,7 +18518,7 @@
         <v>61398.37274153294</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18341,7 +18551,7 @@
         <v>60956.21844153294</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18374,7 +18584,7 @@
         <v>60833.68354153294</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18407,7 +18617,7 @@
         <v>60865.69174153294</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18440,7 +18650,7 @@
         <v>60923.82464153293</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18473,7 +18683,7 @@
         <v>60923.82464153293</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18506,7 +18716,7 @@
         <v>61041.53934153293</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18539,7 +18749,7 @@
         <v>58497.26574153293</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18572,7 +18782,7 @@
         <v>58502.93034153293</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18605,7 +18815,7 @@
         <v>57769.88054153293</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18638,7 +18848,7 @@
         <v>57769.88054153293</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19100,7 +19310,7 @@
         <v>22224.40346996291</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19331,7 +19541,7 @@
         <v>24290.52566996291</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19793,7 +20003,7 @@
         <v>27945.58226996291</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19826,7 +20036,7 @@
         <v>27945.58226996291</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19859,7 +20069,7 @@
         <v>27945.58226996291</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19892,7 +20102,7 @@
         <v>28002.35626996291</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19925,7 +20135,7 @@
         <v>31237.13196996292</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19991,7 +20201,7 @@
         <v>19598.32026996292</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20024,7 +20234,7 @@
         <v>18823.52086996292</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20057,7 +20267,7 @@
         <v>18930.22456996292</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20090,7 +20300,7 @@
         <v>18930.22456996292</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20189,7 +20399,7 @@
         <v>17477.54836996292</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20222,7 +20432,7 @@
         <v>19009.37636996292</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20321,7 +20531,7 @@
         <v>19132.10686996292</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20354,7 +20564,7 @@
         <v>18725.33426996292</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20387,7 +20597,7 @@
         <v>28563.56346996292</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20420,7 +20630,7 @@
         <v>25136.88966996292</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20453,7 +20663,7 @@
         <v>25136.88966996292</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20486,7 +20696,7 @@
         <v>24977.80386996292</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20519,7 +20729,7 @@
         <v>24482.94116996292</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20552,7 +20762,7 @@
         <v>24482.94116996292</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20585,7 +20795,7 @@
         <v>26087.83566996292</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20618,7 +20828,7 @@
         <v>25406.30896996292</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20651,7 +20861,7 @@
         <v>25406.30896996292</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20684,7 +20894,7 @@
         <v>23441.30896996292</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20717,7 +20927,7 @@
         <v>23474.30896996292</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20750,7 +20960,7 @@
         <v>23474.30896996292</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20783,7 +20993,7 @@
         <v>21474.39226996292</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20816,7 +21026,7 @@
         <v>21474.39226996292</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20849,7 +21059,7 @@
         <v>21503.74056996292</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20882,7 +21092,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20915,7 +21125,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20948,7 +21158,7 @@
         <v>20224.33816996292</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20981,7 +21191,7 @@
         <v>17812.53906996292</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21014,7 +21224,7 @@
         <v>17248.07526996292</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21047,7 +21257,7 @@
         <v>17512.78846996292</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21080,7 +21290,7 @@
         <v>17214.38196996292</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21113,7 +21323,7 @@
         <v>18690.45216996292</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21146,7 +21356,7 @@
         <v>18692.10506996292</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21179,7 +21389,7 @@
         <v>18913.62496996292</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21212,7 +21422,7 @@
         <v>20658.69926996292</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21245,7 +21455,7 @@
         <v>20658.69926996292</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21278,7 +21488,7 @@
         <v>23968.50526996292</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21311,7 +21521,7 @@
         <v>23968.50526996292</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21344,7 +21554,7 @@
         <v>23779.10526996292</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21377,7 +21587,7 @@
         <v>23746.20526996292</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21410,7 +21620,7 @@
         <v>22083.95611899339</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21443,7 +21653,7 @@
         <v>22083.95611899339</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21476,7 +21686,7 @@
         <v>19902.01681899339</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21509,7 +21719,7 @@
         <v>-25418.73358100661</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21542,7 +21752,7 @@
         <v>-25104.44558100661</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21575,7 +21785,7 @@
         <v>-30456.1659810066</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22895,11 +23105,17 @@
         <v>-31444.88352045067</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>2845</v>
+      </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22932,7 +23148,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22965,7 +23185,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22994,11 +23218,17 @@
         <v>-31594.88352045067</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>2844</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23027,11 +23257,17 @@
         <v>-31594.88352045067</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>2840</v>
+      </c>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23060,11 +23296,17 @@
         <v>-31794.67002045067</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>2840</v>
+      </c>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23093,11 +23335,17 @@
         <v>-32767.53452045067</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>2839</v>
+      </c>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23126,11 +23374,17 @@
         <v>-32574.67102045067</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>2837</v>
+      </c>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23159,11 +23413,17 @@
         <v>-32574.67102045067</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>2838</v>
+      </c>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23192,11 +23452,17 @@
         <v>-32574.67102045067</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>2838</v>
+      </c>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23225,11 +23491,17 @@
         <v>-31045.39342045067</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>2838</v>
+      </c>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23258,11 +23530,17 @@
         <v>-30978.44472045067</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>2840</v>
+      </c>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23296,10 +23574,12 @@
       <c r="I684" t="n">
         <v>2844</v>
       </c>
-      <c r="J684" t="n">
-        <v>2844</v>
-      </c>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23333,1010 +23613,1178 @@
       <c r="I685" t="n">
         <v>2850</v>
       </c>
-      <c r="J685" t="n">
-        <v>2844</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L685" t="n">
+        <v>1</v>
+      </c>
+      <c r="M685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>2853</v>
+      </c>
+      <c r="C686" t="n">
+        <v>2853</v>
+      </c>
+      <c r="D686" t="n">
+        <v>2853</v>
+      </c>
+      <c r="E686" t="n">
+        <v>2853</v>
+      </c>
+      <c r="F686" t="n">
+        <v>439.6309</v>
+      </c>
+      <c r="G686" t="n">
+        <v>-28237.94052390979</v>
+      </c>
+      <c r="H686" t="n">
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>2862</v>
+      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L686" t="n">
+        <v>1</v>
+      </c>
+      <c r="M686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>2864</v>
+      </c>
+      <c r="C687" t="n">
+        <v>2868</v>
+      </c>
+      <c r="D687" t="n">
+        <v>2868</v>
+      </c>
+      <c r="E687" t="n">
+        <v>2864</v>
+      </c>
+      <c r="F687" t="n">
+        <v>541.692</v>
+      </c>
+      <c r="G687" t="n">
+        <v>-27696.24852390979</v>
+      </c>
+      <c r="H687" t="n">
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>2853</v>
+      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>2869</v>
+      </c>
+      <c r="C688" t="n">
+        <v>2870</v>
+      </c>
+      <c r="D688" t="n">
+        <v>2870</v>
+      </c>
+      <c r="E688" t="n">
+        <v>2869</v>
+      </c>
+      <c r="F688" t="n">
+        <v>4226.3667</v>
+      </c>
+      <c r="G688" t="n">
+        <v>-23469.88182390979</v>
+      </c>
+      <c r="H688" t="n">
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>2868</v>
+      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>2877</v>
+      </c>
+      <c r="C689" t="n">
+        <v>2869</v>
+      </c>
+      <c r="D689" t="n">
+        <v>2877</v>
+      </c>
+      <c r="E689" t="n">
+        <v>2869</v>
+      </c>
+      <c r="F689" t="n">
+        <v>852.889</v>
+      </c>
+      <c r="G689" t="n">
+        <v>-24322.77082390979</v>
+      </c>
+      <c r="H689" t="n">
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>2870</v>
+      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L689" t="n">
+        <v>1</v>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>2879</v>
+      </c>
+      <c r="C690" t="n">
+        <v>2879</v>
+      </c>
+      <c r="D690" t="n">
+        <v>2879</v>
+      </c>
+      <c r="E690" t="n">
+        <v>2879</v>
+      </c>
+      <c r="F690" t="n">
+        <v>17.36714136853074</v>
+      </c>
+      <c r="G690" t="n">
+        <v>-24305.40368254126</v>
+      </c>
+      <c r="H690" t="n">
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>2869</v>
+      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>2878</v>
+      </c>
+      <c r="C691" t="n">
+        <v>2878</v>
+      </c>
+      <c r="D691" t="n">
+        <v>2878</v>
+      </c>
+      <c r="E691" t="n">
+        <v>2878</v>
+      </c>
+      <c r="F691" t="n">
+        <v>128.1223</v>
+      </c>
+      <c r="G691" t="n">
+        <v>-24433.52598254126</v>
+      </c>
+      <c r="H691" t="n">
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>2879</v>
+      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L691" t="n">
+        <v>1</v>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>2879</v>
+      </c>
+      <c r="C692" t="n">
+        <v>2877</v>
+      </c>
+      <c r="D692" t="n">
+        <v>2879</v>
+      </c>
+      <c r="E692" t="n">
+        <v>2877</v>
+      </c>
+      <c r="F692" t="n">
+        <v>49.0935</v>
+      </c>
+      <c r="G692" t="n">
+        <v>-24482.61948254126</v>
+      </c>
+      <c r="H692" t="n">
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>2878</v>
+      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L692" t="n">
+        <v>1</v>
+      </c>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>2881</v>
+      </c>
+      <c r="C693" t="n">
+        <v>2881</v>
+      </c>
+      <c r="D693" t="n">
+        <v>2881</v>
+      </c>
+      <c r="E693" t="n">
+        <v>2881</v>
+      </c>
+      <c r="F693" t="n">
+        <v>65.3762</v>
+      </c>
+      <c r="G693" t="n">
+        <v>-24417.24328254126</v>
+      </c>
+      <c r="H693" t="n">
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>2877</v>
+      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L693" t="n">
+        <v>1</v>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>2881</v>
+      </c>
+      <c r="C694" t="n">
+        <v>2881</v>
+      </c>
+      <c r="D694" t="n">
+        <v>2881</v>
+      </c>
+      <c r="E694" t="n">
+        <v>2881</v>
+      </c>
+      <c r="F694" t="n">
+        <v>2</v>
+      </c>
+      <c r="G694" t="n">
+        <v>-24417.24328254126</v>
+      </c>
+      <c r="H694" t="n">
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>2881</v>
+      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L694" t="n">
+        <v>1</v>
+      </c>
+      <c r="M694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C695" t="n">
+        <v>2870</v>
+      </c>
+      <c r="D695" t="n">
+        <v>2875</v>
+      </c>
+      <c r="E695" t="n">
+        <v>2870</v>
+      </c>
+      <c r="F695" t="n">
+        <v>921.2331</v>
+      </c>
+      <c r="G695" t="n">
+        <v>-25338.47638254126</v>
+      </c>
+      <c r="H695" t="n">
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>2881</v>
+      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L695" t="n">
+        <v>1</v>
+      </c>
+      <c r="M695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>2870</v>
+      </c>
+      <c r="C696" t="n">
+        <v>2866</v>
+      </c>
+      <c r="D696" t="n">
+        <v>2876</v>
+      </c>
+      <c r="E696" t="n">
+        <v>2866</v>
+      </c>
+      <c r="F696" t="n">
+        <v>5209.022879415856</v>
+      </c>
+      <c r="G696" t="n">
+        <v>-30547.49926195711</v>
+      </c>
+      <c r="H696" t="n">
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>2870</v>
+      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L696" t="n">
+        <v>1</v>
+      </c>
+      <c r="M696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>2861</v>
+      </c>
+      <c r="C697" t="n">
+        <v>2861</v>
+      </c>
+      <c r="D697" t="n">
+        <v>2861</v>
+      </c>
+      <c r="E697" t="n">
+        <v>2861</v>
+      </c>
+      <c r="F697" t="n">
+        <v>178.3942</v>
+      </c>
+      <c r="G697" t="n">
+        <v>-30725.89346195711</v>
+      </c>
+      <c r="H697" t="n">
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>2866</v>
+      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L697" t="n">
+        <v>1</v>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>2871</v>
+      </c>
+      <c r="C698" t="n">
+        <v>2871</v>
+      </c>
+      <c r="D698" t="n">
+        <v>2871</v>
+      </c>
+      <c r="E698" t="n">
+        <v>2871</v>
+      </c>
+      <c r="F698" t="n">
+        <v>407.9468</v>
+      </c>
+      <c r="G698" t="n">
+        <v>-30317.94666195711</v>
+      </c>
+      <c r="H698" t="n">
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>2861</v>
+      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L698" t="n">
+        <v>1</v>
+      </c>
+      <c r="M698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>2865</v>
+      </c>
+      <c r="C699" t="n">
+        <v>2864</v>
+      </c>
+      <c r="D699" t="n">
+        <v>2865</v>
+      </c>
+      <c r="E699" t="n">
+        <v>2864</v>
+      </c>
+      <c r="F699" t="n">
+        <v>119.6939</v>
+      </c>
+      <c r="G699" t="n">
+        <v>-30437.64056195711</v>
+      </c>
+      <c r="H699" t="n">
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>2871</v>
+      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L699" t="n">
+        <v>1</v>
+      </c>
+      <c r="M699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>2872</v>
+      </c>
+      <c r="C700" t="n">
+        <v>2871</v>
+      </c>
+      <c r="D700" t="n">
+        <v>2872</v>
+      </c>
+      <c r="E700" t="n">
+        <v>2871</v>
+      </c>
+      <c r="F700" t="n">
+        <v>29.9895524983773</v>
+      </c>
+      <c r="G700" t="n">
+        <v>-30407.65100945873</v>
+      </c>
+      <c r="H700" t="n">
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>2864</v>
+      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L700" t="n">
+        <v>1</v>
+      </c>
+      <c r="M700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>2870</v>
+      </c>
+      <c r="C701" t="n">
+        <v>2870</v>
+      </c>
+      <c r="D701" t="n">
+        <v>2870</v>
+      </c>
+      <c r="E701" t="n">
+        <v>2870</v>
+      </c>
+      <c r="F701" t="n">
+        <v>921.1495</v>
+      </c>
+      <c r="G701" t="n">
+        <v>-31328.80050945873</v>
+      </c>
+      <c r="H701" t="n">
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>2871</v>
+      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L701" t="n">
+        <v>1</v>
+      </c>
+      <c r="M701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>2873</v>
+      </c>
+      <c r="C702" t="n">
+        <v>2875</v>
+      </c>
+      <c r="D702" t="n">
+        <v>2875</v>
+      </c>
+      <c r="E702" t="n">
+        <v>2873</v>
+      </c>
+      <c r="F702" t="n">
+        <v>43.0718</v>
+      </c>
+      <c r="G702" t="n">
+        <v>-31285.72870945873</v>
+      </c>
+      <c r="H702" t="n">
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>2870</v>
+      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L702" t="n">
+        <v>1</v>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>2875</v>
+      </c>
+      <c r="C703" t="n">
+        <v>2881</v>
+      </c>
+      <c r="D703" t="n">
+        <v>2881</v>
+      </c>
+      <c r="E703" t="n">
+        <v>2875</v>
+      </c>
+      <c r="F703" t="n">
+        <v>132.6239</v>
+      </c>
+      <c r="G703" t="n">
+        <v>-31153.10480945873</v>
+      </c>
+      <c r="H703" t="n">
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>2875</v>
+      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L703" t="n">
+        <v>1</v>
+      </c>
+      <c r="M703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>2887</v>
+      </c>
+      <c r="C704" t="n">
+        <v>2886</v>
+      </c>
+      <c r="D704" t="n">
+        <v>2887</v>
+      </c>
+      <c r="E704" t="n">
+        <v>2886</v>
+      </c>
+      <c r="F704" t="n">
+        <v>411.5712</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-30741.53360945873</v>
+      </c>
+      <c r="H704" t="n">
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>2881</v>
+      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L704" t="n">
+        <v>1</v>
+      </c>
+      <c r="M704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>2881</v>
+      </c>
+      <c r="C705" t="n">
+        <v>2880</v>
+      </c>
+      <c r="D705" t="n">
+        <v>2881</v>
+      </c>
+      <c r="E705" t="n">
+        <v>2880</v>
+      </c>
+      <c r="F705" t="n">
+        <v>99.8057</v>
+      </c>
+      <c r="G705" t="n">
+        <v>-30841.33930945873</v>
+      </c>
+      <c r="H705" t="n">
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>2886</v>
+      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L705" t="n">
+        <v>1</v>
+      </c>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>2880</v>
+      </c>
+      <c r="C706" t="n">
+        <v>2885</v>
+      </c>
+      <c r="D706" t="n">
+        <v>2885</v>
+      </c>
+      <c r="E706" t="n">
+        <v>2880</v>
+      </c>
+      <c r="F706" t="n">
+        <v>343</v>
+      </c>
+      <c r="G706" t="n">
+        <v>-30498.33930945873</v>
+      </c>
+      <c r="H706" t="n">
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>2880</v>
+      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L706" t="n">
+        <v>1</v>
+      </c>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>2883</v>
+      </c>
+      <c r="C707" t="n">
+        <v>2883</v>
+      </c>
+      <c r="D707" t="n">
+        <v>2883</v>
+      </c>
+      <c r="E707" t="n">
+        <v>2883</v>
+      </c>
+      <c r="F707" t="n">
+        <v>36.8101</v>
+      </c>
+      <c r="G707" t="n">
+        <v>-30535.14940945873</v>
+      </c>
+      <c r="H707" t="n">
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>2885</v>
+      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L707" t="n">
+        <v>1</v>
+      </c>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>2886</v>
+      </c>
+      <c r="C708" t="n">
+        <v>2898</v>
+      </c>
+      <c r="D708" t="n">
+        <v>2898</v>
+      </c>
+      <c r="E708" t="n">
+        <v>2886</v>
+      </c>
+      <c r="F708" t="n">
+        <v>1662.3753</v>
+      </c>
+      <c r="G708" t="n">
+        <v>-28872.77410945873</v>
+      </c>
+      <c r="H708" t="n">
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>2883</v>
+      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L708" t="n">
+        <v>1</v>
+      </c>
+      <c r="M708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>2898</v>
+      </c>
+      <c r="C709" t="n">
+        <v>2902</v>
+      </c>
+      <c r="D709" t="n">
+        <v>2902</v>
+      </c>
+      <c r="E709" t="n">
+        <v>2898</v>
+      </c>
+      <c r="F709" t="n">
+        <v>1324.9007</v>
+      </c>
+      <c r="G709" t="n">
+        <v>-27547.87340945873</v>
+      </c>
+      <c r="H709" t="n">
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>2898</v>
+      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L709" t="n">
+        <v>1</v>
+      </c>
+      <c r="M709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="n">
+        <v>2902</v>
+      </c>
+      <c r="C710" t="n">
+        <v>2902</v>
+      </c>
+      <c r="D710" t="n">
+        <v>2902</v>
+      </c>
+      <c r="E710" t="n">
+        <v>2902</v>
+      </c>
+      <c r="F710" t="n">
+        <v>10.0001</v>
+      </c>
+      <c r="G710" t="n">
+        <v>-27547.87340945873</v>
+      </c>
+      <c r="H710" t="n">
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>2902</v>
+      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L710" t="n">
+        <v>1</v>
+      </c>
+      <c r="M710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="n">
+        <v>2907</v>
+      </c>
+      <c r="C711" t="n">
+        <v>2908</v>
+      </c>
+      <c r="D711" t="n">
+        <v>2908</v>
+      </c>
+      <c r="E711" t="n">
+        <v>2907</v>
+      </c>
+      <c r="F711" t="n">
+        <v>375.9037</v>
+      </c>
+      <c r="G711" t="n">
+        <v>-27171.96970945874</v>
+      </c>
+      <c r="H711" t="n">
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>2902</v>
+      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L711" t="n">
+        <v>1</v>
+      </c>
+      <c r="M711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>2908</v>
+      </c>
+      <c r="C712" t="n">
+        <v>2908</v>
+      </c>
+      <c r="D712" t="n">
+        <v>2909</v>
+      </c>
+      <c r="E712" t="n">
+        <v>2908</v>
+      </c>
+      <c r="F712" t="n">
+        <v>1161.5548</v>
+      </c>
+      <c r="G712" t="n">
+        <v>-27171.96970945874</v>
+      </c>
+      <c r="H712" t="n">
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>2908</v>
+      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L712" t="n">
+        <v>1</v>
+      </c>
+      <c r="M712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>2909</v>
+      </c>
+      <c r="C713" t="n">
+        <v>2917</v>
+      </c>
+      <c r="D713" t="n">
+        <v>2918</v>
+      </c>
+      <c r="E713" t="n">
+        <v>2909</v>
+      </c>
+      <c r="F713" t="n">
+        <v>97.68389999999999</v>
+      </c>
+      <c r="G713" t="n">
+        <v>-27074.28580945874</v>
+      </c>
+      <c r="H713" t="n">
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>2908</v>
+      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L713" t="n">
+        <v>1</v>
+      </c>
+      <c r="M713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
+        <v>2918</v>
+      </c>
+      <c r="C714" t="n">
+        <v>2922</v>
+      </c>
+      <c r="D714" t="n">
+        <v>2922</v>
+      </c>
+      <c r="E714" t="n">
+        <v>2918</v>
+      </c>
+      <c r="F714" t="n">
+        <v>571.08</v>
+      </c>
+      <c r="G714" t="n">
+        <v>-26503.20580945873</v>
+      </c>
+      <c r="H714" t="n">
+        <v>2</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L714" t="inlineStr"/>
+      <c r="M714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>2923</v>
+      </c>
+      <c r="C715" t="n">
+        <v>2945</v>
+      </c>
+      <c r="D715" t="n">
+        <v>2945</v>
+      </c>
+      <c r="E715" t="n">
+        <v>2922</v>
+      </c>
+      <c r="F715" t="n">
+        <v>4456.7669</v>
+      </c>
+      <c r="G715" t="n">
+        <v>-22046.43890945873</v>
+      </c>
+      <c r="H715" t="n">
+        <v>2</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>2908</v>
+      </c>
+      <c r="K715" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L685" t="n">
-        <v>1</v>
-      </c>
-      <c r="M685" t="inlineStr"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="n">
-        <v>2853</v>
-      </c>
-      <c r="C686" t="n">
-        <v>2853</v>
-      </c>
-      <c r="D686" t="n">
-        <v>2853</v>
-      </c>
-      <c r="E686" t="n">
-        <v>2853</v>
-      </c>
-      <c r="F686" t="n">
-        <v>439.6309</v>
-      </c>
-      <c r="G686" t="n">
-        <v>-28237.94052390979</v>
-      </c>
-      <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>2844</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L686" t="n">
-        <v>1</v>
-      </c>
-      <c r="M686" t="inlineStr"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="n">
-        <v>2864</v>
-      </c>
-      <c r="C687" t="n">
-        <v>2868</v>
-      </c>
-      <c r="D687" t="n">
-        <v>2868</v>
-      </c>
-      <c r="E687" t="n">
-        <v>2864</v>
-      </c>
-      <c r="F687" t="n">
-        <v>541.692</v>
-      </c>
-      <c r="G687" t="n">
-        <v>-27696.24852390979</v>
-      </c>
-      <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
-      <c r="L687" t="n">
-        <v>1</v>
-      </c>
-      <c r="M687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="n">
-        <v>2869</v>
-      </c>
-      <c r="C688" t="n">
-        <v>2870</v>
-      </c>
-      <c r="D688" t="n">
-        <v>2870</v>
-      </c>
-      <c r="E688" t="n">
-        <v>2869</v>
-      </c>
-      <c r="F688" t="n">
-        <v>4226.3667</v>
-      </c>
-      <c r="G688" t="n">
-        <v>-23469.88182390979</v>
-      </c>
-      <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
-      <c r="M688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="n">
-        <v>2877</v>
-      </c>
-      <c r="C689" t="n">
-        <v>2869</v>
-      </c>
-      <c r="D689" t="n">
-        <v>2877</v>
-      </c>
-      <c r="E689" t="n">
-        <v>2869</v>
-      </c>
-      <c r="F689" t="n">
-        <v>852.889</v>
-      </c>
-      <c r="G689" t="n">
-        <v>-24322.77082390979</v>
-      </c>
-      <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
-      <c r="L689" t="n">
-        <v>1</v>
-      </c>
-      <c r="M689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="n">
-        <v>2879</v>
-      </c>
-      <c r="C690" t="n">
-        <v>2879</v>
-      </c>
-      <c r="D690" t="n">
-        <v>2879</v>
-      </c>
-      <c r="E690" t="n">
-        <v>2879</v>
-      </c>
-      <c r="F690" t="n">
-        <v>17.36714136853074</v>
-      </c>
-      <c r="G690" t="n">
-        <v>-24305.40368254126</v>
-      </c>
-      <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>2878</v>
-      </c>
-      <c r="C691" t="n">
-        <v>2878</v>
-      </c>
-      <c r="D691" t="n">
-        <v>2878</v>
-      </c>
-      <c r="E691" t="n">
-        <v>2878</v>
-      </c>
-      <c r="F691" t="n">
-        <v>128.1223</v>
-      </c>
-      <c r="G691" t="n">
-        <v>-24433.52598254126</v>
-      </c>
-      <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
-      <c r="M691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="n">
-        <v>2879</v>
-      </c>
-      <c r="C692" t="n">
-        <v>2877</v>
-      </c>
-      <c r="D692" t="n">
-        <v>2879</v>
-      </c>
-      <c r="E692" t="n">
-        <v>2877</v>
-      </c>
-      <c r="F692" t="n">
-        <v>49.0935</v>
-      </c>
-      <c r="G692" t="n">
-        <v>-24482.61948254126</v>
-      </c>
-      <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
-      <c r="L692" t="n">
-        <v>1</v>
-      </c>
-      <c r="M692" t="inlineStr"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="n">
-        <v>2881</v>
-      </c>
-      <c r="C693" t="n">
-        <v>2881</v>
-      </c>
-      <c r="D693" t="n">
-        <v>2881</v>
-      </c>
-      <c r="E693" t="n">
-        <v>2881</v>
-      </c>
-      <c r="F693" t="n">
-        <v>65.3762</v>
-      </c>
-      <c r="G693" t="n">
-        <v>-24417.24328254126</v>
-      </c>
-      <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
-      <c r="L693" t="n">
-        <v>1</v>
-      </c>
-      <c r="M693" t="inlineStr"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="n">
-        <v>2881</v>
-      </c>
-      <c r="C694" t="n">
-        <v>2881</v>
-      </c>
-      <c r="D694" t="n">
-        <v>2881</v>
-      </c>
-      <c r="E694" t="n">
-        <v>2881</v>
-      </c>
-      <c r="F694" t="n">
-        <v>2</v>
-      </c>
-      <c r="G694" t="n">
-        <v>-24417.24328254126</v>
-      </c>
-      <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
-      <c r="L694" t="n">
-        <v>1</v>
-      </c>
-      <c r="M694" t="inlineStr"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="n">
-        <v>2875</v>
-      </c>
-      <c r="C695" t="n">
-        <v>2870</v>
-      </c>
-      <c r="D695" t="n">
-        <v>2875</v>
-      </c>
-      <c r="E695" t="n">
-        <v>2870</v>
-      </c>
-      <c r="F695" t="n">
-        <v>921.2331</v>
-      </c>
-      <c r="G695" t="n">
-        <v>-25338.47638254126</v>
-      </c>
-      <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
-      <c r="L695" t="n">
-        <v>1</v>
-      </c>
-      <c r="M695" t="inlineStr"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="n">
-        <v>2870</v>
-      </c>
-      <c r="C696" t="n">
-        <v>2866</v>
-      </c>
-      <c r="D696" t="n">
-        <v>2876</v>
-      </c>
-      <c r="E696" t="n">
-        <v>2866</v>
-      </c>
-      <c r="F696" t="n">
-        <v>5209.022879415856</v>
-      </c>
-      <c r="G696" t="n">
-        <v>-30547.49926195711</v>
-      </c>
-      <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
-      <c r="L696" t="n">
-        <v>1</v>
-      </c>
-      <c r="M696" t="inlineStr"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>695</v>
-      </c>
-      <c r="B697" t="n">
-        <v>2861</v>
-      </c>
-      <c r="C697" t="n">
-        <v>2861</v>
-      </c>
-      <c r="D697" t="n">
-        <v>2861</v>
-      </c>
-      <c r="E697" t="n">
-        <v>2861</v>
-      </c>
-      <c r="F697" t="n">
-        <v>178.3942</v>
-      </c>
-      <c r="G697" t="n">
-        <v>-30725.89346195711</v>
-      </c>
-      <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
-      <c r="L697" t="n">
-        <v>1</v>
-      </c>
-      <c r="M697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="n">
-        <v>2871</v>
-      </c>
-      <c r="C698" t="n">
-        <v>2871</v>
-      </c>
-      <c r="D698" t="n">
-        <v>2871</v>
-      </c>
-      <c r="E698" t="n">
-        <v>2871</v>
-      </c>
-      <c r="F698" t="n">
-        <v>407.9468</v>
-      </c>
-      <c r="G698" t="n">
-        <v>-30317.94666195711</v>
-      </c>
-      <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
-      <c r="L698" t="n">
-        <v>1</v>
-      </c>
-      <c r="M698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="n">
-        <v>2865</v>
-      </c>
-      <c r="C699" t="n">
-        <v>2864</v>
-      </c>
-      <c r="D699" t="n">
-        <v>2865</v>
-      </c>
-      <c r="E699" t="n">
-        <v>2864</v>
-      </c>
-      <c r="F699" t="n">
-        <v>119.6939</v>
-      </c>
-      <c r="G699" t="n">
-        <v>-30437.64056195711</v>
-      </c>
-      <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
-      <c r="L699" t="n">
-        <v>1</v>
-      </c>
-      <c r="M699" t="inlineStr"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
-        <v>698</v>
-      </c>
-      <c r="B700" t="n">
-        <v>2872</v>
-      </c>
-      <c r="C700" t="n">
-        <v>2871</v>
-      </c>
-      <c r="D700" t="n">
-        <v>2872</v>
-      </c>
-      <c r="E700" t="n">
-        <v>2871</v>
-      </c>
-      <c r="F700" t="n">
-        <v>29.9895524983773</v>
-      </c>
-      <c r="G700" t="n">
-        <v>-30407.65100945873</v>
-      </c>
-      <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
-      <c r="L700" t="n">
-        <v>1</v>
-      </c>
-      <c r="M700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
-        <v>699</v>
-      </c>
-      <c r="B701" t="n">
-        <v>2870</v>
-      </c>
-      <c r="C701" t="n">
-        <v>2870</v>
-      </c>
-      <c r="D701" t="n">
-        <v>2870</v>
-      </c>
-      <c r="E701" t="n">
-        <v>2870</v>
-      </c>
-      <c r="F701" t="n">
-        <v>921.1495</v>
-      </c>
-      <c r="G701" t="n">
-        <v>-31328.80050945873</v>
-      </c>
-      <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
-      <c r="L701" t="n">
-        <v>1</v>
-      </c>
-      <c r="M701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="B702" t="n">
-        <v>2873</v>
-      </c>
-      <c r="C702" t="n">
-        <v>2875</v>
-      </c>
-      <c r="D702" t="n">
-        <v>2875</v>
-      </c>
-      <c r="E702" t="n">
-        <v>2873</v>
-      </c>
-      <c r="F702" t="n">
-        <v>43.0718</v>
-      </c>
-      <c r="G702" t="n">
-        <v>-31285.72870945873</v>
-      </c>
-      <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
-      <c r="L702" t="n">
-        <v>1</v>
-      </c>
-      <c r="M702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="n">
-        <v>2875</v>
-      </c>
-      <c r="C703" t="n">
-        <v>2881</v>
-      </c>
-      <c r="D703" t="n">
-        <v>2881</v>
-      </c>
-      <c r="E703" t="n">
-        <v>2875</v>
-      </c>
-      <c r="F703" t="n">
-        <v>132.6239</v>
-      </c>
-      <c r="G703" t="n">
-        <v>-31153.10480945873</v>
-      </c>
-      <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
-      <c r="L703" t="n">
-        <v>1</v>
-      </c>
-      <c r="M703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B704" t="n">
-        <v>2887</v>
-      </c>
-      <c r="C704" t="n">
-        <v>2886</v>
-      </c>
-      <c r="D704" t="n">
-        <v>2887</v>
-      </c>
-      <c r="E704" t="n">
-        <v>2886</v>
-      </c>
-      <c r="F704" t="n">
-        <v>411.5712</v>
-      </c>
-      <c r="G704" t="n">
-        <v>-30741.53360945873</v>
-      </c>
-      <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
-      <c r="L704" t="n">
-        <v>1</v>
-      </c>
-      <c r="M704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B705" t="n">
-        <v>2881</v>
-      </c>
-      <c r="C705" t="n">
-        <v>2880</v>
-      </c>
-      <c r="D705" t="n">
-        <v>2881</v>
-      </c>
-      <c r="E705" t="n">
-        <v>2880</v>
-      </c>
-      <c r="F705" t="n">
-        <v>99.8057</v>
-      </c>
-      <c r="G705" t="n">
-        <v>-30841.33930945873</v>
-      </c>
-      <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
-      <c r="L705" t="n">
-        <v>1</v>
-      </c>
-      <c r="M705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="n">
-        <v>2880</v>
-      </c>
-      <c r="C706" t="n">
-        <v>2885</v>
-      </c>
-      <c r="D706" t="n">
-        <v>2885</v>
-      </c>
-      <c r="E706" t="n">
-        <v>2880</v>
-      </c>
-      <c r="F706" t="n">
-        <v>343</v>
-      </c>
-      <c r="G706" t="n">
-        <v>-30498.33930945873</v>
-      </c>
-      <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
-      <c r="L706" t="n">
-        <v>1</v>
-      </c>
-      <c r="M706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="n">
-        <v>2883</v>
-      </c>
-      <c r="C707" t="n">
-        <v>2883</v>
-      </c>
-      <c r="D707" t="n">
-        <v>2883</v>
-      </c>
-      <c r="E707" t="n">
-        <v>2883</v>
-      </c>
-      <c r="F707" t="n">
-        <v>36.8101</v>
-      </c>
-      <c r="G707" t="n">
-        <v>-30535.14940945873</v>
-      </c>
-      <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
-      <c r="L707" t="n">
-        <v>1</v>
-      </c>
-      <c r="M707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="n">
-        <v>2886</v>
-      </c>
-      <c r="C708" t="n">
-        <v>2898</v>
-      </c>
-      <c r="D708" t="n">
-        <v>2898</v>
-      </c>
-      <c r="E708" t="n">
-        <v>2886</v>
-      </c>
-      <c r="F708" t="n">
-        <v>1662.3753</v>
-      </c>
-      <c r="G708" t="n">
-        <v>-28872.77410945873</v>
-      </c>
-      <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
-      <c r="L708" t="n">
-        <v>1</v>
-      </c>
-      <c r="M708" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="B709" t="n">
-        <v>2898</v>
-      </c>
-      <c r="C709" t="n">
-        <v>2902</v>
-      </c>
-      <c r="D709" t="n">
-        <v>2902</v>
-      </c>
-      <c r="E709" t="n">
-        <v>2898</v>
-      </c>
-      <c r="F709" t="n">
-        <v>1324.9007</v>
-      </c>
-      <c r="G709" t="n">
-        <v>-27547.87340945873</v>
-      </c>
-      <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
-      <c r="L709" t="n">
-        <v>1</v>
-      </c>
-      <c r="M709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="1" t="n">
-        <v>708</v>
-      </c>
-      <c r="B710" t="n">
-        <v>2902</v>
-      </c>
-      <c r="C710" t="n">
-        <v>2902</v>
-      </c>
-      <c r="D710" t="n">
-        <v>2902</v>
-      </c>
-      <c r="E710" t="n">
-        <v>2902</v>
-      </c>
-      <c r="F710" t="n">
-        <v>10.0001</v>
-      </c>
-      <c r="G710" t="n">
-        <v>-27547.87340945873</v>
-      </c>
-      <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
-      <c r="L710" t="n">
-        <v>1</v>
-      </c>
-      <c r="M710" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="A711" s="1" t="n">
-        <v>709</v>
-      </c>
-      <c r="B711" t="n">
-        <v>2907</v>
-      </c>
-      <c r="C711" t="n">
-        <v>2908</v>
-      </c>
-      <c r="D711" t="n">
-        <v>2908</v>
-      </c>
-      <c r="E711" t="n">
-        <v>2907</v>
-      </c>
-      <c r="F711" t="n">
-        <v>375.9037</v>
-      </c>
-      <c r="G711" t="n">
-        <v>-27171.96970945874</v>
-      </c>
-      <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
-      <c r="L711" t="n">
-        <v>1</v>
-      </c>
-      <c r="M711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="1" t="n">
-        <v>710</v>
-      </c>
-      <c r="B712" t="n">
-        <v>2908</v>
-      </c>
-      <c r="C712" t="n">
-        <v>2908</v>
-      </c>
-      <c r="D712" t="n">
-        <v>2909</v>
-      </c>
-      <c r="E712" t="n">
-        <v>2908</v>
-      </c>
-      <c r="F712" t="n">
-        <v>1161.5548</v>
-      </c>
-      <c r="G712" t="n">
-        <v>-27171.96970945874</v>
-      </c>
-      <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
-      <c r="L712" t="n">
-        <v>1</v>
-      </c>
-      <c r="M712" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="1" t="n">
-        <v>711</v>
-      </c>
-      <c r="B713" t="n">
-        <v>2909</v>
-      </c>
-      <c r="C713" t="n">
-        <v>2917</v>
-      </c>
-      <c r="D713" t="n">
-        <v>2918</v>
-      </c>
-      <c r="E713" t="n">
-        <v>2909</v>
-      </c>
-      <c r="F713" t="n">
-        <v>97.68389999999999</v>
-      </c>
-      <c r="G713" t="n">
-        <v>-27074.28580945874</v>
-      </c>
-      <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
-      <c r="L713" t="n">
-        <v>1</v>
-      </c>
-      <c r="M713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="B714" t="n">
-        <v>2918</v>
-      </c>
-      <c r="C714" t="n">
-        <v>2922</v>
-      </c>
-      <c r="D714" t="n">
-        <v>2922</v>
-      </c>
-      <c r="E714" t="n">
-        <v>2918</v>
-      </c>
-      <c r="F714" t="n">
-        <v>571.08</v>
-      </c>
-      <c r="G714" t="n">
-        <v>-26503.20580945873</v>
-      </c>
-      <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
-      <c r="L714" t="n">
-        <v>1</v>
-      </c>
-      <c r="M714" t="inlineStr"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="1" t="n">
-        <v>713</v>
-      </c>
-      <c r="B715" t="n">
-        <v>2923</v>
-      </c>
-      <c r="C715" t="n">
-        <v>2945</v>
-      </c>
-      <c r="D715" t="n">
-        <v>2945</v>
-      </c>
-      <c r="E715" t="n">
-        <v>2922</v>
-      </c>
-      <c r="F715" t="n">
-        <v>4456.7669</v>
-      </c>
-      <c r="G715" t="n">
-        <v>-22046.43890945873</v>
-      </c>
-      <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24365,7 +24813,7 @@
         <v>-22046.43890945873</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24398,7 +24846,7 @@
         <v>-23078.60180945873</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -24431,7 +24879,7 @@
         <v>-20112.73390945873</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -24464,7 +24912,7 @@
         <v>-21774.56260945874</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24497,7 +24945,7 @@
         <v>-21145.34130945873</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24530,7 +24978,7 @@
         <v>-21341.58970945873</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24563,7 +25011,7 @@
         <v>-21170.50920945873</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -24596,7 +25044,7 @@
         <v>-19471.09290945873</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24629,7 +25077,7 @@
         <v>-23760.21310945873</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -24662,7 +25110,7 @@
         <v>-25241.34060945873</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -24695,7 +25143,7 @@
         <v>-25241.34060945873</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -24728,7 +25176,7 @@
         <v>-24460.38200945873</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -24761,7 +25209,7 @@
         <v>-21212.22710945873</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -24794,7 +25242,7 @@
         <v>-20811.76490945873</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24827,7 +25275,7 @@
         <v>-14929.09940945873</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24860,7 +25308,7 @@
         <v>-15705.26210945873</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24893,7 +25341,7 @@
         <v>-15705.26210945873</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24926,7 +25374,7 @@
         <v>-59475.79730945873</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24959,7 +25407,7 @@
         <v>-61785.67630945873</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24992,7 +25440,7 @@
         <v>-61785.45970945873</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -25025,7 +25473,7 @@
         <v>-65032.98288811042</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
